--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,10,25ц-выезд 04,10.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,10,25ц-выезд 04,10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018FDD30-D578-4D8E-A8D0-506C88B282DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FD84F-664A-466C-B960-A5DD4C65430C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$180</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="257">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>СЕЙЧАС СЕЗОН ПМ вар п/о 0.4кг</t>
   </si>
 </sst>
 </file>
@@ -1985,11 +1988,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1703"/>
+  <dimension ref="A1:L1704"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E194" sqref="E194"/>
+      <pane ySplit="9" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2137,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D178,4)</f>
+        <f>RIGHT(D11:D179,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2165,7 +2168,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D179,4)</f>
+        <f>RIGHT(D12:D180,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2190,7 +2193,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D179,4)</f>
+        <f>RIGHT(D13:D180,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2214,7 +2217,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D180,4)</f>
+        <f>RIGHT(D14:D181,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2238,7 +2241,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D181,4)</f>
+        <f>RIGHT(D15:D182,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2264,7 +2267,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D181,4)</f>
+        <f>RIGHT(D16:D182,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2288,7 +2291,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f t="shared" ref="A17:A24" si="0">RIGHT(D17:D181,4)</f>
+        <f>RIGHT(D17:D182,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2318,7 +2321,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D18:D183,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2344,7 +2347,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D184,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2370,7 +2373,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D185,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2394,7 +2397,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D186,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2424,7 +2427,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D187,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2454,7 +2457,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D188,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2484,7 +2487,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D24:D189,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2514,7 +2517,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D192,4)</f>
+        <f>RIGHT(D25:D193,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2538,7 +2541,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D192,4)</f>
+        <f>RIGHT(D26:D193,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2562,7 +2565,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D193,4)</f>
+        <f>RIGHT(D27:D194,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2592,7 +2595,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f t="shared" ref="A28:A33" si="1">RIGHT(D28:D196,4)</f>
+        <f>RIGHT(D28:D197,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2622,7 +2625,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D29:D198,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2652,7 +2655,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D30:D199,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2678,7 +2681,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D31:D200,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2702,7 +2705,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D32:D201,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2726,7 +2729,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D33:D202,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2752,106 +2755,104 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D199,4)</f>
-        <v>5851</v>
+        <f>RIGHT(D34:D203,4)</f>
+        <v>7343</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D34" s="28">
-        <v>1001012505851</v>
+        <v>1001016747343</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G34" s="23">
-        <f>E34*1</f>
+        <f>F34*E34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I34" s="14">
-        <v>60</v>
-      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="39"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
         <f>RIGHT(D35:D200,4)</f>
-        <v>6159</v>
+        <v>5851</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="28">
-        <v>1001014486159</v>
+        <v>1001012505851</v>
       </c>
       <c r="E35" s="24"/>
-      <c r="F35" s="23"/>
+      <c r="F35" s="23">
+        <v>1.366666666666666</v>
+      </c>
       <c r="G35" s="23">
         <f>E35*1</f>
         <v>0</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="H35" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I35" s="14">
+        <v>60</v>
+      </c>
       <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D200,4)</f>
-        <v>6158</v>
+        <f>RIGHT(D36:D201,4)</f>
+        <v>6159</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D36" s="28">
-        <v>1001014486158</v>
+        <v>1001014486159</v>
       </c>
       <c r="E36" s="24"/>
-      <c r="F36" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F36" s="23"/>
       <c r="G36" s="23">
-        <f>E36*0.4</f>
+        <f>E36*1</f>
         <v>0</v>
       </c>
       <c r="H36" s="14"/>
-      <c r="I36" s="14">
-        <v>60</v>
-      </c>
+      <c r="I36" s="14"/>
       <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D202,4)</f>
-        <v>6340</v>
-      </c>
-      <c r="B37" s="95" t="s">
-        <v>50</v>
+        <f>RIGHT(D37:D201,4)</f>
+        <v>6158</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="28">
-        <v>1001012816340</v>
+        <v>1001014486158</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G37" s="23">
-        <f>E37*0.5</f>
+        <f>E37*0.4</f>
         <v>0</v>
       </c>
       <c r="H37" s="14"/>
@@ -2860,96 +2861,99 @@
       </c>
       <c r="J37" s="39"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D200,4)</f>
-        <v>6353</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>51</v>
+        <f>RIGHT(D38:D203,4)</f>
+        <v>6340</v>
+      </c>
+      <c r="B38" s="95" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="28">
-        <v>1001012506353</v>
+        <v>1001012816340</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="23">
-        <f>E38*0.4</f>
+        <f>E38*0.5</f>
         <v>0</v>
       </c>
-      <c r="H38" s="14">
-        <v>3.2</v>
-      </c>
+      <c r="H38" s="14"/>
       <c r="I38" s="14">
         <v>60</v>
       </c>
       <c r="J38" s="39"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
         <f>RIGHT(D39:D201,4)</f>
+        <v>6353</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="28">
+        <v>1001012506353</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G39" s="23">
+        <f>E39*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I39" s="14">
+        <v>60</v>
+      </c>
+      <c r="J39" s="39"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="93" t="str">
+        <f>RIGHT(D40:D202,4)</f>
         <v/>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B40" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="75"/>
-    </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D204,4)</f>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
+    </row>
+    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="93" t="str">
+        <f>RIGHT(D41:D205,4)</f>
         <v>6870</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B41" s="27" t="s">
         <v>53</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="28">
-        <v>1001023856870</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23">
-        <f>E40*1</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="82"/>
-    </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D206,4)</f>
-        <v>7038</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>54</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="28">
-        <v>1001023857038</v>
+        <v>1001023856870</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23">
-        <f>E41</f>
+        <f>E41*1</f>
         <v>0</v>
       </c>
       <c r="H41" s="14"/>
@@ -2960,23 +2964,21 @@
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
         <f>RIGHT(D42:D207,4)</f>
-        <v>7040</v>
+        <v>7038</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D42" s="28">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="E42" s="24"/>
-      <c r="F42" s="23">
-        <v>0.27</v>
-      </c>
+      <c r="F42" s="23"/>
       <c r="G42" s="23">
-        <f>F42*E42</f>
+        <f>E42</f>
         <v>0</v>
       </c>
       <c r="H42" s="14"/>
@@ -2986,22 +2988,24 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D206,4)</f>
-        <v>7075</v>
+        <f>RIGHT(D43:D208,4)</f>
+        <v>7040</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D43" s="28">
-        <v>1001022657075</v>
+        <v>1001025027040</v>
       </c>
       <c r="E43" s="24"/>
-      <c r="F43" s="23"/>
+      <c r="F43" s="23">
+        <v>0.27</v>
+      </c>
       <c r="G43" s="23">
-        <f>E43</f>
+        <f>F43*E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="14"/>
@@ -3012,16 +3016,16 @@
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
         <f>RIGHT(D44:D207,4)</f>
-        <v>7070</v>
+        <v>7075</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="28">
-        <v>1001022377070</v>
+        <v>1001022657075</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23"/>
@@ -3036,17 +3040,17 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D205,4)</f>
-        <v>6253</v>
+        <f>RIGHT(D45:D208,4)</f>
+        <v>7070</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="28">
-        <v>1001020836253</v>
+        <v>1001022377070</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
@@ -3061,22 +3065,22 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D204,4)</f>
-        <v>6602</v>
+        <f>RIGHT(D46:D206,4)</f>
+        <v>6253</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D46" s="28">
-        <v>1001021966602</v>
+        <v>1001020836253</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23">
-        <f>E46*0.35</f>
+        <f>E46</f>
         <v>0</v>
       </c>
       <c r="H46" s="14"/>
@@ -3086,22 +3090,22 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D207,4)</f>
-        <v>6768</v>
+        <f>RIGHT(D47:D205,4)</f>
+        <v>6602</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="28">
-        <v>1001025176768</v>
+        <v>1001021966602</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23">
-        <f>E47*0.41</f>
+        <f>E47*0.35</f>
         <v>0</v>
       </c>
       <c r="H47" s="14"/>
@@ -3112,16 +3116,16 @@
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
         <f>RIGHT(D48:D208,4)</f>
-        <v>6770</v>
+        <v>6768</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="28">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
@@ -3134,48 +3138,49 @@
       <c r="J48" s="39"/>
       <c r="K48" s="82"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D211,4)</f>
-        <v>6829</v>
+        <f>RIGHT(D49:D209,4)</f>
+        <v>6770</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D49" s="28">
-        <v>1001024976829</v>
+        <v>1001025486770</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23">
-        <f>E49*1</f>
+        <f>E49*0.41</f>
         <v>0</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="39"/>
+      <c r="K49" s="82"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f t="shared" ref="A50:A55" si="2">RIGHT(D50:D216,4)</f>
-        <v>7074</v>
+        <f>RIGHT(D50:D212,4)</f>
+        <v>6829</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D50" s="28">
-        <v>1001022657074</v>
+        <v>1001024976829</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23">
-        <f>E50*0.6</f>
+        <f>E50*1</f>
         <v>0</v>
       </c>
       <c r="H50" s="14"/>
@@ -3184,22 +3189,22 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>7073</v>
+        <f t="shared" ref="A51:A56" si="0">RIGHT(D51:D217,4)</f>
+        <v>7074</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="28">
-        <v>1001022657073</v>
+        <v>1001022657074</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23">
-        <f>E51*0.35</f>
+        <f>E51*0.6</f>
         <v>0</v>
       </c>
       <c r="H51" s="14"/>
@@ -3208,22 +3213,22 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>6759</v>
+        <f t="shared" si="0"/>
+        <v>7073</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="28">
-        <v>1001020836759</v>
+        <v>1001022657073</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23">
-        <f>E52*0.4</f>
+        <f>E52*0.35</f>
         <v>0</v>
       </c>
       <c r="H52" s="14"/>
@@ -3232,24 +3237,22 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>6724</v>
+        <f t="shared" si="0"/>
+        <v>6759</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="28">
-        <v>1001020836724</v>
+        <v>1001020836759</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F53" s="23"/>
       <c r="G53" s="23">
-        <f>F53*E53</f>
+        <f>E53*0.4</f>
         <v>0</v>
       </c>
       <c r="H53" s="14"/>
@@ -3258,21 +3261,21 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>6616</v>
+        <f t="shared" si="0"/>
+        <v>6724</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="28">
-        <v>1001024976616</v>
+        <v>1001020836724</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="G54" s="23">
         <f>F54*E54</f>
@@ -3284,17 +3287,17 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>7276</v>
+        <f t="shared" si="0"/>
+        <v>6616</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="28">
-        <v>1001022467276</v>
+        <v>1001024976616</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23">
@@ -3310,24 +3313,24 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D219,4)</f>
-        <v>6901</v>
+        <f t="shared" si="0"/>
+        <v>7276</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="28">
-        <v>1001025526901</v>
+        <v>1001022467276</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="G56" s="23">
-        <f>E56*F56</f>
+        <f>F56*E56</f>
         <v>0</v>
       </c>
       <c r="H56" s="14"/>
@@ -3337,16 +3340,16 @@
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
         <f>RIGHT(D57:D220,4)</f>
-        <v>6962</v>
+        <v>6901</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="28">
-        <v>1001025526962</v>
+        <v>1001025526901</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23">
@@ -3360,157 +3363,157 @@
       <c r="I57" s="14"/>
       <c r="J57" s="39"/>
     </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D218,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B58" s="70" t="s">
-        <v>71</v>
+        <f>RIGHT(D58:D221,4)</f>
+        <v>6962</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D58" s="28">
-        <v>1001022726303</v>
+        <v>1001025526962</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G58" s="23">
-        <f>E58*1</f>
+        <f>E58*F58</f>
         <v>0</v>
       </c>
-      <c r="H58" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I58" s="14">
-        <v>45</v>
-      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="39"/>
-      <c r="K58" s="82"/>
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
         <f>RIGHT(D59:D219,4)</f>
-        <v>7077</v>
+        <v>6303</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>26</v>
+        <v>71</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D59" s="28">
-        <v>1001025507077</v>
+        <v>1001022726303</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="23"/>
+      <c r="F59" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G59" s="23">
-        <f>E59*0.4</f>
+        <f>E59*1</f>
         <v>0</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
+      <c r="H59" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I59" s="14">
+        <v>45</v>
+      </c>
       <c r="J59" s="39"/>
       <c r="K59" s="82"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D219,4)</f>
-        <v>7080</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>73</v>
+        <f>RIGHT(D60:D220,4)</f>
+        <v>7077</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>72</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="28">
-        <v>1001022467080</v>
+        <v>1001025507077</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F60" s="23"/>
       <c r="G60" s="23">
-        <f>E60*0.41</f>
+        <f>E60*0.4</f>
         <v>0</v>
       </c>
-      <c r="H60" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I60" s="14">
-        <v>45</v>
-      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
       <c r="J60" s="39"/>
+      <c r="K60" s="82"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
         <f>RIGHT(D61:D220,4)</f>
-        <v>6762</v>
+        <v>7080</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="28">
-        <v>1001020846762</v>
+        <v>1001022467080</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G61" s="23">
-        <f>E61*F61</f>
+        <f>E61*0.41</f>
         <v>0</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="H61" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I61" s="14">
+        <v>45</v>
+      </c>
       <c r="J61" s="39"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D220,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D62:D221,4)</f>
+        <v>6762</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D62" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E62" s="24"/>
-      <c r="F62" s="23"/>
+      <c r="F62" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G62" s="23">
-        <f>E62*1</f>
+        <f>E62*F62</f>
         <v>0</v>
       </c>
       <c r="H62" s="14"/>
-      <c r="I62" s="14">
-        <v>45</v>
-      </c>
+      <c r="I62" s="14"/>
       <c r="J62" s="39"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
         <f>RIGHT(D63:D221,4)</f>
-        <v>7082</v>
+        <v>5820</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001022467082</v>
+        <v>1001022465820</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="23"/>
@@ -3519,22 +3522,24 @@
         <v>0</v>
       </c>
       <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
+      <c r="I63" s="14">
+        <v>45</v>
+      </c>
       <c r="J63" s="39"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
         <f>RIGHT(D64:D222,4)</f>
-        <v>6764</v>
+        <v>7082</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="28">
-        <v>1001020846764</v>
+        <v>1001022467082</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
@@ -3548,17 +3553,17 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D224,4)</f>
-        <v>6761</v>
+        <f>RIGHT(D65:D223,4)</f>
+        <v>6764</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
@@ -3573,16 +3578,16 @@
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
         <f>RIGHT(D66:D225,4)</f>
-        <v>6767</v>
+        <v>6761</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
@@ -3596,22 +3601,22 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D225,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D67:D226,4)</f>
+        <v>6767</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>26</v>
+        <v>79</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D67" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23">
-        <f>E67*0.36</f>
+        <f>E67*1</f>
         <v>0</v>
       </c>
       <c r="H67" s="14"/>
@@ -3621,23 +3626,21 @@
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
         <f>RIGHT(D68:D226,4)</f>
-        <v>6909</v>
+        <v>6765</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="28">
-        <v>1001025766909</v>
+        <v>1001023696765</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F68" s="23"/>
       <c r="G68" s="23">
-        <f>E68*F68</f>
+        <f>E68*0.36</f>
         <v>0</v>
       </c>
       <c r="H68" s="14"/>
@@ -3647,16 +3650,16 @@
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
         <f>RIGHT(D69:D227,4)</f>
-        <v>7284</v>
+        <v>6909</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="28">
-        <v>1001025767284</v>
+        <v>1001025766909</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23">
@@ -3672,17 +3675,17 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D227,4)</f>
-        <v>7250</v>
+        <f>RIGHT(D70:D228,4)</f>
+        <v>7284</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="28">
-        <v>1001026617250</v>
+        <v>1001025767284</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23">
@@ -3698,21 +3701,21 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D227,4)</f>
-        <v>6987</v>
+        <f>RIGHT(D71:D228,4)</f>
+        <v>7250</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D71" s="28">
-        <v>1001025886987</v>
+        <v>1001026617250</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="G71" s="23">
         <f>E71*F71</f>
@@ -3724,78 +3727,80 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D225,4)</f>
-        <v>7066</v>
+        <f>RIGHT(D72:D228,4)</f>
+        <v>6987</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="28">
-        <v>1001022377066</v>
+        <v>1001025886987</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="G72" s="23">
-        <f>E72*0.41</f>
+        <f>E72*F72</f>
         <v>0</v>
       </c>
-      <c r="H72" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I72" s="14">
-        <v>45</v>
-      </c>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="39"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
         <f>RIGHT(D73:D226,4)</f>
-        <v>6837</v>
+        <v>7066</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D73" s="28">
-        <v>1001022556837</v>
+        <v>1001022377066</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="23">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G73" s="23">
-        <f>E73*0.4</f>
+        <f>E73*0.41</f>
         <v>0</v>
       </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="H73" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I73" s="14">
+        <v>45</v>
+      </c>
       <c r="J73" s="39"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
         <f>RIGHT(D74:D227,4)</f>
-        <v>7271</v>
+        <v>6837</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D74" s="28">
-        <v>1001025507271</v>
+        <v>1001022556837</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="23"/>
+      <c r="F74" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G74" s="23">
-        <f>E74</f>
+        <f>E74*0.4</f>
         <v>0</v>
       </c>
       <c r="H74" s="14"/>
@@ -3804,17 +3809,17 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D227,4)</f>
-        <v>7244</v>
+        <f>RIGHT(D75:D228,4)</f>
+        <v>7271</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="28">
-        <v>1001022557244</v>
+        <v>1001025507271</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="23"/>
@@ -3826,49 +3831,48 @@
       <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
         <f>RIGHT(D76:D228,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="30" t="s">
+        <v>7244</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="28">
-        <v>1001022246661</v>
+        <v>1001022557244</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23">
-        <f>E76*1</f>
+        <f>E76</f>
         <v>0</v>
       </c>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="39"/>
-      <c r="K76" s="82"/>
-    </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
         <f>RIGHT(D77:D229,4)</f>
-        <v>6713</v>
+        <v>6661</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D77" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23">
-        <f>E77*0.41</f>
+        <f>E77*1</f>
         <v>0</v>
       </c>
       <c r="H77" s="14"/>
@@ -3876,97 +3880,96 @@
       <c r="J77" s="39"/>
       <c r="K77" s="82"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D225,4)</f>
-        <v/>
-      </c>
-      <c r="B78" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="75"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D78:D230,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23">
+        <f>E78*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="82"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="str">
         <f>RIGHT(D79:D226,4)</f>
+        <v/>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="75"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="93" t="str">
+        <f>RIGHT(D80:D227,4)</f>
         <v>5698</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B80" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C80" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="28">
+      <c r="D80" s="28">
         <v>1001034065698</v>
       </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="23">
+      <c r="E80" s="24"/>
+      <c r="F80" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G79" s="23">
-        <f>E79*1</f>
+      <c r="G80" s="23">
+        <f>E80*1</f>
         <v>0</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H80" s="14">
         <v>3.04</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I80" s="14">
         <v>30</v>
       </c>
-      <c r="J79" s="39"/>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D229,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B80" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23">
-        <f>E80*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
       <c r="J80" s="39"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
         <f>RIGHT(D81:D230,4)</f>
-        <v>7059</v>
+        <v>6528</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D81" s="28">
-        <v>1001035277059</v>
+        <v>1001031076528</v>
       </c>
       <c r="E81" s="24"/>
-      <c r="F81" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F81" s="23"/>
       <c r="G81" s="23">
-        <f>F81*E81</f>
+        <f>E81*0.4</f>
         <v>0</v>
       </c>
       <c r="H81" s="14"/>
@@ -3975,21 +3978,21 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D230,4)</f>
-        <v>6609</v>
+        <f>RIGHT(D82:D231,4)</f>
+        <v>7059</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="28">
-        <v>1001033856609</v>
+        <v>1001035277059</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G82" s="23">
         <f>F82*E82</f>
@@ -4002,117 +4005,115 @@
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
         <f>RIGHT(D83:D231,4)</f>
-        <v>7001</v>
+        <v>6609</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D83" s="28">
-        <v>1001035937001</v>
+        <v>1001033856609</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G83" s="23">
-        <f>E83</f>
+        <f>F83*E83</f>
         <v>0</v>
       </c>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="39"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D231,4)</f>
-        <v>6527</v>
+        <f>RIGHT(D84:D232,4)</f>
+        <v>7001</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="28">
-        <v>1001031076527</v>
+        <v>1001035937001</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23">
-        <v>1.0166666666666671</v>
+        <v>1</v>
       </c>
       <c r="G84" s="23">
-        <f>E84*1</f>
+        <f>E84</f>
         <v>0</v>
       </c>
-      <c r="H84" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I84" s="14">
-        <v>30</v>
-      </c>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
       <c r="J84" s="39"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="93" t="str">
         <f>RIGHT(D85:D232,4)</f>
-        <v/>
-      </c>
-      <c r="B85" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="74"/>
-      <c r="H85" s="74"/>
-      <c r="I85" s="74"/>
-      <c r="J85" s="75"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6527</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="23">
+        <v>1.0166666666666671</v>
+      </c>
+      <c r="G85" s="23">
+        <f>E85*1</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I85" s="14">
+        <v>30</v>
+      </c>
+      <c r="J85" s="39"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="93" t="str">
         <f>RIGHT(D86:D233,4)</f>
-        <v>7232</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="28">
-        <v>1001302277232</v>
-      </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G86" s="23">
-        <f>E86*F86</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14">
-        <v>50</v>
-      </c>
-      <c r="J86" s="39"/>
-    </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B86" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="75"/>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
         <f>RIGHT(D87:D234,4)</f>
-        <v>7332</v>
+        <v>7232</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="28">
-        <v>1001301777332</v>
+        <v>1001302277232</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="23">
@@ -4123,27 +4124,31 @@
         <v>0</v>
       </c>
       <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="I87" s="14">
+        <v>50</v>
+      </c>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D234,4)</f>
-        <v>6785</v>
+        <f>RIGHT(D88:D235,4)</f>
+        <v>7332</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="28">
-        <v>1001300516785</v>
+        <v>1001301777332</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23"/>
+      <c r="F88" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G88" s="23">
-        <f>E88*0.33</f>
+        <f>E88*F88</f>
         <v>0</v>
       </c>
       <c r="H88" s="14"/>
@@ -4153,68 +4158,68 @@
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
         <f>RIGHT(D89:D235,4)</f>
-        <v>7149</v>
-      </c>
-      <c r="B89" s="96" t="s">
-        <v>102</v>
+        <v>6785</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D89" s="28">
-        <v>1001303637149</v>
+        <v>1001300516785</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F89" s="23"/>
       <c r="G89" s="23">
-        <f>F89*E89</f>
+        <f>E89*0.33</f>
         <v>0</v>
       </c>
       <c r="H89" s="14"/>
-      <c r="I89" s="14">
-        <v>50</v>
-      </c>
+      <c r="I89" s="14"/>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D235,4)</f>
-        <v>6786</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>103</v>
+        <f>RIGHT(D90:D236,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B90" s="96" t="s">
+        <v>102</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D90" s="28">
-        <v>1001300516786</v>
+        <v>1001303637149</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="23"/>
+      <c r="F90" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G90" s="23">
-        <f>E90</f>
+        <f>F90*E90</f>
         <v>0</v>
       </c>
       <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="I90" s="14">
+        <v>50</v>
+      </c>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
         <f>RIGHT(D91:D236,4)</f>
-        <v>4903</v>
+        <v>6786</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="28">
-        <v>1001040434903</v>
+        <v>1001300516786</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23"/>
@@ -4228,17 +4233,17 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D236,4)</f>
-        <v>7131</v>
+        <f>RIGHT(D92:D237,4)</f>
+        <v>4903</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="28">
-        <v>1001303637131</v>
+        <v>1001040434903</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23"/>
@@ -4247,123 +4252,123 @@
         <v>0</v>
       </c>
       <c r="H92" s="14"/>
-      <c r="I92" s="14">
-        <v>45</v>
-      </c>
+      <c r="I92" s="14"/>
       <c r="J92" s="39"/>
     </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D234,4)</f>
-        <v>7241</v>
+        <f>RIGHT(D93:D237,4)</f>
+        <v>7131</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D93" s="28">
-        <v>1001303107241</v>
+        <v>1001303637131</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F93" s="23"/>
       <c r="G93" s="23">
-        <f>E93*0.28</f>
+        <f>E93</f>
         <v>0</v>
       </c>
-      <c r="H93" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H93" s="14"/>
       <c r="I93" s="14">
         <v>45</v>
       </c>
       <c r="J93" s="39"/>
     </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D237,4)</f>
-        <v/>
-      </c>
-      <c r="B94" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="74"/>
-      <c r="H94" s="74"/>
-      <c r="I94" s="74"/>
-      <c r="J94" s="75"/>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D94:D235,4)</f>
+        <v>7241</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="28">
+        <v>1001303107241</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G94" s="23">
+        <f>E94*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I94" s="14">
+        <v>45</v>
+      </c>
+      <c r="J94" s="39"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="93" t="str">
         <f>RIGHT(D95:D238,4)</f>
+        <v/>
+      </c>
+      <c r="B95" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="74"/>
+      <c r="J95" s="75"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="93" t="str">
+        <f>RIGHT(D96:D239,4)</f>
         <v>7154</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B96" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="28">
-        <v>1001300387154</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G95" s="23">
-        <f>E95*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14">
-        <v>50</v>
-      </c>
-      <c r="J95" s="39"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D240,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D96" s="28">
-        <v>1001303636793</v>
+        <v>1001300387154</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="23"/>
+      <c r="F96" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G96" s="23">
-        <f>E96*0.33</f>
+        <f>E96*0.35</f>
         <v>0</v>
       </c>
       <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="I96" s="14">
+        <v>50</v>
+      </c>
       <c r="J96" s="39"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
         <f>RIGHT(D97:D241,4)</f>
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="23"/>
@@ -4377,17 +4382,17 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D241,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D98:D242,4)</f>
+        <v>6795</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="23"/>
@@ -4401,76 +4406,76 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D241,4)</f>
-        <v>7236</v>
+        <f>RIGHT(D99:D242,4)</f>
+        <v>6807</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001304507236</v>
+        <v>1001300366807</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F99" s="23"/>
       <c r="G99" s="23">
-        <f>E99*0.28</f>
+        <f>E99*0.33</f>
         <v>0</v>
       </c>
-      <c r="H99" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I99" s="14">
-        <v>45</v>
-      </c>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
       <c r="J99" s="39"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D243,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D100:D242,4)</f>
+        <v>7236</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="28">
-        <v>1001300456787</v>
+        <v>1001304507236</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="23"/>
+      <c r="F100" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G100" s="23">
-        <f>E100*0.33</f>
+        <f>E100*0.28</f>
         <v>0</v>
       </c>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
+      <c r="H100" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I100" s="14">
+        <v>45</v>
+      </c>
       <c r="J100" s="39"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
         <f>RIGHT(D101:D244,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23"/>
       <c r="G101" s="23">
-        <f>E101*1</f>
+        <f>E101*0.33</f>
         <v>0</v>
       </c>
       <c r="H101" s="14"/>
@@ -4480,16 +4485,16 @@
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
         <f>RIGHT(D102:D245,4)</f>
-        <v>7157</v>
+        <v>6788</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D102" s="28">
-        <v>1001300387157</v>
+        <v>1001300456788</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="23"/>
@@ -4503,17 +4508,17 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
-        <f>RIGHT(D103:D245,4)</f>
-        <v>6790</v>
+        <f>RIGHT(D103:D246,4)</f>
+        <v>7157</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D103" s="28">
-        <v>1001300366790</v>
+        <v>1001300387157</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23"/>
@@ -4527,126 +4532,126 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D244,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B104" s="64" t="s">
-        <v>117</v>
+        <f>RIGHT(D104:D246,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D104" s="28">
-        <v>1001303987169</v>
+        <v>1001300366790</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F104" s="23"/>
       <c r="G104" s="23">
-        <f>E104*F104</f>
+        <f>E104*1</f>
         <v>0</v>
       </c>
       <c r="H104" s="14"/>
-      <c r="I104" s="14">
-        <v>50</v>
-      </c>
+      <c r="I104" s="14"/>
       <c r="J104" s="39"/>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
         <f>RIGHT(D105:D245,4)</f>
-        <v>6791</v>
+        <v>7169</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="28">
-        <v>1001304096791</v>
+        <v>1001303987169</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="23"/>
+      <c r="F105" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G105" s="23">
-        <f>E105*0.33</f>
+        <f>E105*F105</f>
         <v>0</v>
       </c>
       <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
+      <c r="I105" s="14">
+        <v>50</v>
+      </c>
       <c r="J105" s="39"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
         <f>RIGHT(D106:D246,4)</f>
-        <v>7166</v>
+        <v>6791</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>23</v>
+        <v>118</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001303987166</v>
+        <v>1001304096791</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="23"/>
       <c r="G106" s="23">
-        <f>E106*1</f>
+        <f>E106*0.33</f>
         <v>0</v>
       </c>
       <c r="H106" s="14"/>
-      <c r="I106" s="14">
-        <v>50</v>
-      </c>
+      <c r="I106" s="14"/>
       <c r="J106" s="39"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
         <f>RIGHT(D107:D247,4)</f>
-        <v>6459</v>
+        <v>7166</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>26</v>
+        <v>119</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D107" s="28">
-        <v>1001214196459</v>
+        <v>1001303987166</v>
       </c>
       <c r="E107" s="24"/>
-      <c r="F107" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F107" s="23"/>
       <c r="G107" s="23">
-        <f>E107*F107</f>
+        <f>E107*1</f>
         <v>0</v>
       </c>
       <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
+      <c r="I107" s="14">
+        <v>50</v>
+      </c>
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
         <f>RIGHT(D108:D248,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="23"/>
+      <c r="F108" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G108" s="23">
-        <f>E108*0.09</f>
+        <f>E108*F108</f>
         <v>0</v>
       </c>
       <c r="H108" s="14"/>
@@ -4655,17 +4660,17 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f>RIGHT(D109:D246,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D109:D249,4)</f>
+        <v>6586</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="23"/>
@@ -4680,23 +4685,21 @@
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
         <f>RIGHT(D110:D247,4)</f>
-        <v>7087</v>
+        <v>6228</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="28">
-        <v>1001084227087</v>
+        <v>1001225416228</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F110" s="23"/>
       <c r="G110" s="23">
-        <f>F110*E110</f>
+        <f>E110*0.09</f>
         <v>0</v>
       </c>
       <c r="H110" s="14"/>
@@ -4705,219 +4708,215 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D246,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B111" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D111:D248,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B111" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D111" s="28">
-        <v>1001051875544</v>
+        <v>1001084227087</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="23">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="G111" s="23">
-        <f>E111*1</f>
+        <f>F111*E111</f>
         <v>0</v>
       </c>
-      <c r="H111" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I111" s="14">
-        <v>45</v>
-      </c>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
       <c r="J111" s="39"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f t="shared" ref="A112:A117" si="3">RIGHT(D112:D248,4)</f>
-        <v>6697</v>
+        <f>RIGHT(D112:D247,4)</f>
+        <v>5544</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>26</v>
+        <v>124</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D112" s="28">
-        <v>1001301876697</v>
+        <v>1001051875544</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G112" s="23">
-        <f>E112*0.35</f>
+        <f>E112*1</f>
         <v>0</v>
       </c>
       <c r="H112" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I112" s="14">
         <v>45</v>
       </c>
       <c r="J112" s="39"/>
     </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A113:A118" si="1">RIGHT(D113:D249,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G113" s="23">
+        <f>E113*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I113" s="14">
+        <v>45</v>
+      </c>
+      <c r="J113" s="39"/>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="93" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B113" s="74" t="s">
+      <c r="B114" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="75"/>
-    </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="93" t="str">
-        <f t="shared" si="3"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="75"/>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="93" t="str">
+        <f t="shared" si="1"/>
         <v>5706</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B115" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="C114" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D114" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G114" s="23">
-        <f>E114*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="14">
-        <v>2</v>
-      </c>
-      <c r="I114" s="14">
-        <v>120</v>
-      </c>
-      <c r="J114" s="39"/>
-    </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>6454</v>
-      </c>
-      <c r="B115" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G115" s="23">
-        <f>E115*0.1</f>
+        <f>E115*0.25</f>
         <v>0</v>
       </c>
       <c r="H115" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I115" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J115" s="39"/>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>6222</v>
+        <f t="shared" si="1"/>
+        <v>6454</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C116" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E116" s="24"/>
-      <c r="F116" s="23"/>
+      <c r="F116" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G116" s="23">
-        <f>E116*0.09</f>
+        <f>E116*0.1</f>
         <v>0</v>
       </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
+      <c r="H116" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I116" s="14">
+        <v>60</v>
+      </c>
       <c r="J116" s="39"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>5931</v>
+        <f t="shared" si="1"/>
+        <v>6222</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E117" s="24"/>
-      <c r="F117" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F117" s="23"/>
       <c r="G117" s="23">
-        <f>E117*0.22</f>
+        <f>E117*0.09</f>
         <v>0</v>
       </c>
-      <c r="H117" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I117" s="14">
-        <v>120</v>
-      </c>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
       <c r="J117" s="39"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f>RIGHT(D118:D255,4)</f>
-        <v>5708</v>
+        <f t="shared" si="1"/>
+        <v>5931</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>23</v>
+        <v>130</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G118" s="23">
-        <f>E118*1</f>
+        <f>E118*0.22</f>
         <v>0</v>
       </c>
       <c r="H118" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I118" s="14">
         <v>120</v>
@@ -4927,40 +4926,46 @@
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
         <f>RIGHT(D119:D256,4)</f>
-        <v>1146</v>
+        <v>5708</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D119" s="28">
-        <v>1001061971146</v>
+        <v>1001063145708</v>
       </c>
       <c r="E119" s="24"/>
-      <c r="F119" s="23"/>
+      <c r="F119" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G119" s="23">
-        <f>E119</f>
+        <f>E119*1</f>
         <v>0</v>
       </c>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
+      <c r="H119" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I119" s="14">
+        <v>120</v>
+      </c>
       <c r="J119" s="39"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
         <f>RIGHT(D120:D257,4)</f>
-        <v>7150</v>
+        <v>1146</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="28">
-        <v>1001063237150</v>
+        <v>1001061971146</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23"/>
@@ -4974,22 +4979,22 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f>RIGHT(D121:D256,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D121:D258,4)</f>
+        <v>7150</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>26</v>
+        <v>133</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D121" s="28">
-        <v>1001203146834</v>
+        <v>1001063237150</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23"/>
       <c r="G121" s="23">
-        <f>E121*0.1</f>
+        <f>E121</f>
         <v>0</v>
       </c>
       <c r="H121" s="14"/>
@@ -4999,23 +5004,21 @@
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
         <f>RIGHT(D122:D257,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E122" s="24"/>
-      <c r="F122" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F122" s="23"/>
       <c r="G122" s="23">
-        <f>F122*E122</f>
+        <f>E122*0.1</f>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
@@ -5025,20 +5028,20 @@
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
         <f>RIGHT(D123:D258,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G123" s="23">
         <f>F123*E123</f>
@@ -5050,21 +5053,21 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f>RIGHT(D124:D258,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D124:D259,4)</f>
+        <v>6221</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G124" s="23">
         <f>F124*E124</f>
@@ -5076,80 +5079,80 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f t="shared" ref="A125:A130" si="4">RIGHT(D125:D260,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D125:D259,4)</f>
+        <v>5679</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G125" s="23">
-        <f>E125*0.25</f>
+        <f>F125*E125</f>
         <v>0</v>
       </c>
-      <c r="H125" s="14">
-        <v>2</v>
-      </c>
-      <c r="I125" s="14">
-        <v>120</v>
-      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
       <c r="J125" s="39"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7105</v>
+        <f t="shared" ref="A126:A131" si="2">RIGHT(D126:D261,4)</f>
+        <v>4993</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001203207105</v>
+        <v>1001060764993</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G126" s="23">
-        <f t="shared" ref="G126:G134" si="5">F126*E126</f>
+        <f>E126*0.25</f>
         <v>0</v>
       </c>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
+      <c r="H126" s="14">
+        <v>2</v>
+      </c>
+      <c r="I126" s="14">
+        <v>120</v>
+      </c>
       <c r="J126" s="39"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7106</v>
+        <f t="shared" si="2"/>
+        <v>7105</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
         <v>0.09</v>
       </c>
       <c r="G127" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G127:G135" si="3">F127*E127</f>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
@@ -5158,24 +5161,24 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7107</v>
+        <f t="shared" si="2"/>
+        <v>7106</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
         <v>0.09</v>
       </c>
       <c r="G128" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5184,24 +5187,24 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7147</v>
+        <f t="shared" si="2"/>
+        <v>7107</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001063237147</v>
+        <v>1001205467107</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5210,24 +5213,24 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7229</v>
+        <f t="shared" si="2"/>
+        <v>7147</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001063237229</v>
+        <v>1001063237147</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H130" s="14"/>
@@ -5236,24 +5239,24 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D265,4)</f>
-        <v>7225</v>
+        <f t="shared" si="2"/>
+        <v>7229</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001066537225</v>
+        <v>1001063237229</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
         <v>0.18</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
@@ -5263,23 +5266,23 @@
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
         <f>RIGHT(D132:D266,4)</f>
-        <v>7227</v>
+        <v>7225</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
         <v>0.18</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5289,23 +5292,23 @@
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
         <f>RIGHT(D133:D267,4)</f>
-        <v>7226</v>
+        <v>7227</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="28">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
         <v>0.18</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5314,24 +5317,24 @@
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
-        <f>RIGHT(D134:D261,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D134:D268,4)</f>
+        <v>7226</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="28">
-        <v>1001062353684</v>
+        <v>1001066527226</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
@@ -5340,209 +5343,209 @@
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
-        <f>RIGHT(D135:D261,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D135:D262,4)</f>
+        <v>3684</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G135" s="23">
-        <f>E135*0.12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H135" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I135" s="14">
-        <v>60</v>
-      </c>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
       <c r="J135" s="39"/>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D264,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D136:D262,4)</f>
+        <v>5682</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C136" s="30" t="s">
-        <v>23</v>
+        <v>148</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G136" s="23">
-        <f>E136*1</f>
+        <f>E136*0.12</f>
         <v>0</v>
       </c>
       <c r="H136" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I136" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J136" s="39"/>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
         <f>RIGHT(D137:D265,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D137" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E137" s="24"/>
-      <c r="F137" s="23"/>
+      <c r="F137" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G137" s="23">
-        <f>E137</f>
+        <f>E137*1</f>
         <v>0</v>
       </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
+      <c r="H137" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I137" s="14">
+        <v>120</v>
+      </c>
       <c r="J137" s="39"/>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D265,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D138:D266,4)</f>
+        <v>3680</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D138" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E138" s="24"/>
-      <c r="F138" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F138" s="23"/>
       <c r="G138" s="23">
-        <f>E138*0.25</f>
+        <f>E138</f>
         <v>0</v>
       </c>
-      <c r="H138" s="14">
-        <v>2</v>
-      </c>
-      <c r="I138" s="14">
-        <v>120</v>
-      </c>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
       <c r="J138" s="39"/>
     </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
         <f>RIGHT(D139:D266,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C139" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D139" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G139" s="23">
-        <f>E139*0.1</f>
+        <f>E139*0.25</f>
         <v>0</v>
       </c>
       <c r="H139" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I139" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J139" s="39"/>
     </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="93" t="str">
         <f>RIGHT(D140:D267,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G140" s="23">
+        <f>E140*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I140" s="14">
+        <v>60</v>
+      </c>
+      <c r="J140" s="39"/>
+    </row>
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="93" t="str">
+        <f>RIGHT(D141:D268,4)</f>
         <v/>
       </c>
-      <c r="B140" s="74" t="s">
+      <c r="B141" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="73"/>
-      <c r="G140" s="74"/>
-      <c r="H140" s="74"/>
-      <c r="I140" s="74"/>
-      <c r="J140" s="75"/>
-    </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="93" t="str">
-        <f>RIGHT(D141:D271,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B141" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="23">
-        <f>E141*1</f>
-        <v>0</v>
-      </c>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="39"/>
-    </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="74"/>
+      <c r="H141" s="74"/>
+      <c r="I141" s="74"/>
+      <c r="J141" s="75"/>
+    </row>
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
         <f>RIGHT(D142:D272,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D142" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E142" s="24"/>
-      <c r="F142" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F142" s="23"/>
       <c r="G142" s="23">
-        <f>F142*E142</f>
+        <f>E142*1</f>
         <v>0</v>
       </c>
       <c r="H142" s="14"/>
@@ -5552,20 +5555,20 @@
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
         <f>RIGHT(D143:D273,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G143" s="23">
         <f>F143*E143</f>
@@ -5578,20 +5581,20 @@
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
         <f>RIGHT(D144:D274,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G144" s="23">
         <f>F144*E144</f>
@@ -5603,22 +5606,24 @@
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
-        <f>RIGHT(D145:D272,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D145:D275,4)</f>
+        <v>6411</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D145" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E145" s="24"/>
-      <c r="F145" s="23"/>
+      <c r="F145" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G145" s="23">
-        <f>E145*1</f>
+        <f>F145*E145</f>
         <v>0</v>
       </c>
       <c r="H145" s="14"/>
@@ -5627,47 +5632,41 @@
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
-        <f>RIGHT(D146:D269,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C146" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D146:D273,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E146" s="24"/>
-      <c r="F146" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F146" s="23"/>
       <c r="G146" s="23">
-        <f>E146*0.4</f>
+        <f>E146*1</f>
         <v>0</v>
       </c>
-      <c r="H146" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I146" s="14">
-        <v>60</v>
-      </c>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
       <c r="J146" s="39"/>
     </row>
-    <row r="147" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
         <f>RIGHT(D147:D270,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C147" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D147" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="23">
@@ -5677,101 +5676,105 @@
         <f>E147*0.4</f>
         <v>0</v>
       </c>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
+      <c r="H147" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I147" s="14">
+        <v>60</v>
+      </c>
       <c r="J147" s="39"/>
     </row>
-    <row r="148" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="93" t="str">
-        <f>RIGHT(D148:D272,4)</f>
+        <f>RIGHT(D148:D271,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C148" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E148" s="24"/>
+      <c r="F148" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G148" s="23">
+        <f>E148*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="39"/>
+    </row>
+    <row r="149" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="93" t="str">
+        <f>RIGHT(D149:D273,4)</f>
         <v/>
       </c>
-      <c r="B148" s="74" t="s">
+      <c r="B149" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C148" s="74"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74"/>
-      <c r="F148" s="73"/>
-      <c r="G148" s="74"/>
-      <c r="H148" s="74"/>
-      <c r="I148" s="74"/>
-      <c r="J148" s="75"/>
-    </row>
-    <row r="149" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D275,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B149" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C149" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G149" s="23">
-        <f>E149*F149</f>
-        <v>0</v>
-      </c>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14">
-        <v>50</v>
-      </c>
-      <c r="J149" s="39"/>
-    </row>
-    <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="74"/>
+      <c r="H149" s="74"/>
+      <c r="I149" s="74"/>
+      <c r="J149" s="75"/>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
         <f>RIGHT(D150:D276,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
         <v>0.3</v>
       </c>
       <c r="G150" s="23">
-        <f t="shared" ref="G150:G156" si="6">F150*E150</f>
+        <f>E150*F150</f>
         <v>0</v>
       </c>
       <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="92"/>
+      <c r="I150" s="14">
+        <v>50</v>
+      </c>
+      <c r="J150" s="39"/>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
         <f>RIGHT(D151:D277,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23">
         <v>0.3</v>
       </c>
       <c r="G151" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G151:G157" si="4">F151*E151</f>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
@@ -5781,23 +5784,23 @@
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
         <f>RIGHT(D152:D278,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C152" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G152" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
@@ -5806,24 +5809,24 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
-        <f>RIGHT(D153:D278,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D153:D279,4)</f>
+        <v>6201</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C153" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G153" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
@@ -5832,24 +5835,24 @@
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
-        <f>RIGHT(D154:D278,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D154:D279,4)</f>
+        <v>6842</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
         <v>0.3</v>
       </c>
       <c r="G154" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H154" s="14"/>
@@ -5858,24 +5861,24 @@
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D276,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D155:D279,4)</f>
+        <v>6492</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C155" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G155" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H155" s="14"/>
@@ -5885,23 +5888,23 @@
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
         <f>RIGHT(D156:D277,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G156" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H156" s="14"/>
@@ -5911,23 +5914,23 @@
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
         <f>RIGHT(D157:D278,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D157" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G157" s="23">
-        <f>E157</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
@@ -5936,17 +5939,17 @@
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
-        <f>RIGHT(D158:D278,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D158:D279,4)</f>
+        <v>7052</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C158" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D158" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="23">
@@ -5962,47 +5965,47 @@
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93" t="str">
-        <f>RIGHT(D159:D278,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B159" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D159:D279,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B159" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D159" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G159" s="23">
-        <f>F159*E159</f>
+        <f>E159</f>
         <v>0</v>
       </c>
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
-      <c r="J159" s="39"/>
+      <c r="J159" s="92"/>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93" t="str">
         <f>RIGHT(D160:D279,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C160" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D160" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G160" s="23">
         <f>F160*E160</f>
@@ -6010,56 +6013,65 @@
       </c>
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
-      <c r="J160" s="92"/>
-    </row>
-    <row r="161" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J160" s="39"/>
+    </row>
+    <row r="161" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
-        <f>RIGHT(D161:D276,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B161" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C161" s="35" t="s">
+        <f>RIGHT(D161:D280,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E161" s="24"/>
-      <c r="F161" s="23"/>
+      <c r="F161" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G161" s="23">
-        <f>E161*0.18</f>
+        <f>F161*E161</f>
         <v>0</v>
       </c>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="92"/>
     </row>
-    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="93" t="str">
         <f>RIGHT(D162:D277,4)</f>
-        <v/>
-      </c>
-      <c r="B162" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C162" s="74"/>
-      <c r="D162" s="74"/>
-      <c r="E162" s="74"/>
-      <c r="F162" s="73"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="74"/>
-      <c r="I162" s="74"/>
-      <c r="J162" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E162" s="24"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23">
+        <f>E162*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="92"/>
     </row>
     <row r="163" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="93" t="str">
-        <f>RIGHT(D163:D280,4)</f>
+        <f>RIGHT(D163:D278,4)</f>
         <v/>
       </c>
       <c r="B163" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C163" s="74"/>
       <c r="D163" s="74"/>
@@ -6070,73 +6082,66 @@
       <c r="I163" s="74"/>
       <c r="J163" s="75"/>
     </row>
-    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="93" t="str">
         <f>RIGHT(D164:D281,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B164" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D164" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E164" s="24"/>
-      <c r="F164" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G164" s="23">
-        <f>E164*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H164" s="14">
-        <v>8</v>
-      </c>
-      <c r="I164" s="72">
-        <v>120</v>
-      </c>
-      <c r="J164" s="39"/>
-    </row>
-    <row r="165" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B164" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="74"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="73"/>
+      <c r="G164" s="74"/>
+      <c r="H164" s="74"/>
+      <c r="I164" s="74"/>
+      <c r="J164" s="75"/>
+    </row>
+    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A165" s="93" t="str">
         <f>RIGHT(D165:D282,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B165" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C165" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D165" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E165" s="24"/>
-      <c r="F165" s="23"/>
+      <c r="F165" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G165" s="23">
-        <f>E165*0.45</f>
+        <f>E165*0.5</f>
         <v>0</v>
       </c>
-      <c r="H165" s="14"/>
-      <c r="I165" s="72"/>
+      <c r="H165" s="14">
+        <v>8</v>
+      </c>
+      <c r="I165" s="72">
+        <v>120</v>
+      </c>
       <c r="J165" s="39"/>
     </row>
     <row r="166" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="str">
         <f>RIGHT(D166:D283,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B166" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C166" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D166" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="23"/>
@@ -6148,174 +6153,168 @@
       <c r="I166" s="72"/>
       <c r="J166" s="39"/>
     </row>
-    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="93" t="str">
-        <f t="shared" ref="A167:A178" si="7">RIGHT(D167:D282,4)</f>
+        <f>RIGHT(D167:D284,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B167" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E167" s="24"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23">
+        <f>E167*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H167" s="14"/>
+      <c r="I167" s="72"/>
+      <c r="J167" s="39"/>
+    </row>
+    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="93" t="str">
+        <f t="shared" ref="A168:A179" si="5">RIGHT(D168:D283,4)</f>
         <v>6313</v>
       </c>
-      <c r="B167" s="47" t="s">
+      <c r="B168" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C167" s="36" t="s">
+      <c r="C168" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="28">
+      <c r="D168" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E167" s="24"/>
-      <c r="F167" s="23">
+      <c r="E168" s="24"/>
+      <c r="F168" s="23">
         <v>0.9</v>
       </c>
-      <c r="G167" s="23">
-        <f>E167*0.9</f>
+      <c r="G168" s="23">
+        <f>E168*0.9</f>
         <v>0</v>
       </c>
-      <c r="H167" s="14">
+      <c r="H168" s="14">
         <v>9</v>
       </c>
-      <c r="I167" s="72">
+      <c r="I168" s="72">
         <v>120</v>
       </c>
-      <c r="J167" s="39"/>
-    </row>
-    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B168" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C168" s="74"/>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="73"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="74"/>
-      <c r="I168" s="74"/>
-      <c r="J168" s="75"/>
+      <c r="J168" s="39"/>
     </row>
     <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>4945</v>
-      </c>
-      <c r="B169" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C169" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E169" s="24"/>
-      <c r="F169" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G169" s="23">
-        <f>E169*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H169" s="14">
-        <v>8</v>
-      </c>
-      <c r="I169" s="72">
-        <v>120</v>
-      </c>
-      <c r="J169" s="39"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B169" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="73"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="75"/>
     </row>
     <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
+        <v>4945</v>
+      </c>
+      <c r="B170" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E170" s="24"/>
+      <c r="F170" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G170" s="23">
+        <f>E170*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H170" s="14">
+        <v>8</v>
+      </c>
+      <c r="I170" s="72">
+        <v>120</v>
+      </c>
+      <c r="J170" s="39"/>
+    </row>
+    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="93" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B170" s="74" t="s">
+      <c r="B171" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74"/>
-      <c r="E170" s="74"/>
-      <c r="F170" s="73"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="75"/>
-    </row>
-    <row r="171" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="93" t="str">
-        <f t="shared" si="7"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="73"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="74"/>
+      <c r="I171" s="74"/>
+      <c r="J171" s="75"/>
+    </row>
+    <row r="172" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="93" t="str">
+        <f t="shared" si="5"/>
         <v>4956</v>
       </c>
-      <c r="B171" s="89" t="s">
+      <c r="B172" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="C171" s="90" t="s">
+      <c r="C172" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D171" s="83">
+      <c r="D172" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E171" s="84"/>
-      <c r="F171" s="85">
+      <c r="E172" s="84"/>
+      <c r="F172" s="85">
         <v>0.42</v>
       </c>
-      <c r="G171" s="85">
-        <f>E171*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H171" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I171" s="91">
-        <v>120</v>
-      </c>
-      <c r="J171" s="86"/>
-      <c r="K171" s="87"/>
-    </row>
-    <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>1762</v>
-      </c>
-      <c r="B172" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C172" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D172" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E172" s="24"/>
-      <c r="F172" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G172" s="23">
+      <c r="G172" s="85">
         <f>E172*0.42</f>
         <v>0</v>
       </c>
-      <c r="H172" s="14">
+      <c r="H172" s="86">
         <v>4.2</v>
       </c>
-      <c r="I172" s="72">
+      <c r="I172" s="91">
         <v>120</v>
       </c>
-      <c r="J172" s="39"/>
-    </row>
-    <row r="173" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J172" s="86"/>
+      <c r="K172" s="87"/>
+    </row>
+    <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A173" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>1764</v>
+        <f t="shared" si="5"/>
+        <v>1762</v>
       </c>
       <c r="B173" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="C173" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C173" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D173" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E173" s="24"/>
       <c r="F173" s="23">
@@ -6333,30 +6332,43 @@
       </c>
       <c r="J173" s="39"/>
     </row>
-    <row r="174" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B174" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="C174" s="74"/>
-      <c r="D174" s="74"/>
-      <c r="E174" s="74"/>
-      <c r="F174" s="73"/>
-      <c r="G174" s="74"/>
-      <c r="H174" s="74"/>
-      <c r="I174" s="74"/>
-      <c r="J174" s="75"/>
+        <f t="shared" si="5"/>
+        <v>1764</v>
+      </c>
+      <c r="B174" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E174" s="24"/>
+      <c r="F174" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G174" s="23">
+        <f>E174*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I174" s="72">
+        <v>120</v>
+      </c>
+      <c r="J174" s="39"/>
     </row>
     <row r="175" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B175" s="74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C175" s="74"/>
       <c r="D175" s="74"/>
@@ -6369,131 +6381,138 @@
     </row>
     <row r="176" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B176" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C176" s="74"/>
+      <c r="D176" s="74"/>
+      <c r="E176" s="74"/>
+      <c r="F176" s="73"/>
+      <c r="G176" s="74"/>
+      <c r="H176" s="74"/>
+      <c r="I176" s="74"/>
+      <c r="J176" s="75"/>
+    </row>
+    <row r="177" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="93" t="str">
+        <f t="shared" si="5"/>
         <v>6004</v>
       </c>
-      <c r="B176" s="47" t="s">
+      <c r="B177" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C176" s="36" t="s">
+      <c r="C177" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D176" s="68" t="s">
+      <c r="D177" s="68" t="s">
         <v>190</v>
-      </c>
-      <c r="E176" s="24"/>
-      <c r="F176" s="23">
-        <v>1</v>
-      </c>
-      <c r="G176" s="23">
-        <f>E176*1</f>
-        <v>0</v>
-      </c>
-      <c r="H176" s="14">
-        <v>8</v>
-      </c>
-      <c r="I176" s="72">
-        <v>120</v>
-      </c>
-      <c r="J176" s="39"/>
-    </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>5417</v>
-      </c>
-      <c r="B177" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C177" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D177" s="68" t="s">
-        <v>192</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G177" s="23">
         <f>E177*1</f>
         <v>0</v>
       </c>
       <c r="H177" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I177" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J177" s="39"/>
     </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A178" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>6019</v>
+        <f t="shared" si="5"/>
+        <v>5417</v>
       </c>
       <c r="B178" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="C178" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D178" s="69" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" s="68" t="s">
+        <v>192</v>
       </c>
       <c r="E178" s="24"/>
       <c r="F178" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178" s="23">
         <f>E178*1</f>
         <v>0</v>
       </c>
       <c r="H178" s="14">
+        <v>6</v>
+      </c>
+      <c r="I178" s="72">
+        <v>90</v>
+      </c>
+      <c r="J178" s="39"/>
+    </row>
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="93" t="str">
+        <f t="shared" si="5"/>
+        <v>6019</v>
+      </c>
+      <c r="B179" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E179" s="24"/>
+      <c r="F179" s="23">
+        <v>1</v>
+      </c>
+      <c r="G179" s="23">
+        <f>E179*1</f>
+        <v>0</v>
+      </c>
+      <c r="H179" s="14">
         <v>12</v>
       </c>
-      <c r="I178" s="72">
+      <c r="I179" s="72">
         <v>120</v>
       </c>
-      <c r="J178" s="39"/>
-    </row>
-    <row r="179" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="77"/>
-      <c r="B179" s="77" t="s">
+      <c r="J179" s="39"/>
+    </row>
+    <row r="180" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="77"/>
+      <c r="B180" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C179" s="16"/>
-      <c r="D179" s="48"/>
-      <c r="E179" s="17">
-        <f>SUM(E5:E178)</f>
+      <c r="C180" s="16"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="17">
+        <f>SUM(E5:E179)</f>
         <v>0</v>
       </c>
-      <c r="F179" s="17">
-        <f>SUM(F10:F178)</f>
-        <v>46.03333333333331</v>
-      </c>
-      <c r="G179" s="17">
-        <f>SUM(G11:G178)</f>
+      <c r="F180" s="17">
+        <f>SUM(F10:F179)</f>
+        <v>46.433333333333309</v>
+      </c>
+      <c r="G180" s="17">
+        <f>SUM(G11:G179)</f>
         <v>0</v>
       </c>
-      <c r="H179" s="17">
-        <f>SUM(H10:H175)</f>
+      <c r="H180" s="17">
+        <f>SUM(H10:H176)</f>
         <v>128.91</v>
       </c>
-      <c r="I179" s="17"/>
-      <c r="J179" s="17"/>
-    </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="53"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="52"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
-      <c r="J180" s="21"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+    </row>
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B181" s="53"/>
       <c r="C181" s="18"/>
       <c r="D181" s="52"/>
@@ -21723,17 +21742,27 @@
       <c r="I1703" s="20"/>
       <c r="J1703" s="21"/>
     </row>
+    <row r="1704" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1704" s="53"/>
+      <c r="C1704" s="18"/>
+      <c r="D1704" s="52"/>
+      <c r="F1704" s="19"/>
+      <c r="G1704" s="19"/>
+      <c r="H1704" s="20"/>
+      <c r="I1704" s="20"/>
+      <c r="J1704" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J179" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J180" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B172" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B173" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D176:D178" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D177:D179" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,10,25ц-выезд 04,10.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,10,25ц-выезд 04,10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FD84F-664A-466C-B960-A5DD4C65430C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CEBDC4-7516-434D-A822-F33A1AC74C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$181</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="258">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>СЕЙЧАС СЕЗОН ПМ вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к в/у 1/250 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1988,11 +1991,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1704"/>
+  <dimension ref="A1:L1705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J189" sqref="J189"/>
+      <pane ySplit="9" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2140,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D179,4)</f>
+        <f>RIGHT(D11:D180,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2168,7 +2171,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D180,4)</f>
+        <f>RIGHT(D12:D181,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2193,7 +2196,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D180,4)</f>
+        <f>RIGHT(D13:D181,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2217,7 +2220,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D181,4)</f>
+        <f>RIGHT(D14:D182,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2241,7 +2244,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D182,4)</f>
+        <f>RIGHT(D15:D183,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2267,7 +2270,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D182,4)</f>
+        <f>RIGHT(D16:D183,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2291,7 +2294,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D182,4)</f>
+        <f>RIGHT(D17:D183,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2321,7 +2324,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D183,4)</f>
+        <f>RIGHT(D18:D184,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2347,7 +2350,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D184,4)</f>
+        <f>RIGHT(D19:D185,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2373,7 +2376,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D185,4)</f>
+        <f>RIGHT(D20:D186,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2397,7 +2400,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D186,4)</f>
+        <f>RIGHT(D21:D187,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2427,7 +2430,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D187,4)</f>
+        <f>RIGHT(D22:D188,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2457,7 +2460,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D188,4)</f>
+        <f>RIGHT(D23:D189,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2487,7 +2490,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D189,4)</f>
+        <f>RIGHT(D24:D190,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2517,7 +2520,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D193,4)</f>
+        <f>RIGHT(D25:D194,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2541,7 +2544,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D193,4)</f>
+        <f>RIGHT(D26:D194,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2565,7 +2568,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D194,4)</f>
+        <f>RIGHT(D27:D195,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2595,7 +2598,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D197,4)</f>
+        <f>RIGHT(D28:D198,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2625,7 +2628,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D198,4)</f>
+        <f>RIGHT(D29:D199,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2655,7 +2658,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D199,4)</f>
+        <f>RIGHT(D30:D200,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2681,7 +2684,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D200,4)</f>
+        <f>RIGHT(D31:D201,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2705,7 +2708,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D201,4)</f>
+        <f>RIGHT(D32:D202,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2729,7 +2732,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D202,4)</f>
+        <f>RIGHT(D33:D203,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2755,7 +2758,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D203,4)</f>
+        <f>RIGHT(D34:D204,4)</f>
         <v>7343</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2781,7 +2784,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D200,4)</f>
+        <f>RIGHT(D35:D201,4)</f>
         <v>5851</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2811,7 +2814,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D201,4)</f>
+        <f>RIGHT(D36:D202,4)</f>
         <v>6159</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2835,7 +2838,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D201,4)</f>
+        <f>RIGHT(D37:D202,4)</f>
         <v>6158</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2863,7 +2866,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D203,4)</f>
+        <f>RIGHT(D38:D204,4)</f>
         <v>6340</v>
       </c>
       <c r="B38" s="95" t="s">
@@ -2891,7 +2894,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D201,4)</f>
+        <f>RIGHT(D39:D202,4)</f>
         <v>6353</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2921,7 +2924,7 @@
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D202,4)</f>
+        <f>RIGHT(D40:D203,4)</f>
         <v/>
       </c>
       <c r="B40" s="74" t="s">
@@ -2938,7 +2941,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D205,4)</f>
+        <f>RIGHT(D41:D206,4)</f>
         <v>6870</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2963,7 +2966,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D207,4)</f>
+        <f>RIGHT(D42:D208,4)</f>
         <v>7038</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2988,7 +2991,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D208,4)</f>
+        <f>RIGHT(D43:D209,4)</f>
         <v>7040</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -3015,7 +3018,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D207,4)</f>
+        <f>RIGHT(D44:D208,4)</f>
         <v>7075</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3040,7 +3043,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D208,4)</f>
+        <f>RIGHT(D45:D209,4)</f>
         <v>7070</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3065,7 +3068,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D206,4)</f>
+        <f>RIGHT(D46:D207,4)</f>
         <v>6253</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3090,7 +3093,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D205,4)</f>
+        <f>RIGHT(D47:D206,4)</f>
         <v>6602</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3115,7 +3118,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D208,4)</f>
+        <f>RIGHT(D48:D209,4)</f>
         <v>6768</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3140,7 +3143,7 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D209,4)</f>
+        <f>RIGHT(D49:D210,4)</f>
         <v>6770</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3165,7 +3168,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D212,4)</f>
+        <f>RIGHT(D50:D213,4)</f>
         <v>6829</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3189,7 +3192,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f t="shared" ref="A51:A56" si="0">RIGHT(D51:D217,4)</f>
+        <f>RIGHT(D51:D218,4)</f>
         <v>7074</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3213,7 +3216,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D52:D219,4)</f>
         <v>7073</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3237,7 +3240,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D53:D220,4)</f>
         <v>6759</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3261,7 +3264,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D54:D221,4)</f>
         <v>6724</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3287,7 +3290,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D55:D222,4)</f>
         <v>6616</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3313,7 +3316,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D56:D223,4)</f>
         <v>7276</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3339,7 +3342,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D220,4)</f>
+        <f>RIGHT(D57:D221,4)</f>
         <v>6901</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -3365,7 +3368,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D221,4)</f>
+        <f>RIGHT(D58:D222,4)</f>
         <v>6962</v>
       </c>
       <c r="B58" s="27" t="s">
@@ -3391,7 +3394,7 @@
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D219,4)</f>
+        <f>RIGHT(D59:D220,4)</f>
         <v>6303</v>
       </c>
       <c r="B59" s="70" t="s">
@@ -3422,7 +3425,7 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D220,4)</f>
+        <f>RIGHT(D60:D221,4)</f>
         <v>7077</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -3447,7 +3450,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D220,4)</f>
+        <f>RIGHT(D61:D221,4)</f>
         <v>7080</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3477,7 +3480,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D221,4)</f>
+        <f>RIGHT(D62:D222,4)</f>
         <v>6762</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3503,7 +3506,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D221,4)</f>
+        <f>RIGHT(D63:D222,4)</f>
         <v>5820</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3529,7 +3532,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D222,4)</f>
+        <f>RIGHT(D64:D223,4)</f>
         <v>7082</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3553,7 +3556,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D223,4)</f>
+        <f>RIGHT(D65:D224,4)</f>
         <v>6764</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3577,7 +3580,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D225,4)</f>
+        <f>RIGHT(D66:D226,4)</f>
         <v>6761</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3601,7 +3604,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D226,4)</f>
+        <f>RIGHT(D67:D227,4)</f>
         <v>6767</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3625,7 +3628,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D226,4)</f>
+        <f>RIGHT(D68:D227,4)</f>
         <v>6765</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3649,7 +3652,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D227,4)</f>
+        <f>RIGHT(D69:D228,4)</f>
         <v>6909</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3675,7 +3678,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D228,4)</f>
+        <f>RIGHT(D70:D229,4)</f>
         <v>7284</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3701,7 +3704,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D228,4)</f>
+        <f>RIGHT(D71:D229,4)</f>
         <v>7250</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -3727,7 +3730,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D228,4)</f>
+        <f>RIGHT(D72:D229,4)</f>
         <v>6987</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -3753,7 +3756,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D226,4)</f>
+        <f>RIGHT(D73:D227,4)</f>
         <v>7066</v>
       </c>
       <c r="B73" s="45" t="s">
@@ -3783,7 +3786,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D227,4)</f>
+        <f>RIGHT(D74:D228,4)</f>
         <v>6837</v>
       </c>
       <c r="B74" s="45" t="s">
@@ -3809,7 +3812,7 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D228,4)</f>
+        <f>RIGHT(D75:D229,4)</f>
         <v>7271</v>
       </c>
       <c r="B75" s="45" t="s">
@@ -3833,7 +3836,7 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D228,4)</f>
+        <f>RIGHT(D76:D229,4)</f>
         <v>7244</v>
       </c>
       <c r="B76" s="45" t="s">
@@ -3857,7 +3860,7 @@
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D229,4)</f>
+        <f>RIGHT(D77:D230,4)</f>
         <v>6661</v>
       </c>
       <c r="B77" s="27" t="s">
@@ -3882,7 +3885,7 @@
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D230,4)</f>
+        <f>RIGHT(D78:D231,4)</f>
         <v>6713</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -3907,7 +3910,7 @@
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D226,4)</f>
+        <f>RIGHT(D79:D227,4)</f>
         <v/>
       </c>
       <c r="B79" s="74" t="s">
@@ -3924,7 +3927,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D227,4)</f>
+        <f>RIGHT(D80:D228,4)</f>
         <v>5698</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -3954,7 +3957,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D230,4)</f>
+        <f>RIGHT(D81:D231,4)</f>
         <v>6528</v>
       </c>
       <c r="B81" s="46" t="s">
@@ -3978,7 +3981,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D231,4)</f>
+        <f>RIGHT(D82:D232,4)</f>
         <v>7059</v>
       </c>
       <c r="B82" s="46" t="s">
@@ -4004,7 +4007,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D231,4)</f>
+        <f>RIGHT(D83:D232,4)</f>
         <v>6609</v>
       </c>
       <c r="B83" s="46" t="s">
@@ -4030,7 +4033,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D232,4)</f>
+        <f>RIGHT(D84:D233,4)</f>
         <v>7001</v>
       </c>
       <c r="B84" s="46" t="s">
@@ -4056,7 +4059,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D232,4)</f>
+        <f>RIGHT(D85:D233,4)</f>
         <v>6527</v>
       </c>
       <c r="B85" s="46" t="s">
@@ -4086,7 +4089,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D233,4)</f>
+        <f>RIGHT(D86:D234,4)</f>
         <v/>
       </c>
       <c r="B86" s="74" t="s">
@@ -4103,7 +4106,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D234,4)</f>
+        <f>RIGHT(D87:D235,4)</f>
         <v>7232</v>
       </c>
       <c r="B87" s="27" t="s">
@@ -4131,7 +4134,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D235,4)</f>
+        <f>RIGHT(D88:D236,4)</f>
         <v>7332</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -4157,7 +4160,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D235,4)</f>
+        <f>RIGHT(D89:D236,4)</f>
         <v>6785</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4181,7 +4184,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D236,4)</f>
+        <f>RIGHT(D90:D237,4)</f>
         <v>7149</v>
       </c>
       <c r="B90" s="96" t="s">
@@ -4209,7 +4212,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D236,4)</f>
+        <f>RIGHT(D91:D237,4)</f>
         <v>6786</v>
       </c>
       <c r="B91" s="27" t="s">
@@ -4233,7 +4236,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D237,4)</f>
+        <f>RIGHT(D92:D238,4)</f>
         <v>4903</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4257,7 +4260,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D237,4)</f>
+        <f>RIGHT(D93:D238,4)</f>
         <v>7131</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4283,7 +4286,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D235,4)</f>
+        <f>RIGHT(D94:D236,4)</f>
         <v>7241</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4313,7 +4316,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D238,4)</f>
+        <f>RIGHT(D95:D239,4)</f>
         <v/>
       </c>
       <c r="B95" s="74" t="s">
@@ -4330,7 +4333,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D239,4)</f>
+        <f>RIGHT(D96:D240,4)</f>
         <v>7154</v>
       </c>
       <c r="B96" s="27" t="s">
@@ -4358,7 +4361,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D241,4)</f>
+        <f>RIGHT(D97:D242,4)</f>
         <v>6793</v>
       </c>
       <c r="B97" s="27" t="s">
@@ -4382,7 +4385,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D242,4)</f>
+        <f>RIGHT(D98:D243,4)</f>
         <v>6795</v>
       </c>
       <c r="B98" s="27" t="s">
@@ -4406,7 +4409,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D242,4)</f>
+        <f>RIGHT(D99:D243,4)</f>
         <v>6807</v>
       </c>
       <c r="B99" s="27" t="s">
@@ -4430,7 +4433,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D242,4)</f>
+        <f>RIGHT(D100:D243,4)</f>
         <v>7236</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4460,7 +4463,7 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
-        <f>RIGHT(D101:D244,4)</f>
+        <f>RIGHT(D101:D245,4)</f>
         <v>6787</v>
       </c>
       <c r="B101" s="27" t="s">
@@ -4484,7 +4487,7 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D245,4)</f>
+        <f>RIGHT(D102:D246,4)</f>
         <v>6788</v>
       </c>
       <c r="B102" s="27" t="s">
@@ -4508,7 +4511,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
-        <f>RIGHT(D103:D246,4)</f>
+        <f>RIGHT(D103:D247,4)</f>
         <v>7157</v>
       </c>
       <c r="B103" s="27" t="s">
@@ -4532,7 +4535,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D246,4)</f>
+        <f>RIGHT(D104:D247,4)</f>
         <v>6790</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4556,7 +4559,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D245,4)</f>
+        <f>RIGHT(D105:D246,4)</f>
         <v>7169</v>
       </c>
       <c r="B105" s="64" t="s">
@@ -4584,7 +4587,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D246,4)</f>
+        <f>RIGHT(D106:D247,4)</f>
         <v>6791</v>
       </c>
       <c r="B106" s="64" t="s">
@@ -4608,7 +4611,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
-        <f>RIGHT(D107:D247,4)</f>
+        <f>RIGHT(D107:D248,4)</f>
         <v>7166</v>
       </c>
       <c r="B107" s="64" t="s">
@@ -4634,7 +4637,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
-        <f>RIGHT(D108:D248,4)</f>
+        <f>RIGHT(D108:D249,4)</f>
         <v>6459</v>
       </c>
       <c r="B108" s="64" t="s">
@@ -4660,7 +4663,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f>RIGHT(D109:D249,4)</f>
+        <f>RIGHT(D109:D250,4)</f>
         <v>6586</v>
       </c>
       <c r="B109" s="64" t="s">
@@ -4684,7 +4687,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f>RIGHT(D110:D247,4)</f>
+        <f>RIGHT(D110:D248,4)</f>
         <v>6228</v>
       </c>
       <c r="B110" s="64" t="s">
@@ -4708,7 +4711,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D248,4)</f>
+        <f>RIGHT(D111:D249,4)</f>
         <v>7087</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -4734,7 +4737,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f>RIGHT(D112:D247,4)</f>
+        <f>RIGHT(D112:D248,4)</f>
         <v>5544</v>
       </c>
       <c r="B112" s="27" t="s">
@@ -4764,7 +4767,7 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="93" t="str">
-        <f t="shared" ref="A113:A118" si="1">RIGHT(D113:D249,4)</f>
+        <f>RIGHT(D113:D250,4)</f>
         <v>6697</v>
       </c>
       <c r="B113" s="27" t="s">
@@ -4794,7 +4797,7 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D114:D251,4)</f>
         <v/>
       </c>
       <c r="B114" s="74" t="s">
@@ -4811,7 +4814,7 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D115:D252,4)</f>
         <v>5706</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4841,7 +4844,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D116:D253,4)</f>
         <v>6454</v>
       </c>
       <c r="B116" s="27" t="s">
@@ -4871,7 +4874,7 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D117:D254,4)</f>
         <v>6222</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -4895,7 +4898,7 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D118:D255,4)</f>
         <v>5931</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4925,7 +4928,7 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f>RIGHT(D119:D256,4)</f>
+        <f>RIGHT(D119:D257,4)</f>
         <v>5708</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -4955,7 +4958,7 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f>RIGHT(D120:D257,4)</f>
+        <f>RIGHT(D120:D258,4)</f>
         <v>1146</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -4979,7 +4982,7 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f>RIGHT(D121:D258,4)</f>
+        <f>RIGHT(D121:D259,4)</f>
         <v>7150</v>
       </c>
       <c r="B121" s="27" t="s">
@@ -5003,7 +5006,7 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f>RIGHT(D122:D257,4)</f>
+        <f>RIGHT(D122:D258,4)</f>
         <v>6834</v>
       </c>
       <c r="B122" s="27" t="s">
@@ -5027,7 +5030,7 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f>RIGHT(D123:D258,4)</f>
+        <f>RIGHT(D123:D259,4)</f>
         <v>6448</v>
       </c>
       <c r="B123" s="27" t="s">
@@ -5053,7 +5056,7 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f>RIGHT(D124:D259,4)</f>
+        <f>RIGHT(D124:D260,4)</f>
         <v>6221</v>
       </c>
       <c r="B124" s="27" t="s">
@@ -5079,7 +5082,7 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f>RIGHT(D125:D259,4)</f>
+        <f>RIGHT(D125:D260,4)</f>
         <v>5679</v>
       </c>
       <c r="B125" s="27" t="s">
@@ -5105,7 +5108,7 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f t="shared" ref="A126:A131" si="2">RIGHT(D126:D261,4)</f>
+        <f>RIGHT(D126:D262,4)</f>
         <v>4993</v>
       </c>
       <c r="B126" s="27" t="s">
@@ -5135,24 +5138,24 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>7105</v>
+        <f>RIGHT(D127:D263,4)</f>
+        <v>3986</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001203207105</v>
+        <v>1001061973986</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G127" s="23">
-        <f t="shared" ref="G127:G135" si="3">F127*E127</f>
+        <f>E127*0.25</f>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
@@ -5161,24 +5164,24 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>7106</v>
+        <f t="shared" ref="A128:A132" si="0">RIGHT(D128:D263,4)</f>
+        <v>7105</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
         <v>0.09</v>
       </c>
       <c r="G128" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G128:G136" si="1">F128*E128</f>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5187,24 +5190,24 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>7107</v>
+        <f t="shared" si="0"/>
+        <v>7106</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
         <v>0.09</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5213,24 +5216,24 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>7147</v>
+        <f t="shared" si="0"/>
+        <v>7107</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001063237147</v>
+        <v>1001205467107</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H130" s="14"/>
@@ -5239,24 +5242,24 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>7229</v>
+        <f t="shared" si="0"/>
+        <v>7147</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001063237229</v>
+        <v>1001063237147</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
@@ -5265,24 +5268,24 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f>RIGHT(D132:D266,4)</f>
-        <v>7225</v>
+        <f t="shared" si="0"/>
+        <v>7229</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1001066537225</v>
+        <v>1001063237229</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
         <v>0.18</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5292,23 +5295,23 @@
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
         <f>RIGHT(D133:D267,4)</f>
-        <v>7227</v>
+        <v>7225</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="28">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
         <v>0.18</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5318,23 +5321,23 @@
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
         <f>RIGHT(D134:D268,4)</f>
-        <v>7226</v>
+        <v>7227</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C134" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="28">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
         <v>0.18</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
@@ -5343,24 +5346,24 @@
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
-        <f>RIGHT(D135:D262,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D135:D269,4)</f>
+        <v>7226</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="28">
-        <v>1001062353684</v>
+        <v>1001066527226</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5369,209 +5372,209 @@
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D262,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D136:D263,4)</f>
+        <v>3684</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G136" s="23">
-        <f>E136*0.12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H136" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I136" s="14">
-        <v>60</v>
-      </c>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
       <c r="J136" s="39"/>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
-        <f>RIGHT(D137:D265,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D137:D263,4)</f>
+        <v>5682</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>23</v>
+        <v>148</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D137" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G137" s="23">
-        <f>E137*1</f>
+        <f>E137*0.12</f>
         <v>0</v>
       </c>
       <c r="H137" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I137" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J137" s="39"/>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
         <f>RIGHT(D138:D266,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D138" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E138" s="24"/>
-      <c r="F138" s="23"/>
+      <c r="F138" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G138" s="23">
-        <f>E138</f>
+        <f>E138*1</f>
         <v>0</v>
       </c>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
+      <c r="H138" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I138" s="14">
+        <v>120</v>
+      </c>
       <c r="J138" s="39"/>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D266,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D139:D267,4)</f>
+        <v>3680</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D139" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F139" s="23"/>
       <c r="G139" s="23">
-        <f>E139*0.25</f>
+        <f>E139</f>
         <v>0</v>
       </c>
-      <c r="H139" s="14">
-        <v>2</v>
-      </c>
-      <c r="I139" s="14">
-        <v>120</v>
-      </c>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
       <c r="J139" s="39"/>
     </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
         <f>RIGHT(D140:D267,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G140" s="23">
-        <f>E140*0.1</f>
+        <f>E140*0.25</f>
         <v>0</v>
       </c>
       <c r="H140" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I140" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J140" s="39"/>
     </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="93" t="str">
         <f>RIGHT(D141:D268,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G141" s="23">
+        <f>E141*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H141" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I141" s="14">
+        <v>60</v>
+      </c>
+      <c r="J141" s="39"/>
+    </row>
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="93" t="str">
+        <f>RIGHT(D142:D269,4)</f>
         <v/>
       </c>
-      <c r="B141" s="74" t="s">
+      <c r="B142" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
-      <c r="F141" s="73"/>
-      <c r="G141" s="74"/>
-      <c r="H141" s="74"/>
-      <c r="I141" s="74"/>
-      <c r="J141" s="75"/>
-    </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="93" t="str">
-        <f>RIGHT(D142:D272,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B142" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E142" s="24"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23">
-        <f>E142*1</f>
-        <v>0</v>
-      </c>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="39"/>
-    </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="74"/>
+      <c r="H142" s="74"/>
+      <c r="I142" s="74"/>
+      <c r="J142" s="75"/>
+    </row>
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
         <f>RIGHT(D143:D273,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D143" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E143" s="24"/>
-      <c r="F143" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F143" s="23"/>
       <c r="G143" s="23">
-        <f>F143*E143</f>
+        <f>E143*1</f>
         <v>0</v>
       </c>
       <c r="H143" s="14"/>
@@ -5581,20 +5584,20 @@
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
         <f>RIGHT(D144:D274,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C144" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G144" s="23">
         <f>F144*E144</f>
@@ -5607,20 +5610,20 @@
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
         <f>RIGHT(D145:D275,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C145" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G145" s="23">
         <f>F145*E145</f>
@@ -5632,22 +5635,24 @@
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
-        <f>RIGHT(D146:D273,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D146:D276,4)</f>
+        <v>6411</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D146" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E146" s="24"/>
-      <c r="F146" s="23"/>
+      <c r="F146" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G146" s="23">
-        <f>E146*1</f>
+        <f>F146*E146</f>
         <v>0</v>
       </c>
       <c r="H146" s="14"/>
@@ -5656,47 +5661,41 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
-        <f>RIGHT(D147:D270,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D147:D274,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E147" s="24"/>
-      <c r="F147" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F147" s="23"/>
       <c r="G147" s="23">
-        <f>E147*0.4</f>
+        <f>E147*1</f>
         <v>0</v>
       </c>
-      <c r="H147" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I147" s="14">
-        <v>60</v>
-      </c>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
       <c r="J147" s="39"/>
     </row>
-    <row r="148" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
         <f>RIGHT(D148:D271,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C148" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D148" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
@@ -5706,101 +5705,105 @@
         <f>E148*0.4</f>
         <v>0</v>
       </c>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
+      <c r="H148" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I148" s="14">
+        <v>60</v>
+      </c>
       <c r="J148" s="39"/>
     </row>
-    <row r="149" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D273,4)</f>
+        <f>RIGHT(D149:D272,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E149" s="24"/>
+      <c r="F149" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G149" s="23">
+        <f>E149*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="39"/>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="93" t="str">
+        <f>RIGHT(D150:D274,4)</f>
         <v/>
       </c>
-      <c r="B149" s="74" t="s">
+      <c r="B150" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="74"/>
-      <c r="H149" s="74"/>
-      <c r="I149" s="74"/>
-      <c r="J149" s="75"/>
-    </row>
-    <row r="150" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="93" t="str">
-        <f>RIGHT(D150:D276,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B150" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C150" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E150" s="24"/>
-      <c r="F150" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G150" s="23">
-        <f>E150*F150</f>
-        <v>0</v>
-      </c>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14">
-        <v>50</v>
-      </c>
-      <c r="J150" s="39"/>
-    </row>
-    <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="74"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="74"/>
+      <c r="F150" s="73"/>
+      <c r="G150" s="74"/>
+      <c r="H150" s="74"/>
+      <c r="I150" s="74"/>
+      <c r="J150" s="75"/>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
         <f>RIGHT(D151:D277,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23">
         <v>0.3</v>
       </c>
       <c r="G151" s="23">
-        <f t="shared" ref="G151:G157" si="4">F151*E151</f>
+        <f>E151*F151</f>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="92"/>
+      <c r="I151" s="14">
+        <v>50</v>
+      </c>
+      <c r="J151" s="39"/>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
         <f>RIGHT(D152:D278,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C152" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
         <v>0.3</v>
       </c>
       <c r="G152" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G152:G158" si="2">F152*E152</f>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
@@ -5810,23 +5813,23 @@
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
         <f>RIGHT(D153:D279,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C153" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G153" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
@@ -5835,24 +5838,24 @@
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
-        <f>RIGHT(D154:D279,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D154:D280,4)</f>
+        <v>6201</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G154" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H154" s="14"/>
@@ -5861,24 +5864,24 @@
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D279,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D155:D280,4)</f>
+        <v>6842</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C155" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="23">
         <v>0.3</v>
       </c>
       <c r="G155" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H155" s="14"/>
@@ -5887,24 +5890,24 @@
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
-        <f>RIGHT(D156:D277,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D156:D280,4)</f>
+        <v>6492</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G156" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H156" s="14"/>
@@ -5914,23 +5917,23 @@
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
         <f>RIGHT(D157:D278,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C157" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G157" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
@@ -5940,23 +5943,23 @@
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
         <f>RIGHT(D158:D279,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D158" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G158" s="23">
-        <f>E158</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H158" s="14"/>
@@ -5965,17 +5968,17 @@
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93" t="str">
-        <f>RIGHT(D159:D279,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D159:D280,4)</f>
+        <v>7052</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D159" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="23">
@@ -5991,47 +5994,47 @@
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93" t="str">
-        <f>RIGHT(D160:D279,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B160" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C160" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D160:D280,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B160" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D160" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G160" s="23">
-        <f>F160*E160</f>
+        <f>E160</f>
         <v>0</v>
       </c>
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
-      <c r="J160" s="39"/>
+      <c r="J160" s="92"/>
     </row>
     <row r="161" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
         <f>RIGHT(D161:D280,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C161" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G161" s="23">
         <f>F161*E161</f>
@@ -6039,56 +6042,65 @@
       </c>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
-      <c r="J161" s="92"/>
-    </row>
-    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J161" s="39"/>
+    </row>
+    <row r="162" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
-        <f>RIGHT(D162:D277,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B162" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C162" s="35" t="s">
+        <f>RIGHT(D162:D281,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D162" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E162" s="24"/>
-      <c r="F162" s="23"/>
+      <c r="F162" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G162" s="23">
-        <f>E162*0.18</f>
+        <f>F162*E162</f>
         <v>0</v>
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="92"/>
     </row>
-    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="93" t="str">
         <f>RIGHT(D163:D278,4)</f>
-        <v/>
-      </c>
-      <c r="B163" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C163" s="74"/>
-      <c r="D163" s="74"/>
-      <c r="E163" s="74"/>
-      <c r="F163" s="73"/>
-      <c r="G163" s="74"/>
-      <c r="H163" s="74"/>
-      <c r="I163" s="74"/>
-      <c r="J163" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E163" s="24"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23">
+        <f>E163*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="92"/>
     </row>
     <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="93" t="str">
-        <f>RIGHT(D164:D281,4)</f>
+        <f>RIGHT(D164:D279,4)</f>
         <v/>
       </c>
       <c r="B164" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C164" s="74"/>
       <c r="D164" s="74"/>
@@ -6099,73 +6111,66 @@
       <c r="I164" s="74"/>
       <c r="J164" s="75"/>
     </row>
-    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="93" t="str">
         <f>RIGHT(D165:D282,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B165" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C165" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D165" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E165" s="24"/>
-      <c r="F165" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G165" s="23">
-        <f>E165*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H165" s="14">
-        <v>8</v>
-      </c>
-      <c r="I165" s="72">
-        <v>120</v>
-      </c>
-      <c r="J165" s="39"/>
-    </row>
-    <row r="166" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B165" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="74"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="73"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="74"/>
+      <c r="I165" s="74"/>
+      <c r="J165" s="75"/>
+    </row>
+    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="str">
         <f>RIGHT(D166:D283,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B166" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D166" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E166" s="24"/>
-      <c r="F166" s="23"/>
+      <c r="F166" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G166" s="23">
-        <f>E166*0.45</f>
+        <f>E166*0.5</f>
         <v>0</v>
       </c>
-      <c r="H166" s="14"/>
-      <c r="I166" s="72"/>
+      <c r="H166" s="14">
+        <v>8</v>
+      </c>
+      <c r="I166" s="72">
+        <v>120</v>
+      </c>
       <c r="J166" s="39"/>
     </row>
     <row r="167" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="93" t="str">
         <f>RIGHT(D167:D284,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B167" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C167" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D167" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="23"/>
@@ -6177,174 +6182,168 @@
       <c r="I167" s="72"/>
       <c r="J167" s="39"/>
     </row>
-    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="93" t="str">
-        <f t="shared" ref="A168:A179" si="5">RIGHT(D168:D283,4)</f>
+        <f>RIGHT(D168:D285,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B168" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E168" s="24"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23">
+        <f>E168*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H168" s="14"/>
+      <c r="I168" s="72"/>
+      <c r="J168" s="39"/>
+    </row>
+    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="93" t="str">
+        <f t="shared" ref="A169:A180" si="3">RIGHT(D169:D284,4)</f>
         <v>6313</v>
       </c>
-      <c r="B168" s="47" t="s">
+      <c r="B169" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C168" s="36" t="s">
+      <c r="C169" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D168" s="28">
+      <c r="D169" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E168" s="24"/>
-      <c r="F168" s="23">
+      <c r="E169" s="24"/>
+      <c r="F169" s="23">
         <v>0.9</v>
       </c>
-      <c r="G168" s="23">
-        <f>E168*0.9</f>
+      <c r="G169" s="23">
+        <f>E169*0.9</f>
         <v>0</v>
       </c>
-      <c r="H168" s="14">
+      <c r="H169" s="14">
         <v>9</v>
       </c>
-      <c r="I168" s="72">
+      <c r="I169" s="72">
         <v>120</v>
       </c>
-      <c r="J168" s="39"/>
-    </row>
-    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B169" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="75"/>
+      <c r="J169" s="39"/>
     </row>
     <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>4945</v>
-      </c>
-      <c r="B170" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C170" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D170" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E170" s="24"/>
-      <c r="F170" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G170" s="23">
-        <f>E170*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H170" s="14">
-        <v>8</v>
-      </c>
-      <c r="I170" s="72">
-        <v>120</v>
-      </c>
-      <c r="J170" s="39"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B170" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="74"/>
+      <c r="F170" s="73"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="75"/>
     </row>
     <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
+        <v>4945</v>
+      </c>
+      <c r="B171" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E171" s="24"/>
+      <c r="F171" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G171" s="23">
+        <f>E171*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="14">
+        <v>8</v>
+      </c>
+      <c r="I171" s="72">
+        <v>120</v>
+      </c>
+      <c r="J171" s="39"/>
+    </row>
+    <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="93" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B171" s="74" t="s">
+      <c r="B172" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C171" s="74"/>
-      <c r="D171" s="74"/>
-      <c r="E171" s="74"/>
-      <c r="F171" s="73"/>
-      <c r="G171" s="74"/>
-      <c r="H171" s="74"/>
-      <c r="I171" s="74"/>
-      <c r="J171" s="75"/>
-    </row>
-    <row r="172" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="93" t="str">
-        <f t="shared" si="5"/>
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="74"/>
+      <c r="I172" s="74"/>
+      <c r="J172" s="75"/>
+    </row>
+    <row r="173" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>4956</v>
       </c>
-      <c r="B172" s="89" t="s">
+      <c r="B173" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="C172" s="90" t="s">
+      <c r="C173" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D172" s="83">
+      <c r="D173" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E172" s="84"/>
-      <c r="F172" s="85">
+      <c r="E173" s="84"/>
+      <c r="F173" s="85">
         <v>0.42</v>
       </c>
-      <c r="G172" s="85">
-        <f>E172*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H172" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I172" s="91">
-        <v>120</v>
-      </c>
-      <c r="J172" s="86"/>
-      <c r="K172" s="87"/>
-    </row>
-    <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>1762</v>
-      </c>
-      <c r="B173" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C173" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D173" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E173" s="24"/>
-      <c r="F173" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G173" s="23">
+      <c r="G173" s="85">
         <f>E173*0.42</f>
         <v>0</v>
       </c>
-      <c r="H173" s="14">
+      <c r="H173" s="86">
         <v>4.2</v>
       </c>
-      <c r="I173" s="72">
+      <c r="I173" s="91">
         <v>120</v>
       </c>
-      <c r="J173" s="39"/>
-    </row>
-    <row r="174" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J173" s="86"/>
+      <c r="K173" s="87"/>
+    </row>
+    <row r="174" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A174" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>1764</v>
+        <f t="shared" si="3"/>
+        <v>1762</v>
       </c>
       <c r="B174" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="C174" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C174" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D174" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E174" s="24"/>
       <c r="F174" s="23">
@@ -6362,30 +6361,43 @@
       </c>
       <c r="J174" s="39"/>
     </row>
-    <row r="175" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B175" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="C175" s="74"/>
-      <c r="D175" s="74"/>
-      <c r="E175" s="74"/>
-      <c r="F175" s="73"/>
-      <c r="G175" s="74"/>
-      <c r="H175" s="74"/>
-      <c r="I175" s="74"/>
-      <c r="J175" s="75"/>
+        <f t="shared" si="3"/>
+        <v>1764</v>
+      </c>
+      <c r="B175" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E175" s="24"/>
+      <c r="F175" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G175" s="23">
+        <f>E175*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H175" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I175" s="72">
+        <v>120</v>
+      </c>
+      <c r="J175" s="39"/>
     </row>
     <row r="176" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B176" s="74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C176" s="74"/>
       <c r="D176" s="74"/>
@@ -6398,131 +6410,138 @@
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B177" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C177" s="74"/>
+      <c r="D177" s="74"/>
+      <c r="E177" s="74"/>
+      <c r="F177" s="73"/>
+      <c r="G177" s="74"/>
+      <c r="H177" s="74"/>
+      <c r="I177" s="74"/>
+      <c r="J177" s="75"/>
+    </row>
+    <row r="178" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>6004</v>
       </c>
-      <c r="B177" s="47" t="s">
+      <c r="B178" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C177" s="36" t="s">
+      <c r="C178" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D177" s="68" t="s">
+      <c r="D178" s="68" t="s">
         <v>190</v>
-      </c>
-      <c r="E177" s="24"/>
-      <c r="F177" s="23">
-        <v>1</v>
-      </c>
-      <c r="G177" s="23">
-        <f>E177*1</f>
-        <v>0</v>
-      </c>
-      <c r="H177" s="14">
-        <v>8</v>
-      </c>
-      <c r="I177" s="72">
-        <v>120</v>
-      </c>
-      <c r="J177" s="39"/>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>5417</v>
-      </c>
-      <c r="B178" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C178" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D178" s="68" t="s">
-        <v>192</v>
       </c>
       <c r="E178" s="24"/>
       <c r="F178" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G178" s="23">
         <f>E178*1</f>
         <v>0</v>
       </c>
       <c r="H178" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I178" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J178" s="39"/>
     </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>6019</v>
+        <f t="shared" si="3"/>
+        <v>5417</v>
       </c>
       <c r="B179" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="C179" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D179" s="69" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" s="68" t="s">
+        <v>192</v>
       </c>
       <c r="E179" s="24"/>
       <c r="F179" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179" s="23">
         <f>E179*1</f>
         <v>0</v>
       </c>
       <c r="H179" s="14">
+        <v>6</v>
+      </c>
+      <c r="I179" s="72">
+        <v>90</v>
+      </c>
+      <c r="J179" s="39"/>
+    </row>
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>6019</v>
+      </c>
+      <c r="B180" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E180" s="24"/>
+      <c r="F180" s="23">
+        <v>1</v>
+      </c>
+      <c r="G180" s="23">
+        <f>E180*1</f>
+        <v>0</v>
+      </c>
+      <c r="H180" s="14">
         <v>12</v>
       </c>
-      <c r="I179" s="72">
+      <c r="I180" s="72">
         <v>120</v>
       </c>
-      <c r="J179" s="39"/>
-    </row>
-    <row r="180" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="77"/>
-      <c r="B180" s="77" t="s">
+      <c r="J180" s="39"/>
+    </row>
+    <row r="181" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="77"/>
+      <c r="B181" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C180" s="16"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="17">
-        <f>SUM(E5:E179)</f>
+      <c r="C181" s="16"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="17">
+        <f>SUM(E5:E180)</f>
         <v>0</v>
       </c>
-      <c r="F180" s="17">
-        <f>SUM(F10:F179)</f>
-        <v>46.433333333333309</v>
-      </c>
-      <c r="G180" s="17">
-        <f>SUM(G11:G179)</f>
+      <c r="F181" s="17">
+        <f>SUM(F10:F180)</f>
+        <v>46.683333333333309</v>
+      </c>
+      <c r="G181" s="17">
+        <f>SUM(G11:G180)</f>
         <v>0</v>
       </c>
-      <c r="H180" s="17">
-        <f>SUM(H10:H176)</f>
+      <c r="H181" s="17">
+        <f>SUM(H10:H177)</f>
         <v>128.91</v>
       </c>
-      <c r="I180" s="17"/>
-      <c r="J180" s="17"/>
-    </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="53"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="52"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="20"/>
-      <c r="I181" s="20"/>
-      <c r="J181" s="21"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+    </row>
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B182" s="53"/>
       <c r="C182" s="18"/>
       <c r="D182" s="52"/>
@@ -21752,17 +21771,27 @@
       <c r="I1704" s="20"/>
       <c r="J1704" s="21"/>
     </row>
+    <row r="1705" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1705" s="53"/>
+      <c r="C1705" s="18"/>
+      <c r="D1705" s="52"/>
+      <c r="F1705" s="19"/>
+      <c r="G1705" s="19"/>
+      <c r="H1705" s="20"/>
+      <c r="I1705" s="20"/>
+      <c r="J1705" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J180" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J181" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B173" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B174" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D177:D179" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D178:D180" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,10,25ц-выезд 04,10.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,10,25ц-выезд 04,10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CEBDC4-7516-434D-A822-F33A1AC74C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2282C3B-4F2A-46B2-8EBB-E43594F0306C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$182</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="259">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>АРОМАТНАЯ с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</t>
   </si>
 </sst>
 </file>
@@ -1991,11 +1994,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1705"/>
+  <dimension ref="A1:L1706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I189" sqref="I189"/>
+      <pane ySplit="9" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2143,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D180,4)</f>
+        <f>RIGHT(D11:D181,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2171,7 +2174,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D181,4)</f>
+        <f>RIGHT(D12:D182,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2196,7 +2199,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D181,4)</f>
+        <f>RIGHT(D13:D182,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2220,7 +2223,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D182,4)</f>
+        <f>RIGHT(D14:D183,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2244,7 +2247,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D183,4)</f>
+        <f>RIGHT(D15:D184,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2270,7 +2273,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D183,4)</f>
+        <f>RIGHT(D16:D184,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2294,7 +2297,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D183,4)</f>
+        <f>RIGHT(D17:D184,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2324,7 +2327,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D184,4)</f>
+        <f>RIGHT(D18:D185,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2350,7 +2353,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D185,4)</f>
+        <f>RIGHT(D19:D186,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2376,7 +2379,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D186,4)</f>
+        <f>RIGHT(D20:D187,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2400,7 +2403,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D187,4)</f>
+        <f>RIGHT(D21:D188,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2430,7 +2433,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D188,4)</f>
+        <f>RIGHT(D22:D189,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2460,7 +2463,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D189,4)</f>
+        <f>RIGHT(D23:D190,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2490,7 +2493,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D190,4)</f>
+        <f>RIGHT(D24:D191,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2520,7 +2523,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D194,4)</f>
+        <f>RIGHT(D25:D195,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2544,7 +2547,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D194,4)</f>
+        <f>RIGHT(D26:D195,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2568,7 +2571,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D195,4)</f>
+        <f>RIGHT(D27:D196,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2598,7 +2601,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D198,4)</f>
+        <f>RIGHT(D28:D199,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2628,7 +2631,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D199,4)</f>
+        <f>RIGHT(D29:D200,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2658,7 +2661,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D200,4)</f>
+        <f>RIGHT(D30:D201,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2684,7 +2687,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D201,4)</f>
+        <f>RIGHT(D31:D202,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2708,7 +2711,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D202,4)</f>
+        <f>RIGHT(D32:D203,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2732,7 +2735,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D203,4)</f>
+        <f>RIGHT(D33:D204,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2758,7 +2761,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D204,4)</f>
+        <f>RIGHT(D34:D205,4)</f>
         <v>7343</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2784,7 +2787,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D201,4)</f>
+        <f>RIGHT(D35:D202,4)</f>
         <v>5851</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2814,7 +2817,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D202,4)</f>
+        <f>RIGHT(D36:D203,4)</f>
         <v>6159</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2838,7 +2841,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D202,4)</f>
+        <f>RIGHT(D37:D203,4)</f>
         <v>6158</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2866,7 +2869,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D204,4)</f>
+        <f>RIGHT(D38:D205,4)</f>
         <v>6340</v>
       </c>
       <c r="B38" s="95" t="s">
@@ -2894,7 +2897,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D202,4)</f>
+        <f>RIGHT(D39:D203,4)</f>
         <v>6353</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2924,7 +2927,7 @@
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D203,4)</f>
+        <f>RIGHT(D40:D204,4)</f>
         <v/>
       </c>
       <c r="B40" s="74" t="s">
@@ -2941,7 +2944,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D206,4)</f>
+        <f>RIGHT(D41:D207,4)</f>
         <v>6870</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2966,7 +2969,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D208,4)</f>
+        <f>RIGHT(D42:D209,4)</f>
         <v>7038</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2991,7 +2994,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D209,4)</f>
+        <f>RIGHT(D43:D210,4)</f>
         <v>7040</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -3018,7 +3021,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D208,4)</f>
+        <f>RIGHT(D44:D209,4)</f>
         <v>7075</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3043,7 +3046,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D209,4)</f>
+        <f>RIGHT(D45:D210,4)</f>
         <v>7070</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3068,7 +3071,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D207,4)</f>
+        <f>RIGHT(D46:D208,4)</f>
         <v>6253</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3093,7 +3096,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D206,4)</f>
+        <f>RIGHT(D47:D207,4)</f>
         <v>6602</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3118,7 +3121,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D209,4)</f>
+        <f>RIGHT(D48:D210,4)</f>
         <v>6768</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3143,7 +3146,7 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D210,4)</f>
+        <f>RIGHT(D49:D211,4)</f>
         <v>6770</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3168,7 +3171,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D213,4)</f>
+        <f>RIGHT(D50:D214,4)</f>
         <v>6829</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3192,7 +3195,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D218,4)</f>
+        <f>RIGHT(D51:D219,4)</f>
         <v>7074</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3216,7 +3219,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D219,4)</f>
+        <f>RIGHT(D52:D220,4)</f>
         <v>7073</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3240,7 +3243,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D220,4)</f>
+        <f>RIGHT(D53:D221,4)</f>
         <v>6759</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3264,7 +3267,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D221,4)</f>
+        <f>RIGHT(D54:D222,4)</f>
         <v>6724</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3290,7 +3293,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D222,4)</f>
+        <f>RIGHT(D55:D223,4)</f>
         <v>6616</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3316,7 +3319,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D223,4)</f>
+        <f>RIGHT(D56:D224,4)</f>
         <v>7276</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3342,7 +3345,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D221,4)</f>
+        <f>RIGHT(D57:D222,4)</f>
         <v>6901</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -3368,7 +3371,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D222,4)</f>
+        <f>RIGHT(D58:D223,4)</f>
         <v>6962</v>
       </c>
       <c r="B58" s="27" t="s">
@@ -3394,7 +3397,7 @@
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D220,4)</f>
+        <f>RIGHT(D59:D221,4)</f>
         <v>6303</v>
       </c>
       <c r="B59" s="70" t="s">
@@ -3425,7 +3428,7 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D221,4)</f>
+        <f>RIGHT(D60:D222,4)</f>
         <v>7077</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -3450,7 +3453,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D221,4)</f>
+        <f>RIGHT(D61:D222,4)</f>
         <v>7080</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3480,7 +3483,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D222,4)</f>
+        <f>RIGHT(D62:D223,4)</f>
         <v>6762</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3506,7 +3509,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D222,4)</f>
+        <f>RIGHT(D63:D223,4)</f>
         <v>5820</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3532,7 +3535,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D223,4)</f>
+        <f>RIGHT(D64:D224,4)</f>
         <v>7082</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3556,7 +3559,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D224,4)</f>
+        <f>RIGHT(D65:D225,4)</f>
         <v>6764</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3580,7 +3583,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D226,4)</f>
+        <f>RIGHT(D66:D227,4)</f>
         <v>6761</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3604,7 +3607,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D227,4)</f>
+        <f>RIGHT(D67:D228,4)</f>
         <v>6767</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3628,7 +3631,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D227,4)</f>
+        <f>RIGHT(D68:D228,4)</f>
         <v>6765</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3652,7 +3655,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D228,4)</f>
+        <f>RIGHT(D69:D229,4)</f>
         <v>6909</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3678,7 +3681,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D229,4)</f>
+        <f>RIGHT(D70:D230,4)</f>
         <v>7284</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3704,7 +3707,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D229,4)</f>
+        <f>RIGHT(D71:D230,4)</f>
         <v>7250</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -3730,7 +3733,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D229,4)</f>
+        <f>RIGHT(D72:D230,4)</f>
         <v>6987</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -3756,7 +3759,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D227,4)</f>
+        <f>RIGHT(D73:D228,4)</f>
         <v>7066</v>
       </c>
       <c r="B73" s="45" t="s">
@@ -3786,7 +3789,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D228,4)</f>
+        <f>RIGHT(D74:D229,4)</f>
         <v>6837</v>
       </c>
       <c r="B74" s="45" t="s">
@@ -3812,7 +3815,7 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D229,4)</f>
+        <f>RIGHT(D75:D230,4)</f>
         <v>7271</v>
       </c>
       <c r="B75" s="45" t="s">
@@ -3836,7 +3839,7 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D229,4)</f>
+        <f>RIGHT(D76:D230,4)</f>
         <v>7244</v>
       </c>
       <c r="B76" s="45" t="s">
@@ -3860,7 +3863,7 @@
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D230,4)</f>
+        <f>RIGHT(D77:D231,4)</f>
         <v>6661</v>
       </c>
       <c r="B77" s="27" t="s">
@@ -3885,7 +3888,7 @@
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D231,4)</f>
+        <f>RIGHT(D78:D232,4)</f>
         <v>6713</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -3910,7 +3913,7 @@
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D227,4)</f>
+        <f>RIGHT(D79:D228,4)</f>
         <v/>
       </c>
       <c r="B79" s="74" t="s">
@@ -3927,7 +3930,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D228,4)</f>
+        <f>RIGHT(D80:D229,4)</f>
         <v>5698</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -3957,7 +3960,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D231,4)</f>
+        <f>RIGHT(D81:D232,4)</f>
         <v>6528</v>
       </c>
       <c r="B81" s="46" t="s">
@@ -3981,7 +3984,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D232,4)</f>
+        <f>RIGHT(D82:D233,4)</f>
         <v>7059</v>
       </c>
       <c r="B82" s="46" t="s">
@@ -4007,7 +4010,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D232,4)</f>
+        <f>RIGHT(D83:D233,4)</f>
         <v>6609</v>
       </c>
       <c r="B83" s="46" t="s">
@@ -4033,7 +4036,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D233,4)</f>
+        <f>RIGHT(D84:D234,4)</f>
         <v>7001</v>
       </c>
       <c r="B84" s="46" t="s">
@@ -4059,7 +4062,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D233,4)</f>
+        <f>RIGHT(D85:D234,4)</f>
         <v>6527</v>
       </c>
       <c r="B85" s="46" t="s">
@@ -4089,7 +4092,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D234,4)</f>
+        <f>RIGHT(D86:D235,4)</f>
         <v/>
       </c>
       <c r="B86" s="74" t="s">
@@ -4106,7 +4109,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D235,4)</f>
+        <f>RIGHT(D87:D236,4)</f>
         <v>7232</v>
       </c>
       <c r="B87" s="27" t="s">
@@ -4134,7 +4137,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D236,4)</f>
+        <f>RIGHT(D88:D237,4)</f>
         <v>7332</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -4160,7 +4163,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D236,4)</f>
+        <f>RIGHT(D89:D237,4)</f>
         <v>6785</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4184,7 +4187,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D237,4)</f>
+        <f>RIGHT(D90:D238,4)</f>
         <v>7149</v>
       </c>
       <c r="B90" s="96" t="s">
@@ -4212,7 +4215,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D237,4)</f>
+        <f>RIGHT(D91:D238,4)</f>
         <v>6786</v>
       </c>
       <c r="B91" s="27" t="s">
@@ -4236,7 +4239,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D238,4)</f>
+        <f>RIGHT(D92:D239,4)</f>
         <v>4903</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4260,7 +4263,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D238,4)</f>
+        <f>RIGHT(D93:D239,4)</f>
         <v>7131</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4286,7 +4289,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D236,4)</f>
+        <f>RIGHT(D94:D237,4)</f>
         <v>7241</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4316,7 +4319,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D239,4)</f>
+        <f>RIGHT(D95:D240,4)</f>
         <v/>
       </c>
       <c r="B95" s="74" t="s">
@@ -4333,7 +4336,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D240,4)</f>
+        <f>RIGHT(D96:D241,4)</f>
         <v>7154</v>
       </c>
       <c r="B96" s="27" t="s">
@@ -4361,7 +4364,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D242,4)</f>
+        <f>RIGHT(D97:D243,4)</f>
         <v>6793</v>
       </c>
       <c r="B97" s="27" t="s">
@@ -4385,7 +4388,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D243,4)</f>
+        <f>RIGHT(D98:D244,4)</f>
         <v>6795</v>
       </c>
       <c r="B98" s="27" t="s">
@@ -4409,7 +4412,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D243,4)</f>
+        <f>RIGHT(D99:D244,4)</f>
         <v>6807</v>
       </c>
       <c r="B99" s="27" t="s">
@@ -4433,7 +4436,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D243,4)</f>
+        <f>RIGHT(D100:D244,4)</f>
         <v>7236</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4464,21 +4467,23 @@
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
         <f>RIGHT(D101:D245,4)</f>
-        <v>6787</v>
+        <v>7333</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001300456787</v>
+        <v>1001303987333</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="23"/>
+      <c r="F101" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G101" s="23">
-        <f>E101*0.33</f>
+        <f>E101*0.28</f>
         <v>0</v>
       </c>
       <c r="H101" s="14"/>
@@ -4488,21 +4493,21 @@
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
         <f>RIGHT(D102:D246,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="23"/>
       <c r="G102" s="23">
-        <f>E102*1</f>
+        <f>E102*0.33</f>
         <v>0</v>
       </c>
       <c r="H102" s="14"/>
@@ -4512,16 +4517,16 @@
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
         <f>RIGHT(D103:D247,4)</f>
-        <v>7157</v>
+        <v>6788</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D103" s="28">
-        <v>1001300387157</v>
+        <v>1001300456788</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23"/>
@@ -4535,17 +4540,17 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D247,4)</f>
-        <v>6790</v>
+        <f>RIGHT(D104:D248,4)</f>
+        <v>7157</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D104" s="28">
-        <v>1001300366790</v>
+        <v>1001300387157</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23"/>
@@ -4559,126 +4564,126 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D246,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B105" s="64" t="s">
-        <v>117</v>
+        <f>RIGHT(D105:D248,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D105" s="28">
-        <v>1001303987169</v>
+        <v>1001300366790</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F105" s="23"/>
       <c r="G105" s="23">
-        <f>E105*F105</f>
+        <f>E105*1</f>
         <v>0</v>
       </c>
       <c r="H105" s="14"/>
-      <c r="I105" s="14">
-        <v>50</v>
-      </c>
+      <c r="I105" s="14"/>
       <c r="J105" s="39"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
         <f>RIGHT(D106:D247,4)</f>
-        <v>6791</v>
+        <v>7169</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001304096791</v>
+        <v>1001303987169</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="23"/>
+      <c r="F106" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G106" s="23">
-        <f>E106*0.33</f>
+        <f>E106*F106</f>
         <v>0</v>
       </c>
       <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
+      <c r="I106" s="14">
+        <v>50</v>
+      </c>
       <c r="J106" s="39"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
         <f>RIGHT(D107:D248,4)</f>
-        <v>7166</v>
+        <v>6791</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>23</v>
+        <v>118</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001303987166</v>
+        <v>1001304096791</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="23"/>
       <c r="G107" s="23">
-        <f>E107*1</f>
+        <f>E107*0.33</f>
         <v>0</v>
       </c>
       <c r="H107" s="14"/>
-      <c r="I107" s="14">
-        <v>50</v>
-      </c>
+      <c r="I107" s="14"/>
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
         <f>RIGHT(D108:D249,4)</f>
-        <v>6459</v>
+        <v>7166</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>26</v>
+        <v>119</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D108" s="28">
-        <v>1001214196459</v>
+        <v>1001303987166</v>
       </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F108" s="23"/>
       <c r="G108" s="23">
-        <f>E108*F108</f>
+        <f>E108*1</f>
         <v>0</v>
       </c>
       <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
+      <c r="I108" s="14">
+        <v>50</v>
+      </c>
       <c r="J108" s="39"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
         <f>RIGHT(D109:D250,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="23"/>
+      <c r="F109" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G109" s="23">
-        <f>E109*0.09</f>
+        <f>E109*F109</f>
         <v>0</v>
       </c>
       <c r="H109" s="14"/>
@@ -4687,17 +4692,17 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f>RIGHT(D110:D248,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D110:D251,4)</f>
+        <v>6586</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23"/>
@@ -4712,23 +4717,21 @@
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
         <f>RIGHT(D111:D249,4)</f>
-        <v>7087</v>
+        <v>6228</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D111" s="28">
-        <v>1001084227087</v>
+        <v>1001225416228</v>
       </c>
       <c r="E111" s="24"/>
-      <c r="F111" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F111" s="23"/>
       <c r="G111" s="23">
-        <f>F111*E111</f>
+        <f>E111*0.09</f>
         <v>0</v>
       </c>
       <c r="H111" s="14"/>
@@ -4737,219 +4740,215 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f>RIGHT(D112:D248,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D112:D250,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B112" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D112" s="28">
-        <v>1001051875544</v>
+        <v>1001084227087</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="G112" s="23">
-        <f>E112*1</f>
+        <f>F112*E112</f>
         <v>0</v>
       </c>
-      <c r="H112" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I112" s="14">
-        <v>45</v>
-      </c>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
       <c r="J112" s="39"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D250,4)</f>
-        <v>6697</v>
+        <f>RIGHT(D113:D249,4)</f>
+        <v>5544</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C113" s="36" t="s">
-        <v>26</v>
+        <v>124</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D113" s="28">
-        <v>1001301876697</v>
+        <v>1001051875544</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G113" s="23">
-        <f>E113*0.35</f>
+        <f>E113*1</f>
         <v>0</v>
       </c>
       <c r="H113" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I113" s="14">
         <v>45</v>
       </c>
       <c r="J113" s="39"/>
     </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="93" t="str">
-        <f>RIGHT(D114:D251,4)</f>
+        <f t="shared" ref="A114:A119" si="0">RIGHT(D114:D251,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B114" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G114" s="23">
+        <f>E114*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I114" s="14">
+        <v>45</v>
+      </c>
+      <c r="J114" s="39"/>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="93" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B114" s="74" t="s">
+      <c r="B115" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="75"/>
-    </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="93" t="str">
-        <f>RIGHT(D115:D252,4)</f>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="73"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="75"/>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="93" t="str">
+        <f t="shared" si="0"/>
         <v>5706</v>
       </c>
-      <c r="B115" s="27" t="s">
+      <c r="B116" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D115" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G115" s="23">
-        <f>E115*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="14">
-        <v>2</v>
-      </c>
-      <c r="I115" s="14">
-        <v>120</v>
-      </c>
-      <c r="J115" s="39"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D253,4)</f>
-        <v>6454</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="C116" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G116" s="23">
-        <f>E116*0.1</f>
+        <f>E116*0.25</f>
         <v>0</v>
       </c>
       <c r="H116" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I116" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J116" s="39"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f>RIGHT(D117:D254,4)</f>
-        <v>6222</v>
+        <f t="shared" si="0"/>
+        <v>6454</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E117" s="24"/>
-      <c r="F117" s="23"/>
+      <c r="F117" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G117" s="23">
-        <f>E117*0.09</f>
+        <f>E117*0.1</f>
         <v>0</v>
       </c>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
+      <c r="H117" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I117" s="14">
+        <v>60</v>
+      </c>
       <c r="J117" s="39"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f>RIGHT(D118:D255,4)</f>
-        <v>5931</v>
+        <f t="shared" si="0"/>
+        <v>6222</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F118" s="23"/>
       <c r="G118" s="23">
-        <f>E118*0.22</f>
+        <f>E118*0.09</f>
         <v>0</v>
       </c>
-      <c r="H118" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I118" s="14">
-        <v>120</v>
-      </c>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
       <c r="J118" s="39"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f>RIGHT(D119:D257,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C119" s="30" t="s">
-        <v>23</v>
+        <v>130</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G119" s="23">
-        <f>E119*1</f>
+        <f>E119*0.22</f>
         <v>0</v>
       </c>
       <c r="H119" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I119" s="14">
         <v>120</v>
@@ -4959,40 +4958,46 @@
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
         <f>RIGHT(D120:D258,4)</f>
-        <v>1146</v>
+        <v>5708</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="28">
-        <v>1001061971146</v>
+        <v>1001063145708</v>
       </c>
       <c r="E120" s="24"/>
-      <c r="F120" s="23"/>
+      <c r="F120" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G120" s="23">
-        <f>E120</f>
+        <f>E120*1</f>
         <v>0</v>
       </c>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
+      <c r="H120" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I120" s="14">
+        <v>120</v>
+      </c>
       <c r="J120" s="39"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
         <f>RIGHT(D121:D259,4)</f>
-        <v>7150</v>
+        <v>1146</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D121" s="28">
-        <v>1001063237150</v>
+        <v>1001061971146</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23"/>
@@ -5006,22 +5011,22 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f>RIGHT(D122:D258,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D122:D260,4)</f>
+        <v>7150</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>26</v>
+        <v>133</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D122" s="28">
-        <v>1001203146834</v>
+        <v>1001063237150</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23"/>
       <c r="G122" s="23">
-        <f>E122*0.1</f>
+        <f>E122</f>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
@@ -5031,23 +5036,21 @@
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
         <f>RIGHT(D123:D259,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E123" s="24"/>
-      <c r="F123" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F123" s="23"/>
       <c r="G123" s="23">
-        <f>F123*E123</f>
+        <f>E123*0.1</f>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
@@ -5057,20 +5060,20 @@
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
         <f>RIGHT(D124:D260,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G124" s="23">
         <f>F124*E124</f>
@@ -5082,21 +5085,21 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f>RIGHT(D125:D260,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D125:D261,4)</f>
+        <v>6221</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G125" s="23">
         <f>F125*E125</f>
@@ -5108,47 +5111,43 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f>RIGHT(D126:D262,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D126:D261,4)</f>
+        <v>5679</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G126" s="23">
-        <f>E126*0.25</f>
+        <f>F126*E126</f>
         <v>0</v>
       </c>
-      <c r="H126" s="14">
-        <v>2</v>
-      </c>
-      <c r="I126" s="14">
-        <v>120</v>
-      </c>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
       <c r="J126" s="39"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
         <f>RIGHT(D127:D263,4)</f>
-        <v>3986</v>
+        <v>4993</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001061973986</v>
+        <v>1001060764993</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
@@ -5158,30 +5157,34 @@
         <f>E127*0.25</f>
         <v>0</v>
       </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
+      <c r="H127" s="14">
+        <v>2</v>
+      </c>
+      <c r="I127" s="14">
+        <v>120</v>
+      </c>
       <c r="J127" s="39"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f t="shared" ref="A128:A132" si="0">RIGHT(D128:D263,4)</f>
-        <v>7105</v>
+        <f>RIGHT(D128:D264,4)</f>
+        <v>3986</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001203207105</v>
+        <v>1001061973986</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G128" s="23">
-        <f t="shared" ref="G128:G136" si="1">F128*E128</f>
+        <f>E128*0.25</f>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5190,24 +5193,24 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>7106</v>
+        <f t="shared" ref="A129:A133" si="1">RIGHT(D129:D264,4)</f>
+        <v>7105</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
         <v>0.09</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G129:G137" si="2">F129*E129</f>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5216,24 +5219,24 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>7107</v>
+        <f t="shared" si="1"/>
+        <v>7106</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
         <v>0.09</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H130" s="14"/>
@@ -5242,24 +5245,24 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>7147</v>
+        <f t="shared" si="1"/>
+        <v>7107</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001063237147</v>
+        <v>1001205467107</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
@@ -5268,24 +5271,24 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>7229</v>
+        <f t="shared" si="1"/>
+        <v>7147</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1001063237229</v>
+        <v>1001063237147</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5294,24 +5297,24 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
-        <f>RIGHT(D133:D267,4)</f>
-        <v>7225</v>
+        <f t="shared" si="1"/>
+        <v>7229</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="28">
-        <v>1001066537225</v>
+        <v>1001063237229</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
         <v>0.18</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5321,23 +5324,23 @@
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
         <f>RIGHT(D134:D268,4)</f>
-        <v>7227</v>
+        <v>7225</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C134" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="28">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
         <v>0.18</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
@@ -5347,23 +5350,23 @@
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
         <f>RIGHT(D135:D269,4)</f>
-        <v>7226</v>
+        <v>7227</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="28">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
         <v>0.18</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5372,24 +5375,24 @@
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D263,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D136:D270,4)</f>
+        <v>7226</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1001062353684</v>
+        <v>1001066527226</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G136" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5398,209 +5401,209 @@
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
-        <f>RIGHT(D137:D263,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D137:D264,4)</f>
+        <v>3684</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G137" s="23">
-        <f>E137*0.12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H137" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I137" s="14">
-        <v>60</v>
-      </c>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
       <c r="J137" s="39"/>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D266,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D138:D264,4)</f>
+        <v>5682</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C138" s="30" t="s">
-        <v>23</v>
+        <v>148</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D138" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G138" s="23">
-        <f>E138*1</f>
+        <f>E138*0.12</f>
         <v>0</v>
       </c>
       <c r="H138" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I138" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J138" s="39"/>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
         <f>RIGHT(D139:D267,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C139" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D139" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="23"/>
+      <c r="F139" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G139" s="23">
-        <f>E139</f>
+        <f>E139*1</f>
         <v>0</v>
       </c>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
+      <c r="H139" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I139" s="14">
+        <v>120</v>
+      </c>
       <c r="J139" s="39"/>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
-        <f>RIGHT(D140:D267,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D140:D268,4)</f>
+        <v>3680</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D140" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E140" s="24"/>
-      <c r="F140" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F140" s="23"/>
       <c r="G140" s="23">
-        <f>E140*0.25</f>
+        <f>E140</f>
         <v>0</v>
       </c>
-      <c r="H140" s="14">
-        <v>2</v>
-      </c>
-      <c r="I140" s="14">
-        <v>120</v>
-      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
       <c r="J140" s="39"/>
     </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
         <f>RIGHT(D141:D268,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G141" s="23">
-        <f>E141*0.1</f>
+        <f>E141*0.25</f>
         <v>0</v>
       </c>
       <c r="H141" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I141" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J141" s="39"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="93" t="str">
         <f>RIGHT(D142:D269,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G142" s="23">
+        <f>E142*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I142" s="14">
+        <v>60</v>
+      </c>
+      <c r="J142" s="39"/>
+    </row>
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="93" t="str">
+        <f>RIGHT(D143:D270,4)</f>
         <v/>
       </c>
-      <c r="B142" s="74" t="s">
+      <c r="B143" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="74"/>
-      <c r="H142" s="74"/>
-      <c r="I142" s="74"/>
-      <c r="J142" s="75"/>
-    </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="93" t="str">
-        <f>RIGHT(D143:D273,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B143" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E143" s="24"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="23">
-        <f>E143*1</f>
-        <v>0</v>
-      </c>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="39"/>
-    </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="74"/>
+      <c r="H143" s="74"/>
+      <c r="I143" s="74"/>
+      <c r="J143" s="75"/>
+    </row>
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
         <f>RIGHT(D144:D274,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D144" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E144" s="24"/>
-      <c r="F144" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F144" s="23"/>
       <c r="G144" s="23">
-        <f>F144*E144</f>
+        <f>E144*1</f>
         <v>0</v>
       </c>
       <c r="H144" s="14"/>
@@ -5610,20 +5613,20 @@
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
         <f>RIGHT(D145:D275,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C145" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G145" s="23">
         <f>F145*E145</f>
@@ -5636,20 +5639,20 @@
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
         <f>RIGHT(D146:D276,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G146" s="23">
         <f>F146*E146</f>
@@ -5661,22 +5664,24 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
-        <f>RIGHT(D147:D274,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D147:D277,4)</f>
+        <v>6411</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D147" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E147" s="24"/>
-      <c r="F147" s="23"/>
+      <c r="F147" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G147" s="23">
-        <f>E147*1</f>
+        <f>F147*E147</f>
         <v>0</v>
       </c>
       <c r="H147" s="14"/>
@@ -5685,47 +5690,41 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
-        <f>RIGHT(D148:D271,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C148" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D148:D275,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B148" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E148" s="24"/>
-      <c r="F148" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F148" s="23"/>
       <c r="G148" s="23">
-        <f>E148*0.4</f>
+        <f>E148*1</f>
         <v>0</v>
       </c>
-      <c r="H148" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I148" s="14">
-        <v>60</v>
-      </c>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
       <c r="J148" s="39"/>
     </row>
-    <row r="149" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
         <f>RIGHT(D149:D272,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B149" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C149" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
@@ -5735,101 +5734,105 @@
         <f>E149*0.4</f>
         <v>0</v>
       </c>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
+      <c r="H149" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I149" s="14">
+        <v>60</v>
+      </c>
       <c r="J149" s="39"/>
     </row>
-    <row r="150" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="93" t="str">
-        <f>RIGHT(D150:D274,4)</f>
+        <f>RIGHT(D150:D273,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E150" s="24"/>
+      <c r="F150" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G150" s="23">
+        <f>E150*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="39"/>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="93" t="str">
+        <f>RIGHT(D151:D275,4)</f>
         <v/>
       </c>
-      <c r="B150" s="74" t="s">
+      <c r="B151" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C150" s="74"/>
-      <c r="D150" s="74"/>
-      <c r="E150" s="74"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="74"/>
-      <c r="H150" s="74"/>
-      <c r="I150" s="74"/>
-      <c r="J150" s="75"/>
-    </row>
-    <row r="151" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D277,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B151" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C151" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D151" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E151" s="24"/>
-      <c r="F151" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G151" s="23">
-        <f>E151*F151</f>
-        <v>0</v>
-      </c>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14">
-        <v>50</v>
-      </c>
-      <c r="J151" s="39"/>
-    </row>
-    <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="74"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="73"/>
+      <c r="G151" s="74"/>
+      <c r="H151" s="74"/>
+      <c r="I151" s="74"/>
+      <c r="J151" s="75"/>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
         <f>RIGHT(D152:D278,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C152" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
         <v>0.3</v>
       </c>
       <c r="G152" s="23">
-        <f t="shared" ref="G152:G158" si="2">F152*E152</f>
+        <f>E152*F152</f>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="92"/>
+      <c r="I152" s="14">
+        <v>50</v>
+      </c>
+      <c r="J152" s="39"/>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
         <f>RIGHT(D153:D279,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C153" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
         <v>0.3</v>
       </c>
       <c r="G153" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G153:G159" si="3">F153*E153</f>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
@@ -5839,23 +5842,23 @@
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
         <f>RIGHT(D154:D280,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G154" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H154" s="14"/>
@@ -5864,24 +5867,24 @@
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D280,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D155:D281,4)</f>
+        <v>6201</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C155" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G155" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H155" s="14"/>
@@ -5890,24 +5893,24 @@
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
-        <f>RIGHT(D156:D280,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D156:D281,4)</f>
+        <v>6842</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23">
         <v>0.3</v>
       </c>
       <c r="G156" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H156" s="14"/>
@@ -5916,24 +5919,24 @@
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
-        <f>RIGHT(D157:D278,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D157:D281,4)</f>
+        <v>6492</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C157" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G157" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
@@ -5943,23 +5946,23 @@
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
         <f>RIGHT(D158:D279,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C158" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G158" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H158" s="14"/>
@@ -5969,23 +5972,23 @@
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93" t="str">
         <f>RIGHT(D159:D280,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D159" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G159" s="23">
-        <f>E159</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H159" s="14"/>
@@ -5994,17 +5997,17 @@
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93" t="str">
-        <f>RIGHT(D160:D280,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D160:D281,4)</f>
+        <v>7052</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C160" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D160" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="23">
@@ -6020,47 +6023,47 @@
     </row>
     <row r="161" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
-        <f>RIGHT(D161:D280,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B161" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D161:D281,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B161" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D161" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G161" s="23">
-        <f>F161*E161</f>
+        <f>E161</f>
         <v>0</v>
       </c>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
-      <c r="J161" s="39"/>
+      <c r="J161" s="92"/>
     </row>
     <row r="162" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
         <f>RIGHT(D162:D281,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C162" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D162" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G162" s="23">
         <f>F162*E162</f>
@@ -6068,56 +6071,65 @@
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
-      <c r="J162" s="92"/>
-    </row>
-    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J162" s="39"/>
+    </row>
+    <row r="163" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
-        <f>RIGHT(D163:D278,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B163" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C163" s="35" t="s">
+        <f>RIGHT(D163:D282,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D163" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E163" s="24"/>
-      <c r="F163" s="23"/>
+      <c r="F163" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G163" s="23">
-        <f>E163*0.18</f>
+        <f>F163*E163</f>
         <v>0</v>
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="92"/>
     </row>
-    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="93" t="str">
         <f>RIGHT(D164:D279,4)</f>
-        <v/>
-      </c>
-      <c r="B164" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C164" s="74"/>
-      <c r="D164" s="74"/>
-      <c r="E164" s="74"/>
-      <c r="F164" s="73"/>
-      <c r="G164" s="74"/>
-      <c r="H164" s="74"/>
-      <c r="I164" s="74"/>
-      <c r="J164" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E164" s="24"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23">
+        <f>E164*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="92"/>
     </row>
     <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="93" t="str">
-        <f>RIGHT(D165:D282,4)</f>
+        <f>RIGHT(D165:D280,4)</f>
         <v/>
       </c>
       <c r="B165" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C165" s="74"/>
       <c r="D165" s="74"/>
@@ -6128,73 +6140,66 @@
       <c r="I165" s="74"/>
       <c r="J165" s="75"/>
     </row>
-    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="93" t="str">
         <f>RIGHT(D166:D283,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B166" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E166" s="24"/>
-      <c r="F166" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G166" s="23">
-        <f>E166*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H166" s="14">
-        <v>8</v>
-      </c>
-      <c r="I166" s="72">
-        <v>120</v>
-      </c>
-      <c r="J166" s="39"/>
-    </row>
-    <row r="167" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B166" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="74"/>
+      <c r="D166" s="74"/>
+      <c r="E166" s="74"/>
+      <c r="F166" s="73"/>
+      <c r="G166" s="74"/>
+      <c r="H166" s="74"/>
+      <c r="I166" s="74"/>
+      <c r="J166" s="75"/>
+    </row>
+    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A167" s="93" t="str">
         <f>RIGHT(D167:D284,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B167" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C167" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D167" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E167" s="24"/>
-      <c r="F167" s="23"/>
+      <c r="F167" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G167" s="23">
-        <f>E167*0.45</f>
+        <f>E167*0.5</f>
         <v>0</v>
       </c>
-      <c r="H167" s="14"/>
-      <c r="I167" s="72"/>
+      <c r="H167" s="14">
+        <v>8</v>
+      </c>
+      <c r="I167" s="72">
+        <v>120</v>
+      </c>
       <c r="J167" s="39"/>
     </row>
     <row r="168" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="93" t="str">
         <f>RIGHT(D168:D285,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B168" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D168" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="23"/>
@@ -6206,174 +6211,168 @@
       <c r="I168" s="72"/>
       <c r="J168" s="39"/>
     </row>
-    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="93" t="str">
-        <f t="shared" ref="A169:A180" si="3">RIGHT(D169:D284,4)</f>
+        <f>RIGHT(D169:D286,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B169" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E169" s="24"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23">
+        <f>E169*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H169" s="14"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="39"/>
+    </row>
+    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="93" t="str">
+        <f t="shared" ref="A170:A181" si="4">RIGHT(D170:D285,4)</f>
         <v>6313</v>
       </c>
-      <c r="B169" s="47" t="s">
+      <c r="B170" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C169" s="36" t="s">
+      <c r="C170" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D169" s="28">
+      <c r="D170" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E169" s="24"/>
-      <c r="F169" s="23">
+      <c r="E170" s="24"/>
+      <c r="F170" s="23">
         <v>0.9</v>
       </c>
-      <c r="G169" s="23">
-        <f>E169*0.9</f>
+      <c r="G170" s="23">
+        <f>E170*0.9</f>
         <v>0</v>
       </c>
-      <c r="H169" s="14">
+      <c r="H170" s="14">
         <v>9</v>
       </c>
-      <c r="I169" s="72">
+      <c r="I170" s="72">
         <v>120</v>
       </c>
-      <c r="J169" s="39"/>
-    </row>
-    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B170" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74"/>
-      <c r="E170" s="74"/>
-      <c r="F170" s="73"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="75"/>
+      <c r="J170" s="39"/>
     </row>
     <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>4945</v>
-      </c>
-      <c r="B171" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C171" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D171" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E171" s="24"/>
-      <c r="F171" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G171" s="23">
-        <f>E171*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H171" s="14">
-        <v>8</v>
-      </c>
-      <c r="I171" s="72">
-        <v>120</v>
-      </c>
-      <c r="J171" s="39"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B171" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="73"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="74"/>
+      <c r="I171" s="74"/>
+      <c r="J171" s="75"/>
     </row>
     <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4945</v>
+      </c>
+      <c r="B172" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E172" s="24"/>
+      <c r="F172" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G172" s="23">
+        <f>E172*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H172" s="14">
+        <v>8</v>
+      </c>
+      <c r="I172" s="72">
+        <v>120</v>
+      </c>
+      <c r="J172" s="39"/>
+    </row>
+    <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="93" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="B172" s="74" t="s">
+      <c r="B173" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C172" s="74"/>
-      <c r="D172" s="74"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="74"/>
-      <c r="I172" s="74"/>
-      <c r="J172" s="75"/>
-    </row>
-    <row r="173" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="93" t="str">
-        <f t="shared" si="3"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="74"/>
+      <c r="H173" s="74"/>
+      <c r="I173" s="74"/>
+      <c r="J173" s="75"/>
+    </row>
+    <row r="174" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="93" t="str">
+        <f t="shared" si="4"/>
         <v>4956</v>
       </c>
-      <c r="B173" s="89" t="s">
+      <c r="B174" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="C173" s="90" t="s">
+      <c r="C174" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D173" s="83">
+      <c r="D174" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E173" s="84"/>
-      <c r="F173" s="85">
+      <c r="E174" s="84"/>
+      <c r="F174" s="85">
         <v>0.42</v>
       </c>
-      <c r="G173" s="85">
-        <f>E173*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H173" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I173" s="91">
-        <v>120</v>
-      </c>
-      <c r="J173" s="86"/>
-      <c r="K173" s="87"/>
-    </row>
-    <row r="174" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>1762</v>
-      </c>
-      <c r="B174" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C174" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D174" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E174" s="24"/>
-      <c r="F174" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G174" s="23">
+      <c r="G174" s="85">
         <f>E174*0.42</f>
         <v>0</v>
       </c>
-      <c r="H174" s="14">
+      <c r="H174" s="86">
         <v>4.2</v>
       </c>
-      <c r="I174" s="72">
+      <c r="I174" s="91">
         <v>120</v>
       </c>
-      <c r="J174" s="39"/>
-    </row>
-    <row r="175" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J174" s="86"/>
+      <c r="K174" s="87"/>
+    </row>
+    <row r="175" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>1764</v>
+        <f t="shared" si="4"/>
+        <v>1762</v>
       </c>
       <c r="B175" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="C175" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C175" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D175" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="23">
@@ -6391,30 +6390,43 @@
       </c>
       <c r="J175" s="39"/>
     </row>
-    <row r="176" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B176" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="C176" s="74"/>
-      <c r="D176" s="74"/>
-      <c r="E176" s="74"/>
-      <c r="F176" s="73"/>
-      <c r="G176" s="74"/>
-      <c r="H176" s="74"/>
-      <c r="I176" s="74"/>
-      <c r="J176" s="75"/>
+        <f t="shared" si="4"/>
+        <v>1764</v>
+      </c>
+      <c r="B176" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C176" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E176" s="24"/>
+      <c r="F176" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G176" s="23">
+        <f>E176*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H176" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I176" s="72">
+        <v>120</v>
+      </c>
+      <c r="J176" s="39"/>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B177" s="74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C177" s="74"/>
       <c r="D177" s="74"/>
@@ -6427,131 +6439,138 @@
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B178" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C178" s="74"/>
+      <c r="D178" s="74"/>
+      <c r="E178" s="74"/>
+      <c r="F178" s="73"/>
+      <c r="G178" s="74"/>
+      <c r="H178" s="74"/>
+      <c r="I178" s="74"/>
+      <c r="J178" s="75"/>
+    </row>
+    <row r="179" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="93" t="str">
+        <f t="shared" si="4"/>
         <v>6004</v>
       </c>
-      <c r="B178" s="47" t="s">
+      <c r="B179" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C178" s="36" t="s">
+      <c r="C179" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D178" s="68" t="s">
+      <c r="D179" s="68" t="s">
         <v>190</v>
-      </c>
-      <c r="E178" s="24"/>
-      <c r="F178" s="23">
-        <v>1</v>
-      </c>
-      <c r="G178" s="23">
-        <f>E178*1</f>
-        <v>0</v>
-      </c>
-      <c r="H178" s="14">
-        <v>8</v>
-      </c>
-      <c r="I178" s="72">
-        <v>120</v>
-      </c>
-      <c r="J178" s="39"/>
-    </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>5417</v>
-      </c>
-      <c r="B179" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C179" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D179" s="68" t="s">
-        <v>192</v>
       </c>
       <c r="E179" s="24"/>
       <c r="F179" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G179" s="23">
         <f>E179*1</f>
         <v>0</v>
       </c>
       <c r="H179" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I179" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J179" s="39"/>
     </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A180" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>6019</v>
+        <f t="shared" si="4"/>
+        <v>5417</v>
       </c>
       <c r="B180" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="C180" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D180" s="69" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" s="68" t="s">
+        <v>192</v>
       </c>
       <c r="E180" s="24"/>
       <c r="F180" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G180" s="23">
         <f>E180*1</f>
         <v>0</v>
       </c>
       <c r="H180" s="14">
+        <v>6</v>
+      </c>
+      <c r="I180" s="72">
+        <v>90</v>
+      </c>
+      <c r="J180" s="39"/>
+    </row>
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v>6019</v>
+      </c>
+      <c r="B181" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E181" s="24"/>
+      <c r="F181" s="23">
+        <v>1</v>
+      </c>
+      <c r="G181" s="23">
+        <f>E181*1</f>
+        <v>0</v>
+      </c>
+      <c r="H181" s="14">
         <v>12</v>
       </c>
-      <c r="I180" s="72">
+      <c r="I181" s="72">
         <v>120</v>
       </c>
-      <c r="J180" s="39"/>
-    </row>
-    <row r="181" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="77"/>
-      <c r="B181" s="77" t="s">
+      <c r="J181" s="39"/>
+    </row>
+    <row r="182" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="77"/>
+      <c r="B182" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C181" s="16"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="17">
-        <f>SUM(E5:E180)</f>
+      <c r="C182" s="16"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="17">
+        <f>SUM(E5:E181)</f>
         <v>0</v>
       </c>
-      <c r="F181" s="17">
-        <f>SUM(F10:F180)</f>
-        <v>46.683333333333309</v>
-      </c>
-      <c r="G181" s="17">
-        <f>SUM(G11:G180)</f>
+      <c r="F182" s="17">
+        <f>SUM(F10:F181)</f>
+        <v>46.96333333333331</v>
+      </c>
+      <c r="G182" s="17">
+        <f>SUM(G11:G181)</f>
         <v>0</v>
       </c>
-      <c r="H181" s="17">
-        <f>SUM(H10:H177)</f>
+      <c r="H182" s="17">
+        <f>SUM(H10:H178)</f>
         <v>128.91</v>
       </c>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
-    </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="53"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="52"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="20"/>
-      <c r="J182" s="21"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+    </row>
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B183" s="53"/>
       <c r="C183" s="18"/>
       <c r="D183" s="52"/>
@@ -21781,17 +21800,27 @@
       <c r="I1705" s="20"/>
       <c r="J1705" s="21"/>
     </row>
+    <row r="1706" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1706" s="53"/>
+      <c r="C1706" s="18"/>
+      <c r="D1706" s="52"/>
+      <c r="F1706" s="19"/>
+      <c r="G1706" s="19"/>
+      <c r="H1706" s="20"/>
+      <c r="I1706" s="20"/>
+      <c r="J1706" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J181" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J182" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B174" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B175" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D178:D180" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D179:D181" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,10,25ц-выезд 04,10.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,10,25ц-выезд 04,10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2282C3B-4F2A-46B2-8EBB-E43594F0306C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D831A5D6-C995-4C4C-890A-EEDE656F8148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$183</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="260">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
   </si>
 </sst>
 </file>
@@ -1994,11 +1997,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1706"/>
+  <dimension ref="A1:L1707"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J192" sqref="J192"/>
+      <pane ySplit="9" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J191" sqref="J191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D181,4)</f>
+        <f>RIGHT(D11:D182,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2174,7 +2177,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D182,4)</f>
+        <f>RIGHT(D12:D183,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2199,41 +2202,42 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D182,4)</f>
-        <v>5992</v>
+        <f>RIGHT(D13:D184,4)</f>
+        <v>6220</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>26</v>
+        <v>259</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="28">
-        <v>1001014765992</v>
+        <v>1001012426220</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23">
-        <f>E13*0.4</f>
+        <f>E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="39"/>
+      <c r="L13" s="94"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
         <f>RIGHT(D14:D183,4)</f>
-        <v>6268</v>
+        <v>5992</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="28">
-        <v>1001012426268</v>
+        <v>1001014765992</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="23"/>
@@ -2248,23 +2252,21 @@
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
         <f>RIGHT(D15:D184,4)</f>
-        <v>7126</v>
+        <v>6268</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="28">
-        <v>1001010027126</v>
+        <v>1001012426268</v>
       </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F15" s="23"/>
       <c r="G15" s="23">
-        <f>F15*E15</f>
+        <f>E15*0.4</f>
         <v>0</v>
       </c>
       <c r="H15" s="14"/>
@@ -2273,22 +2275,24 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D184,4)</f>
-        <v>6247</v>
+        <f>RIGHT(D16:D185,4)</f>
+        <v>7126</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="28">
-        <v>1001011086247</v>
+        <v>1001010027126</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G16" s="23">
-        <f>E16*0.4</f>
+        <f>F16*E16</f>
         <v>0</v>
       </c>
       <c r="H16" s="14"/>
@@ -2297,73 +2301,71 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D184,4)</f>
-        <v>6325</v>
+        <f>RIGHT(D17:D185,4)</f>
+        <v>6247</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="28">
-        <v>1001010106325</v>
+        <v>1001011086247</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F17" s="23"/>
       <c r="G17" s="23">
         <f>E17*0.4</f>
         <v>0</v>
       </c>
-      <c r="H17" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I17" s="14">
-        <v>60</v>
-      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D185,4)</f>
-        <v>6324</v>
+        <f t="shared" ref="A18:A25" si="0">RIGHT(D18:D185,4)</f>
+        <v>6325</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="28">
-        <v>1001010016324</v>
+        <v>1001010106325</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="23">
         <v>0.4</v>
       </c>
       <c r="G18" s="23">
-        <f>F18*E18</f>
+        <f>E18*0.4</f>
         <v>0</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I18" s="14">
+        <v>60</v>
+      </c>
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D186,4)</f>
-        <v>6839</v>
+        <f t="shared" si="0"/>
+        <v>6324</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="28">
-        <v>1001010016839</v>
+        <v>1001010016324</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="23">
@@ -2379,22 +2381,24 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D187,4)</f>
-        <v>7231</v>
+        <f t="shared" si="0"/>
+        <v>6839</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="28">
-        <v>1001013957231</v>
+        <v>1001010016839</v>
       </c>
       <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G20" s="23">
-        <f>E20*0.3</f>
+        <f>F20*E20</f>
         <v>0</v>
       </c>
       <c r="H20" s="14"/>
@@ -2403,58 +2407,52 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D188,4)</f>
-        <v>4063</v>
+        <f t="shared" si="0"/>
+        <v>7231</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="28">
-        <v>1001012484063</v>
+        <v>1001013957231</v>
       </c>
       <c r="E21" s="24"/>
-      <c r="F21" s="23">
-        <v>1.366666666666666</v>
-      </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="23">
-        <f>E21*1</f>
+        <f>E21*0.3</f>
         <v>0</v>
       </c>
-      <c r="H21" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I21" s="14">
-        <v>60</v>
-      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D189,4)</f>
-        <v>6333</v>
+        <f t="shared" si="0"/>
+        <v>4063</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D22" s="28">
-        <v>1001012486333</v>
+        <v>1001012484063</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G22" s="23">
-        <f>E22*0.4</f>
+        <f>E22*1</f>
         <v>0</v>
       </c>
       <c r="H22" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I22" s="14">
         <v>60</v>
@@ -2463,28 +2461,28 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D190,4)</f>
-        <v>4574</v>
+        <f t="shared" si="0"/>
+        <v>6333</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="28">
-        <v>1001012634574</v>
+        <v>1001012486333</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G23" s="23">
-        <f>E23*1</f>
+        <f>E23*0.4</f>
         <v>0</v>
       </c>
       <c r="H23" s="14">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I23" s="14">
         <v>60</v>
@@ -2493,28 +2491,28 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D191,4)</f>
-        <v>6861</v>
+        <f t="shared" si="0"/>
+        <v>4574</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="28">
-        <v>1001015646861</v>
+        <v>1001012634574</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="23">
-        <v>2</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G24" s="23">
         <f>E24*1</f>
         <v>0</v>
       </c>
       <c r="H24" s="14">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I24" s="14">
         <v>60</v>
@@ -2523,46 +2521,52 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D195,4)</f>
-        <v>6862</v>
+        <f t="shared" si="0"/>
+        <v>6861</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="28">
-        <v>1001015706862</v>
+        <v>1001015646861</v>
       </c>
       <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>2</v>
+      </c>
       <c r="G25" s="23">
         <f>E25*1</f>
         <v>0</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="14">
+        <v>4</v>
+      </c>
+      <c r="I25" s="14">
+        <v>60</v>
+      </c>
       <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D195,4)</f>
-        <v>6341</v>
+        <f>RIGHT(D26:D196,4)</f>
+        <v>6862</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="28">
-        <v>1001012816341</v>
+        <v>1001015706862</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23">
-        <f>E26*0.5</f>
+        <f>E26*1</f>
         <v>0</v>
       </c>
       <c r="H26" s="14"/>
@@ -2572,87 +2576,81 @@
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
         <f>RIGHT(D27:D196,4)</f>
-        <v>5247</v>
+        <v>6341</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D27" s="28">
-        <v>1001010855247</v>
+        <v>1001012816341</v>
       </c>
       <c r="E27" s="24"/>
-      <c r="F27" s="23">
-        <v>1.48</v>
-      </c>
+      <c r="F27" s="23"/>
       <c r="G27" s="23">
-        <f>E27*1</f>
+        <f>E27*0.5</f>
         <v>0</v>
       </c>
-      <c r="H27" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="I27" s="14">
-        <v>45</v>
-      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D199,4)</f>
-        <v>4813</v>
+        <f>RIGHT(D28:D197,4)</f>
+        <v>5247</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="28">
-        <v>1001012564813</v>
+        <v>1001010855247</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="23">
-        <v>1.366666666666666</v>
+        <v>1.48</v>
       </c>
       <c r="G28" s="23">
         <f>E28*1</f>
         <v>0</v>
       </c>
       <c r="H28" s="14">
-        <v>4.0999999999999996</v>
+        <v>2.96</v>
       </c>
       <c r="I28" s="14">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D200,4)</f>
-        <v>6392</v>
+        <f t="shared" ref="A29:A35" si="1">RIGHT(D29:D200,4)</f>
+        <v>4813</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="28">
-        <v>1001012566392</v>
+        <v>1001012564813</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G29" s="23">
-        <f>E29*0.4</f>
+        <f>E29*1</f>
         <v>0</v>
       </c>
       <c r="H29" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I29" s="14">
         <v>60</v>
@@ -2661,48 +2659,54 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D201,4)</f>
-        <v>6801</v>
+        <f t="shared" si="1"/>
+        <v>6392</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="28">
-        <v>1001012596801</v>
+        <v>1001012566392</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="23">
         <v>0.4</v>
       </c>
       <c r="G30" s="23">
-        <f>F30*E30</f>
+        <f>E30*0.4</f>
         <v>0</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="H30" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I30" s="14">
+        <v>60</v>
+      </c>
       <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D202,4)</f>
-        <v>6802</v>
+        <f t="shared" si="1"/>
+        <v>6801</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D31" s="28">
-        <v>1001012596802</v>
+        <v>1001012596801</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="23"/>
+      <c r="F31" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G31" s="23">
-        <f>E31</f>
+        <f>F31*E31</f>
         <v>0</v>
       </c>
       <c r="H31" s="14"/>
@@ -2711,17 +2715,17 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D203,4)</f>
-        <v>6877</v>
+        <f t="shared" si="1"/>
+        <v>6802</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="28">
-        <v>1001015676877</v>
+        <v>1001012596802</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="23"/>
@@ -2735,24 +2739,22 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D204,4)</f>
-        <v>6888</v>
+        <f t="shared" si="1"/>
+        <v>6877</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D33" s="28">
-        <v>1001016366888</v>
+        <v>1001015676877</v>
       </c>
       <c r="E33" s="24"/>
-      <c r="F33" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F33" s="23"/>
       <c r="G33" s="23">
-        <f>F33*E33</f>
+        <f>E33</f>
         <v>0</v>
       </c>
       <c r="H33" s="14"/>
@@ -2761,17 +2763,17 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D205,4)</f>
-        <v>7343</v>
+        <f t="shared" si="1"/>
+        <v>6888</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="28">
-        <v>1001016747343</v>
+        <v>1001016366888</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="23">
@@ -2787,106 +2789,104 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D202,4)</f>
-        <v>5851</v>
+        <f t="shared" si="1"/>
+        <v>7343</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D35" s="28">
-        <v>1001012505851</v>
+        <v>1001016747343</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G35" s="23">
-        <f>E35*1</f>
+        <f>F35*E35</f>
         <v>0</v>
       </c>
-      <c r="H35" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I35" s="14">
-        <v>60</v>
-      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
         <f>RIGHT(D36:D203,4)</f>
-        <v>6159</v>
+        <v>5851</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="28">
-        <v>1001014486159</v>
+        <v>1001012505851</v>
       </c>
       <c r="E36" s="24"/>
-      <c r="F36" s="23"/>
+      <c r="F36" s="23">
+        <v>1.366666666666666</v>
+      </c>
       <c r="G36" s="23">
         <f>E36*1</f>
         <v>0</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="H36" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I36" s="14">
+        <v>60</v>
+      </c>
       <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D203,4)</f>
-        <v>6158</v>
+        <f>RIGHT(D37:D204,4)</f>
+        <v>6159</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D37" s="28">
-        <v>1001014486158</v>
+        <v>1001014486159</v>
       </c>
       <c r="E37" s="24"/>
-      <c r="F37" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F37" s="23"/>
       <c r="G37" s="23">
-        <f>E37*0.4</f>
+        <f>E37*1</f>
         <v>0</v>
       </c>
       <c r="H37" s="14"/>
-      <c r="I37" s="14">
-        <v>60</v>
-      </c>
+      <c r="I37" s="14"/>
       <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D205,4)</f>
-        <v>6340</v>
-      </c>
-      <c r="B38" s="95" t="s">
-        <v>50</v>
+        <f>RIGHT(D38:D204,4)</f>
+        <v>6158</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="28">
-        <v>1001012816340</v>
+        <v>1001014486158</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G38" s="23">
-        <f>E38*0.5</f>
+        <f>E38*0.4</f>
         <v>0</v>
       </c>
       <c r="H38" s="14"/>
@@ -2895,96 +2895,99 @@
       </c>
       <c r="J38" s="39"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D203,4)</f>
-        <v>6353</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>51</v>
+        <f>RIGHT(D39:D206,4)</f>
+        <v>6340</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>50</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="28">
-        <v>1001012506353</v>
+        <v>1001012816340</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G39" s="23">
-        <f>E39*0.4</f>
+        <f>E39*0.5</f>
         <v>0</v>
       </c>
-      <c r="H39" s="14">
-        <v>3.2</v>
-      </c>
+      <c r="H39" s="14"/>
       <c r="I39" s="14">
         <v>60</v>
       </c>
       <c r="J39" s="39"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="93" t="str">
         <f>RIGHT(D40:D204,4)</f>
+        <v>6353</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="28">
+        <v>1001012506353</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G40" s="23">
+        <f>E40*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I40" s="14">
+        <v>60</v>
+      </c>
+      <c r="J40" s="39"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="93" t="str">
+        <f>RIGHT(D41:D205,4)</f>
         <v/>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B41" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75"/>
-    </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D207,4)</f>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="75"/>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="93" t="str">
+        <f>RIGHT(D42:D208,4)</f>
         <v>6870</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B42" s="27" t="s">
         <v>53</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="28">
-        <v>1001023856870</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23">
-        <f>E41*1</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="82"/>
-    </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D209,4)</f>
-        <v>7038</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>54</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="28">
-        <v>1001023857038</v>
+        <v>1001023856870</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23">
-        <f>E42</f>
+        <f>E42*1</f>
         <v>0</v>
       </c>
       <c r="H42" s="14"/>
@@ -2995,23 +2998,21 @@
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
         <f>RIGHT(D43:D210,4)</f>
-        <v>7040</v>
+        <v>7038</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D43" s="28">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="E43" s="24"/>
-      <c r="F43" s="23">
-        <v>0.27</v>
-      </c>
+      <c r="F43" s="23"/>
       <c r="G43" s="23">
-        <f>F43*E43</f>
+        <f>E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="14"/>
@@ -3021,22 +3022,24 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D209,4)</f>
-        <v>7075</v>
+        <f>RIGHT(D44:D211,4)</f>
+        <v>7040</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D44" s="28">
-        <v>1001022657075</v>
+        <v>1001025027040</v>
       </c>
       <c r="E44" s="24"/>
-      <c r="F44" s="23"/>
+      <c r="F44" s="23">
+        <v>0.27</v>
+      </c>
       <c r="G44" s="23">
-        <f>E44</f>
+        <f>F44*E44</f>
         <v>0</v>
       </c>
       <c r="H44" s="14"/>
@@ -3047,16 +3050,16 @@
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
         <f>RIGHT(D45:D210,4)</f>
-        <v>7070</v>
+        <v>7075</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="28">
-        <v>1001022377070</v>
+        <v>1001022657075</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
@@ -3071,17 +3074,17 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D208,4)</f>
-        <v>6253</v>
+        <f>RIGHT(D46:D211,4)</f>
+        <v>7070</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="28">
-        <v>1001020836253</v>
+        <v>1001022377070</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
@@ -3096,22 +3099,22 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D207,4)</f>
-        <v>6602</v>
+        <f>RIGHT(D47:D209,4)</f>
+        <v>6253</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D47" s="28">
-        <v>1001021966602</v>
+        <v>1001020836253</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23">
-        <f>E47*0.35</f>
+        <f>E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="14"/>
@@ -3121,22 +3124,22 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D210,4)</f>
-        <v>6768</v>
+        <f>RIGHT(D48:D208,4)</f>
+        <v>6602</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="28">
-        <v>1001025176768</v>
+        <v>1001021966602</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23">
-        <f>E48*0.41</f>
+        <f>E48*0.35</f>
         <v>0</v>
       </c>
       <c r="H48" s="14"/>
@@ -3147,16 +3150,16 @@
     <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
         <f>RIGHT(D49:D211,4)</f>
-        <v>6770</v>
+        <v>6768</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="28">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="23"/>
@@ -3169,48 +3172,49 @@
       <c r="J49" s="39"/>
       <c r="K49" s="82"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D214,4)</f>
-        <v>6829</v>
+        <f>RIGHT(D50:D212,4)</f>
+        <v>6770</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D50" s="28">
-        <v>1001024976829</v>
+        <v>1001025486770</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23">
-        <f>E50*1</f>
+        <f>E50*0.41</f>
         <v>0</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="39"/>
+      <c r="K50" s="82"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D219,4)</f>
-        <v>7074</v>
+        <f>RIGHT(D51:D215,4)</f>
+        <v>6829</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D51" s="28">
-        <v>1001022657074</v>
+        <v>1001024976829</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23">
-        <f>E51*0.6</f>
+        <f>E51*1</f>
         <v>0</v>
       </c>
       <c r="H51" s="14"/>
@@ -3219,22 +3223,22 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D220,4)</f>
-        <v>7073</v>
+        <f t="shared" ref="A52:A57" si="2">RIGHT(D52:D220,4)</f>
+        <v>7074</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="28">
-        <v>1001022657073</v>
+        <v>1001022657074</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23">
-        <f>E52*0.35</f>
+        <f>E52*0.6</f>
         <v>0</v>
       </c>
       <c r="H52" s="14"/>
@@ -3243,22 +3247,22 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D221,4)</f>
-        <v>6759</v>
+        <f t="shared" si="2"/>
+        <v>7073</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="28">
-        <v>1001020836759</v>
+        <v>1001022657073</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23">
-        <f>E53*0.4</f>
+        <f>E53*0.35</f>
         <v>0</v>
       </c>
       <c r="H53" s="14"/>
@@ -3267,24 +3271,22 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D222,4)</f>
-        <v>6724</v>
+        <f t="shared" si="2"/>
+        <v>6759</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="28">
-        <v>1001020836724</v>
+        <v>1001020836759</v>
       </c>
       <c r="E54" s="24"/>
-      <c r="F54" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F54" s="23"/>
       <c r="G54" s="23">
-        <f>F54*E54</f>
+        <f>E54*0.4</f>
         <v>0</v>
       </c>
       <c r="H54" s="14"/>
@@ -3293,21 +3295,21 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D223,4)</f>
-        <v>6616</v>
+        <f t="shared" si="2"/>
+        <v>6724</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="28">
-        <v>1001024976616</v>
+        <v>1001020836724</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="G55" s="23">
         <f>F55*E55</f>
@@ -3319,17 +3321,17 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D224,4)</f>
-        <v>7276</v>
+        <f t="shared" si="2"/>
+        <v>6616</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="28">
-        <v>1001022467276</v>
+        <v>1001024976616</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23">
@@ -3345,24 +3347,24 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D222,4)</f>
-        <v>6901</v>
+        <f t="shared" si="2"/>
+        <v>7276</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="28">
-        <v>1001025526901</v>
+        <v>1001022467276</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="G57" s="23">
-        <f>E57*F57</f>
+        <f>F57*E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="14"/>
@@ -3372,16 +3374,16 @@
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
         <f>RIGHT(D58:D223,4)</f>
-        <v>6962</v>
+        <v>6901</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="28">
-        <v>1001025526962</v>
+        <v>1001025526901</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="23">
@@ -3395,157 +3397,157 @@
       <c r="I58" s="14"/>
       <c r="J58" s="39"/>
     </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D221,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B59" s="70" t="s">
-        <v>71</v>
+        <f>RIGHT(D59:D224,4)</f>
+        <v>6962</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D59" s="28">
-        <v>1001022726303</v>
+        <v>1001025526962</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G59" s="23">
-        <f>E59*1</f>
+        <f>E59*F59</f>
         <v>0</v>
       </c>
-      <c r="H59" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I59" s="14">
-        <v>45</v>
-      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
       <c r="J59" s="39"/>
-      <c r="K59" s="82"/>
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
         <f>RIGHT(D60:D222,4)</f>
-        <v>7077</v>
+        <v>6303</v>
       </c>
       <c r="B60" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>26</v>
+        <v>71</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D60" s="28">
-        <v>1001025507077</v>
+        <v>1001022726303</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="23"/>
+      <c r="F60" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G60" s="23">
-        <f>E60*0.4</f>
+        <f>E60*1</f>
         <v>0</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="H60" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I60" s="14">
+        <v>45</v>
+      </c>
       <c r="J60" s="39"/>
       <c r="K60" s="82"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D222,4)</f>
-        <v>7080</v>
-      </c>
-      <c r="B61" s="45" t="s">
-        <v>73</v>
+        <f>RIGHT(D61:D223,4)</f>
+        <v>7077</v>
+      </c>
+      <c r="B61" s="70" t="s">
+        <v>72</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="28">
-        <v>1001022467080</v>
+        <v>1001025507077</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F61" s="23"/>
       <c r="G61" s="23">
-        <f>E61*0.41</f>
+        <f>E61*0.4</f>
         <v>0</v>
       </c>
-      <c r="H61" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I61" s="14">
-        <v>45</v>
-      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
       <c r="J61" s="39"/>
+      <c r="K61" s="82"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
         <f>RIGHT(D62:D223,4)</f>
-        <v>6762</v>
+        <v>7080</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D62" s="28">
-        <v>1001020846762</v>
+        <v>1001022467080</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G62" s="23">
-        <f>E62*F62</f>
+        <f>E62*0.41</f>
         <v>0</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
+      <c r="H62" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I62" s="14">
+        <v>45</v>
+      </c>
       <c r="J62" s="39"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D223,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D63:D224,4)</f>
+        <v>6762</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D63" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="23"/>
+      <c r="F63" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G63" s="23">
-        <f>E63*1</f>
+        <f>E63*F63</f>
         <v>0</v>
       </c>
       <c r="H63" s="14"/>
-      <c r="I63" s="14">
-        <v>45</v>
-      </c>
+      <c r="I63" s="14"/>
       <c r="J63" s="39"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
         <f>RIGHT(D64:D224,4)</f>
-        <v>7082</v>
+        <v>5820</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="28">
-        <v>1001022467082</v>
+        <v>1001022465820</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
@@ -3554,22 +3556,24 @@
         <v>0</v>
       </c>
       <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
+      <c r="I64" s="14">
+        <v>45</v>
+      </c>
       <c r="J64" s="39"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
         <f>RIGHT(D65:D225,4)</f>
-        <v>6764</v>
+        <v>7082</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="28">
-        <v>1001020846764</v>
+        <v>1001022467082</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
@@ -3583,17 +3587,17 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D227,4)</f>
-        <v>6761</v>
+        <f>RIGHT(D66:D226,4)</f>
+        <v>6764</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
@@ -3608,16 +3612,16 @@
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
         <f>RIGHT(D67:D228,4)</f>
-        <v>6767</v>
+        <v>6761</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23"/>
@@ -3631,22 +3635,22 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D228,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D68:D229,4)</f>
+        <v>6767</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>26</v>
+        <v>79</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D68" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="23"/>
       <c r="G68" s="23">
-        <f>E68*0.36</f>
+        <f>E68*1</f>
         <v>0</v>
       </c>
       <c r="H68" s="14"/>
@@ -3656,23 +3660,21 @@
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
         <f>RIGHT(D69:D229,4)</f>
-        <v>6909</v>
+        <v>6765</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="28">
-        <v>1001025766909</v>
+        <v>1001023696765</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F69" s="23"/>
       <c r="G69" s="23">
-        <f>E69*F69</f>
+        <f>E69*0.36</f>
         <v>0</v>
       </c>
       <c r="H69" s="14"/>
@@ -3682,16 +3684,16 @@
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
         <f>RIGHT(D70:D230,4)</f>
-        <v>7284</v>
+        <v>6909</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="28">
-        <v>1001025767284</v>
+        <v>1001025766909</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23">
@@ -3707,17 +3709,17 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D230,4)</f>
-        <v>7250</v>
+        <f>RIGHT(D71:D231,4)</f>
+        <v>7284</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D71" s="28">
-        <v>1001026617250</v>
+        <v>1001025767284</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23">
@@ -3733,21 +3735,21 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D230,4)</f>
-        <v>6987</v>
+        <f>RIGHT(D72:D231,4)</f>
+        <v>7250</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="28">
-        <v>1001025886987</v>
+        <v>1001026617250</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="G72" s="23">
         <f>E72*F72</f>
@@ -3759,78 +3761,80 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D228,4)</f>
-        <v>7066</v>
+        <f>RIGHT(D73:D231,4)</f>
+        <v>6987</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D73" s="28">
-        <v>1001022377066</v>
+        <v>1001025886987</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="23">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="G73" s="23">
-        <f>E73*0.41</f>
+        <f>E73*F73</f>
         <v>0</v>
       </c>
-      <c r="H73" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I73" s="14">
-        <v>45</v>
-      </c>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="39"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
         <f>RIGHT(D74:D229,4)</f>
-        <v>6837</v>
+        <v>7066</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D74" s="28">
-        <v>1001022556837</v>
+        <v>1001022377066</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="23">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G74" s="23">
-        <f>E74*0.4</f>
+        <f>E74*0.41</f>
         <v>0</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+      <c r="H74" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I74" s="14">
+        <v>45</v>
+      </c>
       <c r="J74" s="39"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
         <f>RIGHT(D75:D230,4)</f>
-        <v>7271</v>
+        <v>6837</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D75" s="28">
-        <v>1001025507271</v>
+        <v>1001022556837</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="23"/>
+      <c r="F75" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G75" s="23">
-        <f>E75</f>
+        <f>E75*0.4</f>
         <v>0</v>
       </c>
       <c r="H75" s="14"/>
@@ -3839,17 +3843,17 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D230,4)</f>
-        <v>7244</v>
+        <f>RIGHT(D76:D231,4)</f>
+        <v>7271</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="28">
-        <v>1001022557244</v>
+        <v>1001025507271</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
@@ -3861,49 +3865,48 @@
       <c r="I76" s="14"/>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
         <f>RIGHT(D77:D231,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="30" t="s">
+        <v>7244</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="28">
-        <v>1001022246661</v>
+        <v>1001022557244</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23">
-        <f>E77*1</f>
+        <f>E77</f>
         <v>0</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="39"/>
-      <c r="K77" s="82"/>
-    </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
         <f>RIGHT(D78:D232,4)</f>
-        <v>6713</v>
+        <v>6661</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D78" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23">
-        <f>E78*0.41</f>
+        <f>E78*1</f>
         <v>0</v>
       </c>
       <c r="H78" s="14"/>
@@ -3911,97 +3914,96 @@
       <c r="J78" s="39"/>
       <c r="K78" s="82"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D228,4)</f>
-        <v/>
-      </c>
-      <c r="B79" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="75"/>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D79:D233,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23">
+        <f>E79*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="82"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="93" t="str">
         <f>RIGHT(D80:D229,4)</f>
+        <v/>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="75"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="93" t="str">
+        <f>RIGHT(D81:D230,4)</f>
         <v>5698</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B81" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C81" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D81" s="28">
         <v>1001034065698</v>
       </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="23">
+      <c r="E81" s="24"/>
+      <c r="F81" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G80" s="23">
-        <f>E80*1</f>
+      <c r="G81" s="23">
+        <f>E81*1</f>
         <v>0</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H81" s="14">
         <v>3.04</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I81" s="14">
         <v>30</v>
       </c>
-      <c r="J80" s="39"/>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D232,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B81" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23">
-        <f>E81*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
       <c r="J81" s="39"/>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
         <f>RIGHT(D82:D233,4)</f>
-        <v>7059</v>
+        <v>6528</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="28">
-        <v>1001035277059</v>
+        <v>1001031076528</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F82" s="23"/>
       <c r="G82" s="23">
-        <f>F82*E82</f>
+        <f>E82*0.4</f>
         <v>0</v>
       </c>
       <c r="H82" s="14"/>
@@ -4010,21 +4012,21 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D233,4)</f>
-        <v>6609</v>
+        <f>RIGHT(D83:D234,4)</f>
+        <v>7059</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="28">
-        <v>1001033856609</v>
+        <v>1001035277059</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G83" s="23">
         <f>F83*E83</f>
@@ -4037,117 +4039,115 @@
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
         <f>RIGHT(D84:D234,4)</f>
-        <v>7001</v>
+        <v>6609</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D84" s="28">
-        <v>1001035937001</v>
+        <v>1001033856609</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G84" s="23">
-        <f>E84</f>
+        <f>F84*E84</f>
         <v>0</v>
       </c>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="39"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D234,4)</f>
-        <v>6527</v>
+        <f>RIGHT(D85:D235,4)</f>
+        <v>7001</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="28">
-        <v>1001031076527</v>
+        <v>1001035937001</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23">
-        <v>1.0166666666666671</v>
+        <v>1</v>
       </c>
       <c r="G85" s="23">
-        <f>E85*1</f>
+        <f>E85</f>
         <v>0</v>
       </c>
-      <c r="H85" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I85" s="14">
-        <v>30</v>
-      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
       <c r="J85" s="39"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="93" t="str">
         <f>RIGHT(D86:D235,4)</f>
-        <v/>
-      </c>
-      <c r="B86" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="74"/>
-      <c r="H86" s="74"/>
-      <c r="I86" s="74"/>
-      <c r="J86" s="75"/>
-    </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6527</v>
+      </c>
+      <c r="B86" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="23">
+        <v>1.0166666666666671</v>
+      </c>
+      <c r="G86" s="23">
+        <f>E86*1</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I86" s="14">
+        <v>30</v>
+      </c>
+      <c r="J86" s="39"/>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="93" t="str">
         <f>RIGHT(D87:D236,4)</f>
-        <v>7232</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="28">
-        <v>1001302277232</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G87" s="23">
-        <f>E87*F87</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14">
-        <v>50</v>
-      </c>
-      <c r="J87" s="39"/>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B87" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="75"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
         <f>RIGHT(D88:D237,4)</f>
-        <v>7332</v>
+        <v>7232</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="28">
-        <v>1001301777332</v>
+        <v>1001302277232</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="23">
@@ -4158,27 +4158,31 @@
         <v>0</v>
       </c>
       <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="I88" s="14">
+        <v>50</v>
+      </c>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D237,4)</f>
-        <v>6785</v>
+        <f>RIGHT(D89:D238,4)</f>
+        <v>7332</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D89" s="28">
-        <v>1001300516785</v>
+        <v>1001301777332</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="23"/>
+      <c r="F89" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G89" s="23">
-        <f>E89*0.33</f>
+        <f>E89*F89</f>
         <v>0</v>
       </c>
       <c r="H89" s="14"/>
@@ -4188,68 +4192,68 @@
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
         <f>RIGHT(D90:D238,4)</f>
-        <v>7149</v>
-      </c>
-      <c r="B90" s="96" t="s">
-        <v>102</v>
+        <v>6785</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="28">
-        <v>1001303637149</v>
+        <v>1001300516785</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F90" s="23"/>
       <c r="G90" s="23">
-        <f>F90*E90</f>
+        <f>E90*0.33</f>
         <v>0</v>
       </c>
       <c r="H90" s="14"/>
-      <c r="I90" s="14">
-        <v>50</v>
-      </c>
+      <c r="I90" s="14"/>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D238,4)</f>
-        <v>6786</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>103</v>
+        <f>RIGHT(D91:D239,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B91" s="96" t="s">
+        <v>102</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001300516786</v>
+        <v>1001303637149</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="23"/>
+      <c r="F91" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G91" s="23">
-        <f>E91</f>
+        <f>F91*E91</f>
         <v>0</v>
       </c>
       <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="I91" s="14">
+        <v>50</v>
+      </c>
       <c r="J91" s="39"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
         <f>RIGHT(D92:D239,4)</f>
-        <v>4903</v>
+        <v>6786</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="28">
-        <v>1001040434903</v>
+        <v>1001300516786</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23"/>
@@ -4263,17 +4267,17 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D239,4)</f>
-        <v>7131</v>
+        <f>RIGHT(D93:D240,4)</f>
+        <v>4903</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="28">
-        <v>1001303637131</v>
+        <v>1001040434903</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="23"/>
@@ -4282,123 +4286,123 @@
         <v>0</v>
       </c>
       <c r="H93" s="14"/>
-      <c r="I93" s="14">
-        <v>45</v>
-      </c>
+      <c r="I93" s="14"/>
       <c r="J93" s="39"/>
     </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D237,4)</f>
-        <v>7241</v>
+        <f>RIGHT(D94:D240,4)</f>
+        <v>7131</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D94" s="28">
-        <v>1001303107241</v>
+        <v>1001303637131</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F94" s="23"/>
       <c r="G94" s="23">
-        <f>E94*0.28</f>
+        <f>E94</f>
         <v>0</v>
       </c>
-      <c r="H94" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H94" s="14"/>
       <c r="I94" s="14">
         <v>45</v>
       </c>
       <c r="J94" s="39"/>
     </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D240,4)</f>
-        <v/>
-      </c>
-      <c r="B95" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="74"/>
-      <c r="H95" s="74"/>
-      <c r="I95" s="74"/>
-      <c r="J95" s="75"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D95:D238,4)</f>
+        <v>7241</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="28">
+        <v>1001303107241</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G95" s="23">
+        <f>E95*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I95" s="14">
+        <v>45</v>
+      </c>
+      <c r="J95" s="39"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="93" t="str">
         <f>RIGHT(D96:D241,4)</f>
+        <v/>
+      </c>
+      <c r="B96" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="75"/>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="93" t="str">
+        <f>RIGHT(D97:D242,4)</f>
         <v>7154</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B97" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" s="28">
-        <v>1001300387154</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G96" s="23">
-        <f>E96*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14">
-        <v>50</v>
-      </c>
-      <c r="J96" s="39"/>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D243,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001303636793</v>
+        <v>1001300387154</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="23"/>
+      <c r="F97" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G97" s="23">
-        <f>E97*0.33</f>
+        <f>E97*0.35</f>
         <v>0</v>
       </c>
       <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
+      <c r="I97" s="14">
+        <v>50</v>
+      </c>
       <c r="J97" s="39"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
         <f>RIGHT(D98:D244,4)</f>
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="23"/>
@@ -4412,17 +4416,17 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D244,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D99:D245,4)</f>
+        <v>6795</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23"/>
@@ -4436,47 +4440,41 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D244,4)</f>
-        <v>7236</v>
+        <f>RIGHT(D100:D245,4)</f>
+        <v>6807</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="28">
-        <v>1001304507236</v>
+        <v>1001300366807</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F100" s="23"/>
       <c r="G100" s="23">
-        <f>E100*0.28</f>
+        <f>E100*0.33</f>
         <v>0</v>
       </c>
-      <c r="H100" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I100" s="14">
-        <v>45</v>
-      </c>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
       <c r="J100" s="39"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
         <f>RIGHT(D101:D245,4)</f>
-        <v>7333</v>
+        <v>7236</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001303987333</v>
+        <v>1001304507236</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23">
@@ -4486,28 +4484,34 @@
         <f>E101*0.28</f>
         <v>0</v>
       </c>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
+      <c r="H101" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I101" s="14">
+        <v>45</v>
+      </c>
       <c r="J101" s="39"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
         <f>RIGHT(D102:D246,4)</f>
-        <v>6787</v>
+        <v>7333</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001300456787</v>
+        <v>1001303987333</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23"/>
+      <c r="F102" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G102" s="23">
-        <f>E102*0.33</f>
+        <f>E102*0.28</f>
         <v>0</v>
       </c>
       <c r="H102" s="14"/>
@@ -4517,21 +4521,21 @@
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
         <f>RIGHT(D103:D247,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D103" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23">
-        <f>E103*1</f>
+        <f>E103*0.33</f>
         <v>0</v>
       </c>
       <c r="H103" s="14"/>
@@ -4541,16 +4545,16 @@
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
         <f>RIGHT(D104:D248,4)</f>
-        <v>7157</v>
+        <v>6788</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D104" s="28">
-        <v>1001300387157</v>
+        <v>1001300456788</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23"/>
@@ -4564,17 +4568,17 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D248,4)</f>
-        <v>6790</v>
+        <f>RIGHT(D105:D249,4)</f>
+        <v>7157</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D105" s="28">
-        <v>1001300366790</v>
+        <v>1001300387157</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="23"/>
@@ -4588,126 +4592,126 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D247,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B106" s="64" t="s">
-        <v>117</v>
+        <f>RIGHT(D106:D249,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D106" s="28">
-        <v>1001303987169</v>
+        <v>1001300366790</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F106" s="23"/>
       <c r="G106" s="23">
-        <f>E106*F106</f>
+        <f>E106*1</f>
         <v>0</v>
       </c>
       <c r="H106" s="14"/>
-      <c r="I106" s="14">
-        <v>50</v>
-      </c>
+      <c r="I106" s="14"/>
       <c r="J106" s="39"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
         <f>RIGHT(D107:D248,4)</f>
-        <v>6791</v>
+        <v>7169</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001304096791</v>
+        <v>1001303987169</v>
       </c>
       <c r="E107" s="24"/>
-      <c r="F107" s="23"/>
+      <c r="F107" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G107" s="23">
-        <f>E107*0.33</f>
+        <f>E107*F107</f>
         <v>0</v>
       </c>
       <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
+      <c r="I107" s="14">
+        <v>50</v>
+      </c>
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
         <f>RIGHT(D108:D249,4)</f>
-        <v>7166</v>
+        <v>6791</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>23</v>
+        <v>118</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D108" s="28">
-        <v>1001303987166</v>
+        <v>1001304096791</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="23"/>
       <c r="G108" s="23">
-        <f>E108*1</f>
+        <f>E108*0.33</f>
         <v>0</v>
       </c>
       <c r="H108" s="14"/>
-      <c r="I108" s="14">
-        <v>50</v>
-      </c>
+      <c r="I108" s="14"/>
       <c r="J108" s="39"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
         <f>RIGHT(D109:D250,4)</f>
-        <v>6459</v>
+        <v>7166</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>26</v>
+        <v>119</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D109" s="28">
-        <v>1001214196459</v>
+        <v>1001303987166</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F109" s="23"/>
       <c r="G109" s="23">
-        <f>E109*F109</f>
+        <f>E109*1</f>
         <v>0</v>
       </c>
       <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
+      <c r="I109" s="14">
+        <v>50</v>
+      </c>
       <c r="J109" s="39"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
         <f>RIGHT(D110:D251,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="23"/>
+      <c r="F110" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G110" s="23">
-        <f>E110*0.09</f>
+        <f>E110*F110</f>
         <v>0</v>
       </c>
       <c r="H110" s="14"/>
@@ -4716,17 +4720,17 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D249,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D111:D252,4)</f>
+        <v>6586</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D111" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="23"/>
@@ -4741,23 +4745,21 @@
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
         <f>RIGHT(D112:D250,4)</f>
-        <v>7087</v>
+        <v>6228</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="28">
-        <v>1001084227087</v>
+        <v>1001225416228</v>
       </c>
       <c r="E112" s="24"/>
-      <c r="F112" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F112" s="23"/>
       <c r="G112" s="23">
-        <f>F112*E112</f>
+        <f>E112*0.09</f>
         <v>0</v>
       </c>
       <c r="H112" s="14"/>
@@ -4766,219 +4768,215 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D249,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D113:D251,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B113" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D113" s="28">
-        <v>1001051875544</v>
+        <v>1001084227087</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="23">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="G113" s="23">
-        <f>E113*1</f>
+        <f>F113*E113</f>
         <v>0</v>
       </c>
-      <c r="H113" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I113" s="14">
-        <v>45</v>
-      </c>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
       <c r="J113" s="39"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f t="shared" ref="A114:A119" si="0">RIGHT(D114:D251,4)</f>
-        <v>6697</v>
+        <f>RIGHT(D114:D250,4)</f>
+        <v>5544</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>26</v>
+        <v>124</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D114" s="28">
-        <v>1001301876697</v>
+        <v>1001051875544</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G114" s="23">
-        <f>E114*0.35</f>
+        <f>E114*1</f>
         <v>0</v>
       </c>
       <c r="H114" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I114" s="14">
         <v>45</v>
       </c>
       <c r="J114" s="39"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A115:A120" si="3">RIGHT(D115:D252,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G115" s="23">
+        <f>E115*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I115" s="14">
+        <v>45</v>
+      </c>
+      <c r="J115" s="39"/>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="93" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B115" s="74" t="s">
+      <c r="B116" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="73"/>
-      <c r="G115" s="74"/>
-      <c r="H115" s="74"/>
-      <c r="I115" s="74"/>
-      <c r="J115" s="75"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="93" t="str">
-        <f t="shared" si="0"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="74"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="75"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>5706</v>
       </c>
-      <c r="B116" s="27" t="s">
+      <c r="B117" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G116" s="23">
-        <f>E116*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H116" s="14">
-        <v>2</v>
-      </c>
-      <c r="I116" s="14">
-        <v>120</v>
-      </c>
-      <c r="J116" s="39"/>
-    </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>6454</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G117" s="23">
-        <f>E117*0.1</f>
+        <f>E117*0.25</f>
         <v>0</v>
       </c>
       <c r="H117" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I117" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J117" s="39"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>6222</v>
+        <f t="shared" si="3"/>
+        <v>6454</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="23"/>
+      <c r="F118" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G118" s="23">
-        <f>E118*0.09</f>
+        <f>E118*0.1</f>
         <v>0</v>
       </c>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
+      <c r="H118" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I118" s="14">
+        <v>60</v>
+      </c>
       <c r="J118" s="39"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>5931</v>
+        <f t="shared" si="3"/>
+        <v>6222</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E119" s="24"/>
-      <c r="F119" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F119" s="23"/>
       <c r="G119" s="23">
-        <f>E119*0.22</f>
+        <f>E119*0.09</f>
         <v>0</v>
       </c>
-      <c r="H119" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I119" s="14">
-        <v>120</v>
-      </c>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
       <c r="J119" s="39"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f>RIGHT(D120:D258,4)</f>
-        <v>5708</v>
+        <f t="shared" si="3"/>
+        <v>5931</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>23</v>
+        <v>130</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G120" s="23">
-        <f>E120*1</f>
+        <f>E120*0.22</f>
         <v>0</v>
       </c>
       <c r="H120" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I120" s="14">
         <v>120</v>
@@ -4988,40 +4986,46 @@
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
         <f>RIGHT(D121:D259,4)</f>
-        <v>1146</v>
+        <v>5708</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D121" s="28">
-        <v>1001061971146</v>
+        <v>1001063145708</v>
       </c>
       <c r="E121" s="24"/>
-      <c r="F121" s="23"/>
+      <c r="F121" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G121" s="23">
-        <f>E121</f>
+        <f>E121*1</f>
         <v>0</v>
       </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
+      <c r="H121" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I121" s="14">
+        <v>120</v>
+      </c>
       <c r="J121" s="39"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
         <f>RIGHT(D122:D260,4)</f>
-        <v>7150</v>
+        <v>1146</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C122" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D122" s="28">
-        <v>1001063237150</v>
+        <v>1001061971146</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23"/>
@@ -5035,22 +5039,22 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f>RIGHT(D123:D259,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D123:D261,4)</f>
+        <v>7150</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>26</v>
+        <v>133</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D123" s="28">
-        <v>1001203146834</v>
+        <v>1001063237150</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23"/>
       <c r="G123" s="23">
-        <f>E123*0.1</f>
+        <f>E123</f>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
@@ -5060,23 +5064,21 @@
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
         <f>RIGHT(D124:D260,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E124" s="24"/>
-      <c r="F124" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F124" s="23"/>
       <c r="G124" s="23">
-        <f>F124*E124</f>
+        <f>E124*0.1</f>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -5086,20 +5088,20 @@
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
         <f>RIGHT(D125:D261,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G125" s="23">
         <f>F125*E125</f>
@@ -5111,21 +5113,21 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f>RIGHT(D126:D261,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D126:D262,4)</f>
+        <v>6221</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G126" s="23">
         <f>F126*E126</f>
@@ -5137,47 +5139,43 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f>RIGHT(D127:D263,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D127:D262,4)</f>
+        <v>5679</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G127" s="23">
-        <f>E127*0.25</f>
+        <f>F127*E127</f>
         <v>0</v>
       </c>
-      <c r="H127" s="14">
-        <v>2</v>
-      </c>
-      <c r="I127" s="14">
-        <v>120</v>
-      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
       <c r="J127" s="39"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
         <f>RIGHT(D128:D264,4)</f>
-        <v>3986</v>
+        <v>4993</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001061973986</v>
+        <v>1001060764993</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
@@ -5187,30 +5185,34 @@
         <f>E128*0.25</f>
         <v>0</v>
       </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
+      <c r="H128" s="14">
+        <v>2</v>
+      </c>
+      <c r="I128" s="14">
+        <v>120</v>
+      </c>
       <c r="J128" s="39"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f t="shared" ref="A129:A133" si="1">RIGHT(D129:D264,4)</f>
-        <v>7105</v>
+        <f>RIGHT(D129:D265,4)</f>
+        <v>3986</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001203207105</v>
+        <v>1001061973986</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" ref="G129:G137" si="2">F129*E129</f>
+        <f>E129*0.25</f>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5219,24 +5221,24 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7106</v>
+        <f t="shared" ref="A130:A134" si="4">RIGHT(D130:D265,4)</f>
+        <v>7105</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
         <v>0.09</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G130:G138" si="5">F130*E130</f>
         <v>0</v>
       </c>
       <c r="H130" s="14"/>
@@ -5245,24 +5247,24 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7107</v>
+        <f t="shared" si="4"/>
+        <v>7106</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
         <v>0.09</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
@@ -5271,24 +5273,24 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7147</v>
+        <f t="shared" si="4"/>
+        <v>7107</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1001063237147</v>
+        <v>1001205467107</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5297,24 +5299,24 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7229</v>
+        <f t="shared" si="4"/>
+        <v>7147</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="28">
-        <v>1001063237229</v>
+        <v>1001063237147</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5323,24 +5325,24 @@
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
-        <f>RIGHT(D134:D268,4)</f>
-        <v>7225</v>
+        <f t="shared" si="4"/>
+        <v>7229</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C134" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="28">
-        <v>1001066537225</v>
+        <v>1001063237229</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
         <v>0.18</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
@@ -5350,23 +5352,23 @@
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
         <f>RIGHT(D135:D269,4)</f>
-        <v>7227</v>
+        <v>7225</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="28">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
         <v>0.18</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5376,23 +5378,23 @@
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
         <f>RIGHT(D136:D270,4)</f>
-        <v>7226</v>
+        <v>7227</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
         <v>0.18</v>
       </c>
       <c r="G136" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5401,24 +5403,24 @@
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
-        <f>RIGHT(D137:D264,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D137:D271,4)</f>
+        <v>7226</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="28">
-        <v>1001062353684</v>
+        <v>1001066527226</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G137" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
@@ -5427,209 +5429,209 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D264,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D138:D265,4)</f>
+        <v>3684</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C138" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G138" s="23">
-        <f>E138*0.12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H138" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I138" s="14">
-        <v>60</v>
-      </c>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
       <c r="J138" s="39"/>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D267,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D139:D265,4)</f>
+        <v>5682</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>23</v>
+        <v>148</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D139" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G139" s="23">
-        <f>E139*1</f>
+        <f>E139*0.12</f>
         <v>0</v>
       </c>
       <c r="H139" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I139" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J139" s="39"/>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
         <f>RIGHT(D140:D268,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D140" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E140" s="24"/>
-      <c r="F140" s="23"/>
+      <c r="F140" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G140" s="23">
-        <f>E140</f>
+        <f>E140*1</f>
         <v>0</v>
       </c>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
+      <c r="H140" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I140" s="14">
+        <v>120</v>
+      </c>
       <c r="J140" s="39"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
-        <f>RIGHT(D141:D268,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D141:D269,4)</f>
+        <v>3680</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D141" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F141" s="23"/>
       <c r="G141" s="23">
-        <f>E141*0.25</f>
+        <f>E141</f>
         <v>0</v>
       </c>
-      <c r="H141" s="14">
-        <v>2</v>
-      </c>
-      <c r="I141" s="14">
-        <v>120</v>
-      </c>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
       <c r="J141" s="39"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
         <f>RIGHT(D142:D269,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C142" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D142" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G142" s="23">
-        <f>E142*0.1</f>
+        <f>E142*0.25</f>
         <v>0</v>
       </c>
       <c r="H142" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I142" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J142" s="39"/>
     </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="93" t="str">
         <f>RIGHT(D143:D270,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E143" s="24"/>
+      <c r="F143" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G143" s="23">
+        <f>E143*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H143" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I143" s="14">
+        <v>60</v>
+      </c>
+      <c r="J143" s="39"/>
+    </row>
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="93" t="str">
+        <f>RIGHT(D144:D271,4)</f>
         <v/>
       </c>
-      <c r="B143" s="74" t="s">
+      <c r="B144" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="74"/>
-      <c r="H143" s="74"/>
-      <c r="I143" s="74"/>
-      <c r="J143" s="75"/>
-    </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="93" t="str">
-        <f>RIGHT(D144:D274,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B144" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D144" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E144" s="24"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="23">
-        <f>E144*1</f>
-        <v>0</v>
-      </c>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="39"/>
-    </row>
-    <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="74"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74"/>
+      <c r="F144" s="73"/>
+      <c r="G144" s="74"/>
+      <c r="H144" s="74"/>
+      <c r="I144" s="74"/>
+      <c r="J144" s="75"/>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
         <f>RIGHT(D145:D275,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D145" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E145" s="24"/>
-      <c r="F145" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F145" s="23"/>
       <c r="G145" s="23">
-        <f>F145*E145</f>
+        <f>E145*1</f>
         <v>0</v>
       </c>
       <c r="H145" s="14"/>
@@ -5639,20 +5641,20 @@
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
         <f>RIGHT(D146:D276,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G146" s="23">
         <f>F146*E146</f>
@@ -5665,20 +5667,20 @@
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
         <f>RIGHT(D147:D277,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C147" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D147" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G147" s="23">
         <f>F147*E147</f>
@@ -5690,22 +5692,24 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
-        <f>RIGHT(D148:D275,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D148:D278,4)</f>
+        <v>6411</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D148" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E148" s="24"/>
-      <c r="F148" s="23"/>
+      <c r="F148" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G148" s="23">
-        <f>E148*1</f>
+        <f>F148*E148</f>
         <v>0</v>
       </c>
       <c r="H148" s="14"/>
@@ -5714,47 +5718,41 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D272,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B149" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D149:D276,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B149" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E149" s="24"/>
-      <c r="F149" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F149" s="23"/>
       <c r="G149" s="23">
-        <f>E149*0.4</f>
+        <f>E149*1</f>
         <v>0</v>
       </c>
-      <c r="H149" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I149" s="14">
-        <v>60</v>
-      </c>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
       <c r="J149" s="39"/>
     </row>
-    <row r="150" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
         <f>RIGHT(D150:D273,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C150" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
@@ -5764,101 +5762,105 @@
         <f>E150*0.4</f>
         <v>0</v>
       </c>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
+      <c r="H150" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I150" s="14">
+        <v>60</v>
+      </c>
       <c r="J150" s="39"/>
     </row>
-    <row r="151" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D275,4)</f>
+        <f>RIGHT(D151:D274,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E151" s="24"/>
+      <c r="F151" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G151" s="23">
+        <f>E151*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="39"/>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="93" t="str">
+        <f>RIGHT(D152:D276,4)</f>
         <v/>
       </c>
-      <c r="B151" s="74" t="s">
+      <c r="B152" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C151" s="74"/>
-      <c r="D151" s="74"/>
-      <c r="E151" s="74"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="74"/>
-      <c r="H151" s="74"/>
-      <c r="I151" s="74"/>
-      <c r="J151" s="75"/>
-    </row>
-    <row r="152" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="93" t="str">
-        <f>RIGHT(D152:D278,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C152" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E152" s="24"/>
-      <c r="F152" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G152" s="23">
-        <f>E152*F152</f>
-        <v>0</v>
-      </c>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14">
-        <v>50</v>
-      </c>
-      <c r="J152" s="39"/>
-    </row>
-    <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="73"/>
+      <c r="G152" s="74"/>
+      <c r="H152" s="74"/>
+      <c r="I152" s="74"/>
+      <c r="J152" s="75"/>
+    </row>
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
         <f>RIGHT(D153:D279,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C153" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
         <v>0.3</v>
       </c>
       <c r="G153" s="23">
-        <f t="shared" ref="G153:G159" si="3">F153*E153</f>
+        <f>E153*F153</f>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="92"/>
+      <c r="I153" s="14">
+        <v>50</v>
+      </c>
+      <c r="J153" s="39"/>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
         <f>RIGHT(D154:D280,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
         <v>0.3</v>
       </c>
       <c r="G154" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G154:G160" si="6">F154*E154</f>
         <v>0</v>
       </c>
       <c r="H154" s="14"/>
@@ -5868,23 +5870,23 @@
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
         <f>RIGHT(D155:D281,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C155" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G155" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H155" s="14"/>
@@ -5893,24 +5895,24 @@
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
-        <f>RIGHT(D156:D281,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D156:D282,4)</f>
+        <v>6201</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G156" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H156" s="14"/>
@@ -5919,24 +5921,24 @@
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
-        <f>RIGHT(D157:D281,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D157:D282,4)</f>
+        <v>6842</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C157" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
         <v>0.3</v>
       </c>
       <c r="G157" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
@@ -5945,24 +5947,24 @@
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
-        <f>RIGHT(D158:D279,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D158:D282,4)</f>
+        <v>6492</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C158" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G158" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H158" s="14"/>
@@ -5972,23 +5974,23 @@
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93" t="str">
         <f>RIGHT(D159:D280,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C159" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D159" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G159" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H159" s="14"/>
@@ -5998,23 +6000,23 @@
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93" t="str">
         <f>RIGHT(D160:D281,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D160" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G160" s="23">
-        <f>E160</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H160" s="14"/>
@@ -6023,17 +6025,17 @@
     </row>
     <row r="161" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
-        <f>RIGHT(D161:D281,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D161:D282,4)</f>
+        <v>7052</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C161" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D161" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
@@ -6049,47 +6051,47 @@
     </row>
     <row r="162" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
-        <f>RIGHT(D162:D281,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C162" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D162:D282,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D162" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G162" s="23">
-        <f>F162*E162</f>
+        <f>E162</f>
         <v>0</v>
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
-      <c r="J162" s="39"/>
+      <c r="J162" s="92"/>
     </row>
     <row r="163" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
         <f>RIGHT(D163:D282,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C163" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D163" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G163" s="23">
         <f>F163*E163</f>
@@ -6097,56 +6099,65 @@
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
-      <c r="J163" s="92"/>
-    </row>
-    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J163" s="39"/>
+    </row>
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="93" t="str">
-        <f>RIGHT(D164:D279,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B164" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C164" s="35" t="s">
+        <f>RIGHT(D164:D283,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D164" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E164" s="24"/>
-      <c r="F164" s="23"/>
+      <c r="F164" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G164" s="23">
-        <f>E164*0.18</f>
+        <f>F164*E164</f>
         <v>0</v>
       </c>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="92"/>
     </row>
-    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="93" t="str">
         <f>RIGHT(D165:D280,4)</f>
-        <v/>
-      </c>
-      <c r="B165" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C165" s="74"/>
-      <c r="D165" s="74"/>
-      <c r="E165" s="74"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="74"/>
-      <c r="I165" s="74"/>
-      <c r="J165" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E165" s="24"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23">
+        <f>E165*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="92"/>
     </row>
     <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="93" t="str">
-        <f>RIGHT(D166:D283,4)</f>
+        <f>RIGHT(D166:D281,4)</f>
         <v/>
       </c>
       <c r="B166" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C166" s="74"/>
       <c r="D166" s="74"/>
@@ -6157,73 +6168,66 @@
       <c r="I166" s="74"/>
       <c r="J166" s="75"/>
     </row>
-    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="93" t="str">
         <f>RIGHT(D167:D284,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B167" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C167" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D167" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E167" s="24"/>
-      <c r="F167" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G167" s="23">
-        <f>E167*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H167" s="14">
-        <v>8</v>
-      </c>
-      <c r="I167" s="72">
-        <v>120</v>
-      </c>
-      <c r="J167" s="39"/>
-    </row>
-    <row r="168" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B167" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="74"/>
+      <c r="I167" s="74"/>
+      <c r="J167" s="75"/>
+    </row>
+    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="93" t="str">
         <f>RIGHT(D168:D285,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B168" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D168" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E168" s="24"/>
-      <c r="F168" s="23"/>
+      <c r="F168" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G168" s="23">
-        <f>E168*0.45</f>
+        <f>E168*0.5</f>
         <v>0</v>
       </c>
-      <c r="H168" s="14"/>
-      <c r="I168" s="72"/>
+      <c r="H168" s="14">
+        <v>8</v>
+      </c>
+      <c r="I168" s="72">
+        <v>120</v>
+      </c>
       <c r="J168" s="39"/>
     </row>
     <row r="169" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="93" t="str">
         <f>RIGHT(D169:D286,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B169" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C169" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D169" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E169" s="24"/>
       <c r="F169" s="23"/>
@@ -6235,174 +6239,168 @@
       <c r="I169" s="72"/>
       <c r="J169" s="39"/>
     </row>
-    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="93" t="str">
-        <f t="shared" ref="A170:A181" si="4">RIGHT(D170:D285,4)</f>
+        <f>RIGHT(D170:D287,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B170" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E170" s="24"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23">
+        <f>E170*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H170" s="14"/>
+      <c r="I170" s="72"/>
+      <c r="J170" s="39"/>
+    </row>
+    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="93" t="str">
+        <f t="shared" ref="A171:A182" si="7">RIGHT(D171:D286,4)</f>
         <v>6313</v>
       </c>
-      <c r="B170" s="47" t="s">
+      <c r="B171" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C170" s="36" t="s">
+      <c r="C171" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D170" s="28">
+      <c r="D171" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E170" s="24"/>
-      <c r="F170" s="23">
+      <c r="E171" s="24"/>
+      <c r="F171" s="23">
         <v>0.9</v>
       </c>
-      <c r="G170" s="23">
-        <f>E170*0.9</f>
+      <c r="G171" s="23">
+        <f>E171*0.9</f>
         <v>0</v>
       </c>
-      <c r="H170" s="14">
+      <c r="H171" s="14">
         <v>9</v>
       </c>
-      <c r="I170" s="72">
+      <c r="I171" s="72">
         <v>120</v>
       </c>
-      <c r="J170" s="39"/>
-    </row>
-    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B171" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C171" s="74"/>
-      <c r="D171" s="74"/>
-      <c r="E171" s="74"/>
-      <c r="F171" s="73"/>
-      <c r="G171" s="74"/>
-      <c r="H171" s="74"/>
-      <c r="I171" s="74"/>
-      <c r="J171" s="75"/>
+      <c r="J171" s="39"/>
     </row>
     <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>4945</v>
-      </c>
-      <c r="B172" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C172" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D172" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E172" s="24"/>
-      <c r="F172" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G172" s="23">
-        <f>E172*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H172" s="14">
-        <v>8</v>
-      </c>
-      <c r="I172" s="72">
-        <v>120</v>
-      </c>
-      <c r="J172" s="39"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B172" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="74"/>
+      <c r="I172" s="74"/>
+      <c r="J172" s="75"/>
     </row>
     <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
+        <v>4945</v>
+      </c>
+      <c r="B173" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C173" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E173" s="24"/>
+      <c r="F173" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G173" s="23">
+        <f>E173*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H173" s="14">
+        <v>8</v>
+      </c>
+      <c r="I173" s="72">
+        <v>120</v>
+      </c>
+      <c r="J173" s="39"/>
+    </row>
+    <row r="174" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="93" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="B173" s="74" t="s">
+      <c r="B174" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C173" s="74"/>
-      <c r="D173" s="74"/>
-      <c r="E173" s="74"/>
-      <c r="F173" s="73"/>
-      <c r="G173" s="74"/>
-      <c r="H173" s="74"/>
-      <c r="I173" s="74"/>
-      <c r="J173" s="75"/>
-    </row>
-    <row r="174" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="93" t="str">
-        <f t="shared" si="4"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="74"/>
+      <c r="E174" s="74"/>
+      <c r="F174" s="73"/>
+      <c r="G174" s="74"/>
+      <c r="H174" s="74"/>
+      <c r="I174" s="74"/>
+      <c r="J174" s="75"/>
+    </row>
+    <row r="175" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="93" t="str">
+        <f t="shared" si="7"/>
         <v>4956</v>
       </c>
-      <c r="B174" s="89" t="s">
+      <c r="B175" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="C174" s="90" t="s">
+      <c r="C175" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D174" s="83">
+      <c r="D175" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E174" s="84"/>
-      <c r="F174" s="85">
+      <c r="E175" s="84"/>
+      <c r="F175" s="85">
         <v>0.42</v>
       </c>
-      <c r="G174" s="85">
-        <f>E174*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H174" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I174" s="91">
-        <v>120</v>
-      </c>
-      <c r="J174" s="86"/>
-      <c r="K174" s="87"/>
-    </row>
-    <row r="175" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>1762</v>
-      </c>
-      <c r="B175" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C175" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D175" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E175" s="24"/>
-      <c r="F175" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G175" s="23">
+      <c r="G175" s="85">
         <f>E175*0.42</f>
         <v>0</v>
       </c>
-      <c r="H175" s="14">
+      <c r="H175" s="86">
         <v>4.2</v>
       </c>
-      <c r="I175" s="72">
+      <c r="I175" s="91">
         <v>120</v>
       </c>
-      <c r="J175" s="39"/>
-    </row>
-    <row r="176" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J175" s="86"/>
+      <c r="K175" s="87"/>
+    </row>
+    <row r="176" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A176" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>1764</v>
+        <f t="shared" si="7"/>
+        <v>1762</v>
       </c>
       <c r="B176" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="C176" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C176" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D176" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E176" s="24"/>
       <c r="F176" s="23">
@@ -6420,30 +6418,43 @@
       </c>
       <c r="J176" s="39"/>
     </row>
-    <row r="177" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B177" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="C177" s="74"/>
-      <c r="D177" s="74"/>
-      <c r="E177" s="74"/>
-      <c r="F177" s="73"/>
-      <c r="G177" s="74"/>
-      <c r="H177" s="74"/>
-      <c r="I177" s="74"/>
-      <c r="J177" s="75"/>
+        <f t="shared" si="7"/>
+        <v>1764</v>
+      </c>
+      <c r="B177" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E177" s="24"/>
+      <c r="F177" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G177" s="23">
+        <f>E177*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H177" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I177" s="72">
+        <v>120</v>
+      </c>
+      <c r="J177" s="39"/>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B178" s="74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C178" s="74"/>
       <c r="D178" s="74"/>
@@ -6456,131 +6467,138 @@
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B179" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C179" s="74"/>
+      <c r="D179" s="74"/>
+      <c r="E179" s="74"/>
+      <c r="F179" s="73"/>
+      <c r="G179" s="74"/>
+      <c r="H179" s="74"/>
+      <c r="I179" s="74"/>
+      <c r="J179" s="75"/>
+    </row>
+    <row r="180" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="93" t="str">
+        <f t="shared" si="7"/>
         <v>6004</v>
       </c>
-      <c r="B179" s="47" t="s">
+      <c r="B180" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C179" s="36" t="s">
+      <c r="C180" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D179" s="68" t="s">
+      <c r="D180" s="68" t="s">
         <v>190</v>
-      </c>
-      <c r="E179" s="24"/>
-      <c r="F179" s="23">
-        <v>1</v>
-      </c>
-      <c r="G179" s="23">
-        <f>E179*1</f>
-        <v>0</v>
-      </c>
-      <c r="H179" s="14">
-        <v>8</v>
-      </c>
-      <c r="I179" s="72">
-        <v>120</v>
-      </c>
-      <c r="J179" s="39"/>
-    </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>5417</v>
-      </c>
-      <c r="B180" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C180" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D180" s="68" t="s">
-        <v>192</v>
       </c>
       <c r="E180" s="24"/>
       <c r="F180" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" s="23">
         <f>E180*1</f>
         <v>0</v>
       </c>
       <c r="H180" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I180" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J180" s="39"/>
     </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A181" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>6019</v>
+        <f t="shared" si="7"/>
+        <v>5417</v>
       </c>
       <c r="B181" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="C181" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D181" s="69" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" s="68" t="s">
+        <v>192</v>
       </c>
       <c r="E181" s="24"/>
       <c r="F181" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181" s="23">
         <f>E181*1</f>
         <v>0</v>
       </c>
       <c r="H181" s="14">
+        <v>6</v>
+      </c>
+      <c r="I181" s="72">
+        <v>90</v>
+      </c>
+      <c r="J181" s="39"/>
+    </row>
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="93" t="str">
+        <f t="shared" si="7"/>
+        <v>6019</v>
+      </c>
+      <c r="B182" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C182" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E182" s="24"/>
+      <c r="F182" s="23">
+        <v>1</v>
+      </c>
+      <c r="G182" s="23">
+        <f>E182*1</f>
+        <v>0</v>
+      </c>
+      <c r="H182" s="14">
         <v>12</v>
       </c>
-      <c r="I181" s="72">
+      <c r="I182" s="72">
         <v>120</v>
       </c>
-      <c r="J181" s="39"/>
-    </row>
-    <row r="182" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="77"/>
-      <c r="B182" s="77" t="s">
+      <c r="J182" s="39"/>
+    </row>
+    <row r="183" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="77"/>
+      <c r="B183" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C182" s="16"/>
-      <c r="D182" s="48"/>
-      <c r="E182" s="17">
-        <f>SUM(E5:E181)</f>
+      <c r="C183" s="16"/>
+      <c r="D183" s="48"/>
+      <c r="E183" s="17">
+        <f>SUM(E5:E182)</f>
         <v>0</v>
       </c>
-      <c r="F182" s="17">
-        <f>SUM(F10:F181)</f>
+      <c r="F183" s="17">
+        <f>SUM(F10:F182)</f>
         <v>46.96333333333331</v>
       </c>
-      <c r="G182" s="17">
-        <f>SUM(G11:G181)</f>
+      <c r="G183" s="17">
+        <f>SUM(G11:G182)</f>
         <v>0</v>
       </c>
-      <c r="H182" s="17">
-        <f>SUM(H10:H178)</f>
+      <c r="H183" s="17">
+        <f>SUM(H10:H179)</f>
         <v>128.91</v>
       </c>
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
-    </row>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="53"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="52"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
-      <c r="J183" s="21"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+    </row>
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B184" s="53"/>
       <c r="C184" s="18"/>
       <c r="D184" s="52"/>
@@ -21810,17 +21828,27 @@
       <c r="I1706" s="20"/>
       <c r="J1706" s="21"/>
     </row>
+    <row r="1707" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1707" s="53"/>
+      <c r="C1707" s="18"/>
+      <c r="D1707" s="52"/>
+      <c r="F1707" s="19"/>
+      <c r="G1707" s="19"/>
+      <c r="H1707" s="20"/>
+      <c r="I1707" s="20"/>
+      <c r="J1707" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J182" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J183" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B175" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B176" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D179:D181" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D180:D182" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
